--- a/LCA/LCI_ Inventories.xlsx
+++ b/LCA/LCI_ Inventories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mamy/Library/Mobile Documents/com~apple~CloudDocs/Work/Harimisa/Research/Projects/AAP_DRI/2025/DdS_Automn_school/Group_work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welkerm\cursor\PAW_MFA_LCA_2025\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989A5969-53A7-CF41-9483-F2832DC4CFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208411A-5092-4573-BBE1-207C05968B99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-1500" windowWidth="19040" windowHeight="21600" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
+    <workbookView xWindow="30240" yWindow="-1500" windowWidth="19035" windowHeight="21600" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
   </bookViews>
   <sheets>
     <sheet name="Directory" sheetId="2" r:id="rId1"/>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="131">
   <si>
     <t>Database</t>
   </si>
@@ -260,12 +250,6 @@
     <t>EDTA, ethylenediaminetetraacetic acid</t>
   </si>
   <si>
-    <t>Water, cooling, unspecified origin</t>
-  </si>
-  <si>
-    <t>natural resource::in water</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -413,15 +397,9 @@
     <t>trans_sldg_to_inc</t>
   </si>
   <si>
-    <t>metric ton kilometer</t>
-  </si>
-  <si>
     <t>transport, freight, lorry, diesel, unspecified</t>
   </si>
   <si>
-    <t>sewage sludge</t>
-  </si>
-  <si>
     <t>transport of fertilizer to soil</t>
   </si>
   <si>
@@ -438,13 +416,16 @@
   </si>
   <si>
     <t>ecoinvent-3.11-biosphere</t>
+  </si>
+  <si>
+    <t>ton kilometer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,7 +517,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -878,14 +859,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" s="6">
         <v>230</v>
       </c>
@@ -893,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" s="8">
         <v>102</v>
       </c>
@@ -901,7 +882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15">
       <c r="A6" s="7">
         <v>128</v>
       </c>
@@ -916,19 +897,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9BD897-F590-4437-A121-ED2632AD5485}">
-  <dimension ref="A1:O187"/>
+  <dimension ref="A1:O186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="173" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="171" workbookViewId="0">
+      <selection activeCell="I185" sqref="I185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -936,15 +917,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="4" customFormat="1" ht="15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -952,7 +933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -960,7 +941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -968,7 +949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -976,7 +957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -984,7 +965,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -992,7 +973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1000,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1008,7 +989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1016,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1032,7 +1013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1040,12 +1021,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1092,7 +1073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1140,7 +1121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1154,7 +1135,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
@@ -1187,7 +1168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +1176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1203,7 +1184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1211,7 +1192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1219,7 +1200,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1227,7 +1208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1243,7 +1224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1251,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1259,7 +1240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1267,7 +1248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1275,12 +1256,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1327,7 +1308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1375,7 +1356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1389,7 +1370,7 @@
         <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -1422,7 +1403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1436,7 +1417,7 @@
         <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -1469,7 +1450,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -1477,7 +1458,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1485,7 +1466,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1493,7 +1474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1501,7 +1482,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1509,7 +1490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1517,7 +1498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1525,7 +1506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1533,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -1541,7 +1522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1549,7 +1530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1557,12 +1538,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1609,7 +1590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1657,7 +1638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -1671,7 +1652,7 @@
         <v>49</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -1704,7 +1685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -1718,7 +1699,7 @@
         <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -1751,7 +1732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -1765,7 +1746,7 @@
         <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -1798,7 +1779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -1812,7 +1793,7 @@
         <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -1845,7 +1826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -1859,7 +1840,7 @@
         <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -1892,7 +1873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -1906,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -1939,7 +1920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -1953,7 +1934,7 @@
         <v>49</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -1986,7 +1967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -2000,7 +1981,7 @@
         <v>49</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -2033,7 +2014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -2047,7 +2028,7 @@
         <v>49</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -2080,34 +2061,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E61" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="H61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" t="s">
         <v>77</v>
       </c>
-      <c r="I61" t="s">
-        <v>76</v>
-      </c>
       <c r="J61">
         <v>0</v>
       </c>
@@ -2127,7 +2108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -2141,7 +2122,7 @@
         <v>49</v>
       </c>
       <c r="E62" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -2174,7 +2155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2182,25 +2163,25 @@
         <v>80</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>6.2700000000000006E-2</v>
       </c>
       <c r="D63" t="s">
         <v>49</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s">
         <v>43</v>
       </c>
       <c r="I63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2221,27 +2202,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64">
-        <v>6.2700000000000006E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D64" t="s">
         <v>49</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="H64" t="s">
         <v>43</v>
@@ -2268,7 +2249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -2276,19 +2257,19 @@
         <v>85</v>
       </c>
       <c r="C65">
-        <v>3.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="D65" t="s">
         <v>49</v>
       </c>
       <c r="E65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H65" t="s">
         <v>43</v>
@@ -2315,33 +2296,33 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C66">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D66" t="s">
         <v>49</v>
       </c>
       <c r="E66" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="H66" t="s">
         <v>43</v>
       </c>
       <c r="I66" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2362,12 +2343,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2376,19 +2357,19 @@
         <v>49</v>
       </c>
       <c r="E67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H67" t="s">
         <v>43</v>
       </c>
       <c r="I67" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2409,7 +2390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -2417,13 +2398,13 @@
         <v>89</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D68" t="s">
         <v>49</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -2456,7 +2437,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -2464,19 +2445,19 @@
         <v>91</v>
       </c>
       <c r="C69">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="D69" t="s">
         <v>49</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="H69" t="s">
         <v>43</v>
@@ -2503,268 +2484,268 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="71" spans="1:15">
+      <c r="A71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
         <v>93</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" t="s">
-        <v>132</v>
-      </c>
-      <c r="F70" t="s">
-        <v>42</v>
-      </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" t="s">
-        <v>43</v>
-      </c>
-      <c r="I70" t="s">
-        <v>94</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70" t="s">
-        <v>36</v>
-      </c>
-      <c r="L70" t="s">
-        <v>36</v>
-      </c>
-      <c r="M70" t="s">
-        <v>36</v>
-      </c>
-      <c r="N70" t="s">
-        <v>36</v>
-      </c>
-      <c r="O70" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" t="s">
         <v>9</v>
       </c>
-      <c r="B73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
         <v>15</v>
       </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="H83" t="s">
         <v>18</v>
       </c>
-      <c r="B80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="I83" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83" t="s">
+        <v>29</v>
+      </c>
+      <c r="L83" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" t="s">
+        <v>32</v>
+      </c>
+      <c r="O83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" t="s">
-        <v>18</v>
-      </c>
-      <c r="I84" t="s">
-        <v>22</v>
-      </c>
-      <c r="J84" t="s">
-        <v>28</v>
-      </c>
-      <c r="K84" t="s">
-        <v>29</v>
-      </c>
-      <c r="L84" t="s">
-        <v>30</v>
-      </c>
-      <c r="M84" t="s">
-        <v>31</v>
-      </c>
-      <c r="N84" t="s">
-        <v>32</v>
-      </c>
-      <c r="O84" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" t="str">
+      <c r="E84" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
+      <c r="F84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" t="s">
+        <v>93</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>36</v>
+      </c>
+      <c r="L84" t="s">
+        <v>36</v>
+      </c>
+      <c r="M84" t="s">
+        <v>36</v>
+      </c>
+      <c r="N84" t="s">
+        <v>36</v>
+      </c>
+      <c r="O84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" t="s">
+        <v>129</v>
+      </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="G85" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="H85" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="I85" t="s">
+        <v>74</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>36</v>
+      </c>
+      <c r="L85" t="s">
+        <v>36</v>
+      </c>
+      <c r="M85" t="s">
+        <v>36</v>
+      </c>
+      <c r="N85" t="s">
+        <v>36</v>
+      </c>
+      <c r="O85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
         <v>95</v>
       </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M85" t="s">
-        <v>36</v>
-      </c>
-      <c r="N85" t="s">
-        <v>36</v>
-      </c>
-      <c r="O85" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86" t="s">
-        <v>96</v>
-      </c>
       <c r="C86">
-        <v>5.0499999999999998E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D86" t="s">
         <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F86" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I86" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -2785,27 +2766,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>36</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87">
-        <v>-3.0000000000000001E-3</v>
+        <v>-5.4499999999999997E-7</v>
       </c>
       <c r="D87" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
       </c>
       <c r="G87" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="H87" t="s">
         <v>43</v>
@@ -2832,257 +2813,257 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88">
-        <v>-5.4499999999999997E-7</v>
+        <v>-5.0499999999999998E-3</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="H88" t="s">
         <v>43</v>
       </c>
       <c r="I88" t="s">
+        <v>104</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>36</v>
+      </c>
+      <c r="L88" t="s">
+        <v>36</v>
+      </c>
+      <c r="M88" t="s">
+        <v>36</v>
+      </c>
+      <c r="N88" t="s">
+        <v>36</v>
+      </c>
+      <c r="O88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88" t="s">
-        <v>36</v>
-      </c>
-      <c r="L88" t="s">
-        <v>36</v>
-      </c>
-      <c r="M88" t="s">
-        <v>36</v>
-      </c>
-      <c r="N88" t="s">
-        <v>36</v>
-      </c>
-      <c r="O88" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>36</v>
-      </c>
-      <c r="B89" t="s">
-        <v>99</v>
-      </c>
-      <c r="C89">
-        <v>-5.0499999999999998E-3</v>
-      </c>
-      <c r="D89" t="s">
-        <v>49</v>
-      </c>
-      <c r="E89" t="s">
-        <v>132</v>
-      </c>
-      <c r="F89" t="s">
-        <v>42</v>
-      </c>
-      <c r="G89" t="s">
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
         <v>16</v>
       </c>
-      <c r="H89" t="s">
-        <v>43</v>
-      </c>
-      <c r="I89" t="s">
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" t="s">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" t="s">
+        <v>28</v>
+      </c>
+      <c r="K102" t="s">
+        <v>29</v>
+      </c>
+      <c r="L102" t="s">
+        <v>30</v>
+      </c>
+      <c r="M102" t="s">
+        <v>31</v>
+      </c>
+      <c r="N102" t="s">
+        <v>32</v>
+      </c>
+      <c r="O102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89" t="s">
-        <v>36</v>
-      </c>
-      <c r="L89" t="s">
-        <v>36</v>
-      </c>
-      <c r="M89" t="s">
-        <v>36</v>
-      </c>
-      <c r="N89" t="s">
-        <v>36</v>
-      </c>
-      <c r="O89" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>11</v>
-      </c>
-      <c r="B94">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>17</v>
-      </c>
-      <c r="B98">
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>18</v>
-      </c>
-      <c r="B99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="D103" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" t="s">
-        <v>25</v>
-      </c>
-      <c r="C103" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103" t="s">
-        <v>26</v>
-      </c>
-      <c r="F103" t="s">
-        <v>27</v>
-      </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" t="s">
-        <v>18</v>
-      </c>
-      <c r="I103" t="s">
-        <v>22</v>
-      </c>
-      <c r="J103" t="s">
-        <v>28</v>
-      </c>
-      <c r="K103" t="s">
-        <v>29</v>
-      </c>
-      <c r="L103" t="s">
-        <v>30</v>
-      </c>
-      <c r="M103" t="s">
-        <v>31</v>
-      </c>
-      <c r="N103" t="s">
-        <v>32</v>
-      </c>
-      <c r="O103" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104" t="s">
-        <v>107</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104" t="s">
-        <v>21</v>
-      </c>
-      <c r="E104" t="str">
+      <c r="E103" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
+      <c r="F103" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" t="s">
+        <v>23</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>36</v>
+      </c>
+      <c r="L103" t="s">
+        <v>36</v>
+      </c>
+      <c r="M103" t="s">
+        <v>36</v>
+      </c>
+      <c r="N103" t="s">
+        <v>36</v>
+      </c>
+      <c r="O103" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104">
+        <v>0.17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" t="s">
+        <v>128</v>
+      </c>
       <c r="F104" t="s">
         <v>34</v>
       </c>
@@ -3090,10 +3071,10 @@
         <v>16</v>
       </c>
       <c r="H104" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I104" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -3114,210 +3095,210 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>36</v>
-      </c>
-      <c r="B105" t="s">
-        <v>40</v>
-      </c>
-      <c r="C105">
-        <v>0.17</v>
-      </c>
-      <c r="D105" t="s">
-        <v>41</v>
-      </c>
-      <c r="E105" t="s">
-        <v>132</v>
-      </c>
-      <c r="F105" t="s">
-        <v>34</v>
-      </c>
-      <c r="G105" t="s">
+    <row r="106" spans="1:15">
+      <c r="A106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
         <v>16</v>
       </c>
-      <c r="H105" t="s">
-        <v>43</v>
-      </c>
-      <c r="I105" t="s">
-        <v>44</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105" t="s">
-        <v>36</v>
-      </c>
-      <c r="L105" t="s">
-        <v>36</v>
-      </c>
-      <c r="M105" t="s">
-        <v>36</v>
-      </c>
-      <c r="N105" t="s">
-        <v>36</v>
-      </c>
-      <c r="O105" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" t="s">
         <v>9</v>
       </c>
-      <c r="B108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" t="s">
+        <v>27</v>
+      </c>
+      <c r="G118" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" t="s">
+        <v>28</v>
+      </c>
+      <c r="K118" t="s">
+        <v>29</v>
+      </c>
+      <c r="L118" t="s">
+        <v>30</v>
+      </c>
+      <c r="M118" t="s">
+        <v>31</v>
+      </c>
+      <c r="N118" t="s">
+        <v>32</v>
+      </c>
+      <c r="O118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>11</v>
-      </c>
-      <c r="B110">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>17</v>
-      </c>
-      <c r="B114">
+      <c r="B119" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>20</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="D119" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>22</v>
-      </c>
-      <c r="B117" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" t="s">
-        <v>25</v>
-      </c>
-      <c r="C119" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" t="s">
-        <v>20</v>
-      </c>
-      <c r="E119" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" t="s">
-        <v>27</v>
-      </c>
-      <c r="G119" t="s">
-        <v>15</v>
-      </c>
-      <c r="H119" t="s">
-        <v>18</v>
-      </c>
-      <c r="I119" t="s">
-        <v>22</v>
-      </c>
-      <c r="J119" t="s">
-        <v>28</v>
-      </c>
-      <c r="K119" t="s">
-        <v>29</v>
-      </c>
-      <c r="L119" t="s">
-        <v>30</v>
-      </c>
-      <c r="M119" t="s">
-        <v>31</v>
-      </c>
-      <c r="N119" t="s">
-        <v>32</v>
-      </c>
-      <c r="O119" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>111</v>
-      </c>
-      <c r="B120" t="s">
-        <v>110</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120" t="s">
-        <v>21</v>
-      </c>
-      <c r="E120" t="str">
+      <c r="E119" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
+      <c r="F119" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" t="s">
+        <v>35</v>
+      </c>
+      <c r="I119" t="s">
+        <v>55</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119" t="s">
+        <v>36</v>
+      </c>
+      <c r="L119" t="s">
+        <v>36</v>
+      </c>
+      <c r="M119" t="s">
+        <v>36</v>
+      </c>
+      <c r="N119" t="s">
+        <v>36</v>
+      </c>
+      <c r="O119" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>70</v>
+      </c>
+      <c r="C120">
+        <v>0.114</v>
+      </c>
+      <c r="D120" t="s">
+        <v>49</v>
+      </c>
+      <c r="E120" t="s">
+        <v>128</v>
+      </c>
       <c r="F120" t="s">
         <v>34</v>
       </c>
@@ -3325,234 +3306,234 @@
         <v>16</v>
       </c>
       <c r="H120" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I120" t="s">
+        <v>71</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>36</v>
+      </c>
+      <c r="L120" t="s">
+        <v>36</v>
+      </c>
+      <c r="M120" t="s">
+        <v>36</v>
+      </c>
+      <c r="N120" t="s">
+        <v>36</v>
+      </c>
+      <c r="O120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" t="s">
+        <v>22</v>
+      </c>
+      <c r="B132" t="s">
         <v>55</v>
       </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120" t="s">
-        <v>36</v>
-      </c>
-      <c r="L120" t="s">
-        <v>36</v>
-      </c>
-      <c r="M120" t="s">
-        <v>36</v>
-      </c>
-      <c r="N120" t="s">
-        <v>36</v>
-      </c>
-      <c r="O120" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>36</v>
-      </c>
-      <c r="B121" t="s">
-        <v>70</v>
-      </c>
-      <c r="C121">
-        <v>0.114</v>
-      </c>
-      <c r="D121" t="s">
-        <v>49</v>
-      </c>
-      <c r="E121" t="s">
-        <v>132</v>
-      </c>
-      <c r="F121" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121" t="s">
-        <v>16</v>
-      </c>
-      <c r="H121" t="s">
-        <v>43</v>
-      </c>
-      <c r="I121" t="s">
-        <v>71</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121" t="s">
-        <v>36</v>
-      </c>
-      <c r="L121" t="s">
-        <v>36</v>
-      </c>
-      <c r="M121" t="s">
-        <v>36</v>
-      </c>
-      <c r="N121" t="s">
-        <v>36</v>
-      </c>
-      <c r="O121" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" t="s">
         <v>9</v>
       </c>
-      <c r="B124" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>11</v>
-      </c>
-      <c r="B126">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>12</v>
-      </c>
-      <c r="B127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>14</v>
-      </c>
-      <c r="B128" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" t="s">
+        <v>26</v>
+      </c>
+      <c r="F134" t="s">
+        <v>27</v>
+      </c>
+      <c r="G134" t="s">
         <v>15</v>
       </c>
-      <c r="B129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>17</v>
-      </c>
-      <c r="B130">
+      <c r="H134" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" t="s">
+        <v>22</v>
+      </c>
+      <c r="J134" t="s">
+        <v>28</v>
+      </c>
+      <c r="K134" t="s">
+        <v>29</v>
+      </c>
+      <c r="L134" t="s">
+        <v>30</v>
+      </c>
+      <c r="M134" t="s">
+        <v>31</v>
+      </c>
+      <c r="N134" t="s">
+        <v>32</v>
+      </c>
+      <c r="O134" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" t="s">
+        <v>111</v>
+      </c>
+      <c r="B135" t="s">
+        <v>110</v>
+      </c>
+      <c r="C135">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>18</v>
-      </c>
-      <c r="B131" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>20</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="D135" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>22</v>
-      </c>
-      <c r="B133" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>9</v>
-      </c>
-      <c r="B135" t="s">
-        <v>25</v>
-      </c>
-      <c r="C135" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" t="s">
-        <v>20</v>
-      </c>
-      <c r="E135" t="s">
-        <v>26</v>
-      </c>
-      <c r="F135" t="s">
-        <v>27</v>
-      </c>
-      <c r="G135" t="s">
-        <v>15</v>
-      </c>
-      <c r="H135" t="s">
-        <v>18</v>
-      </c>
-      <c r="I135" t="s">
-        <v>22</v>
-      </c>
-      <c r="J135" t="s">
-        <v>28</v>
-      </c>
-      <c r="K135" t="s">
-        <v>29</v>
-      </c>
-      <c r="L135" t="s">
-        <v>30</v>
-      </c>
-      <c r="M135" t="s">
-        <v>31</v>
-      </c>
-      <c r="N135" t="s">
-        <v>32</v>
-      </c>
-      <c r="O135" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>113</v>
-      </c>
-      <c r="B136" t="s">
-        <v>112</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136" t="s">
-        <v>21</v>
-      </c>
-      <c r="E136" t="str">
+      <c r="E135" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
+      <c r="F135" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" t="s">
+        <v>16</v>
+      </c>
+      <c r="H135" t="s">
+        <v>35</v>
+      </c>
+      <c r="I135" t="s">
+        <v>55</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135" t="s">
+        <v>36</v>
+      </c>
+      <c r="L135" t="s">
+        <v>36</v>
+      </c>
+      <c r="M135" t="s">
+        <v>36</v>
+      </c>
+      <c r="N135" t="s">
+        <v>36</v>
+      </c>
+      <c r="O135" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136">
+        <v>0.02</v>
+      </c>
+      <c r="D136" t="s">
+        <v>49</v>
+      </c>
+      <c r="E136" t="s">
+        <v>128</v>
+      </c>
       <c r="F136" t="s">
         <v>34</v>
       </c>
@@ -3560,10 +3541,10 @@
         <v>16</v>
       </c>
       <c r="H136" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I136" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -3584,21 +3565,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>36</v>
       </c>
       <c r="B137" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C137">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D137" t="s">
         <v>49</v>
       </c>
       <c r="E137" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F137" t="s">
         <v>34</v>
@@ -3610,7 +3591,7 @@
         <v>43</v>
       </c>
       <c r="I137" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -3631,21 +3612,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
         <v>36</v>
       </c>
       <c r="B138" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D138" t="s">
         <v>49</v>
       </c>
       <c r="E138" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F138" t="s">
         <v>34</v>
@@ -3657,7 +3638,7 @@
         <v>43</v>
       </c>
       <c r="I138" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -3678,825 +3659,827 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>36</v>
-      </c>
-      <c r="B139" t="s">
+    <row r="140" spans="1:15">
+      <c r="A140" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C139">
-        <v>0.02</v>
-      </c>
-      <c r="D139" t="s">
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
         <v>49</v>
       </c>
-      <c r="E139" t="s">
-        <v>132</v>
-      </c>
-      <c r="F139" t="s">
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" t="s">
+        <v>26</v>
+      </c>
+      <c r="F148" t="s">
+        <v>27</v>
+      </c>
+      <c r="G148" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" t="s">
+        <v>22</v>
+      </c>
+      <c r="J148" t="s">
+        <v>28</v>
+      </c>
+      <c r="K148" t="s">
+        <v>29</v>
+      </c>
+      <c r="L148" t="s">
+        <v>30</v>
+      </c>
+      <c r="M148" t="s">
+        <v>31</v>
+      </c>
+      <c r="N148" t="s">
+        <v>32</v>
+      </c>
+      <c r="O148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" t="str">
+        <f>B141</f>
+        <v>inc</v>
+      </c>
+      <c r="B149" t="str">
+        <f>B140</f>
+        <v xml:space="preserve">sludge incineration </v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="str">
+        <f>B145</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E149" t="str">
+        <f>B2</f>
+        <v>paw_db</v>
+      </c>
+      <c r="F149" t="s">
         <v>34</v>
       </c>
-      <c r="G139" t="s">
-        <v>16</v>
-      </c>
-      <c r="H139" t="s">
-        <v>43</v>
-      </c>
-      <c r="I139" t="s">
-        <v>116</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-      <c r="K139" t="s">
-        <v>36</v>
-      </c>
-      <c r="L139" t="s">
-        <v>36</v>
-      </c>
-      <c r="M139" t="s">
-        <v>36</v>
-      </c>
-      <c r="N139" t="s">
-        <v>36</v>
-      </c>
-      <c r="O139" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="4" t="s">
+      <c r="G149" t="str">
+        <f>B142</f>
+        <v>Europe without Switzerland</v>
+      </c>
+      <c r="H149" t="s">
+        <v>35</v>
+      </c>
+      <c r="I149" t="str">
+        <f>B146</f>
+        <v>sewage sludge, 70% water, WWT, WW, average</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149" t="s">
+        <v>36</v>
+      </c>
+      <c r="L149" t="s">
+        <v>36</v>
+      </c>
+      <c r="M149" t="s">
+        <v>36</v>
+      </c>
+      <c r="N149" t="s">
+        <v>36</v>
+      </c>
+      <c r="O149" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" t="s">
+        <v>36</v>
+      </c>
+      <c r="B150" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>17</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>18</v>
-      </c>
-      <c r="B145" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>20</v>
-      </c>
-      <c r="B146" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>22</v>
-      </c>
-      <c r="B147" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149" t="s">
-        <v>25</v>
-      </c>
-      <c r="C149" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" t="s">
-        <v>20</v>
-      </c>
-      <c r="E149" t="s">
-        <v>26</v>
-      </c>
-      <c r="F149" t="s">
-        <v>27</v>
-      </c>
-      <c r="G149" t="s">
-        <v>15</v>
-      </c>
-      <c r="H149" t="s">
-        <v>18</v>
-      </c>
-      <c r="I149" t="s">
-        <v>22</v>
-      </c>
-      <c r="J149" t="s">
-        <v>28</v>
-      </c>
-      <c r="K149" t="s">
-        <v>29</v>
-      </c>
-      <c r="L149" t="s">
-        <v>30</v>
-      </c>
-      <c r="M149" t="s">
-        <v>31</v>
-      </c>
-      <c r="N149" t="s">
-        <v>32</v>
-      </c>
-      <c r="O149" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A150" t="str">
-        <f>B142</f>
-        <v>inc</v>
-      </c>
-      <c r="B150" t="str">
-        <f>B141</f>
-        <v xml:space="preserve">sludge incineration </v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150" t="str">
-        <f>B146</f>
+        <f>D149</f>
         <v>kilogram</v>
       </c>
-      <c r="E150" t="str">
-        <f>B2</f>
+      <c r="E150" t="s">
+        <v>128</v>
+      </c>
+      <c r="F150" t="s">
+        <v>42</v>
+      </c>
+      <c r="G150" t="str">
+        <f>B142</f>
+        <v>Europe without Switzerland</v>
+      </c>
+      <c r="H150" t="s">
+        <v>43</v>
+      </c>
+      <c r="I150" t="s">
+        <v>116</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150" t="s">
+        <v>36</v>
+      </c>
+      <c r="L150" t="s">
+        <v>36</v>
+      </c>
+      <c r="M150" t="s">
+        <v>36</v>
+      </c>
+      <c r="N150" t="s">
+        <v>36</v>
+      </c>
+      <c r="O150" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" t="s">
+        <v>22</v>
+      </c>
+      <c r="B158" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160" t="s">
+        <v>26</v>
+      </c>
+      <c r="F160" t="s">
+        <v>27</v>
+      </c>
+      <c r="G160" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" t="s">
+        <v>22</v>
+      </c>
+      <c r="J160" t="s">
+        <v>28</v>
+      </c>
+      <c r="K160" t="s">
+        <v>29</v>
+      </c>
+      <c r="L160" t="s">
+        <v>30</v>
+      </c>
+      <c r="M160" t="s">
+        <v>31</v>
+      </c>
+      <c r="N160" t="s">
+        <v>32</v>
+      </c>
+      <c r="O160" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" t="str">
+        <f>B153</f>
+        <v>sec_tre</v>
+      </c>
+      <c r="B161" t="str">
+        <f>B152</f>
+        <v>secondary treatment</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="str">
+        <f>B157</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E161" t="str">
+        <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F161" t="s">
         <v>34</v>
       </c>
-      <c r="G150" t="str">
-        <f>B143</f>
+      <c r="G161" t="str">
+        <f>B154</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H161" t="s">
         <v>35</v>
       </c>
-      <c r="I150" t="str">
-        <f>B147</f>
-        <v>sewage sludge, 70% water, WWT, WW, average</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150" t="s">
-        <v>36</v>
-      </c>
-      <c r="L150" t="s">
-        <v>36</v>
-      </c>
-      <c r="M150" t="s">
-        <v>36</v>
-      </c>
-      <c r="N150" t="s">
-        <v>36</v>
-      </c>
-      <c r="O150" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>36</v>
-      </c>
-      <c r="B151" t="s">
-        <v>119</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151" t="str">
-        <f>D150</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E151" t="s">
-        <v>132</v>
-      </c>
-      <c r="F151" t="s">
-        <v>42</v>
-      </c>
-      <c r="G151" t="str">
-        <f>B143</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="H151" t="s">
-        <v>43</v>
-      </c>
-      <c r="I151" t="s">
-        <v>118</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151" t="s">
-        <v>36</v>
-      </c>
-      <c r="L151" t="s">
-        <v>36</v>
-      </c>
-      <c r="M151" t="s">
-        <v>36</v>
-      </c>
-      <c r="N151" t="s">
-        <v>36</v>
-      </c>
-      <c r="O151" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>9</v>
-      </c>
-      <c r="B154" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>15</v>
-      </c>
-      <c r="B155" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>17</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>18</v>
-      </c>
-      <c r="B157" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>20</v>
-      </c>
-      <c r="B158" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>22</v>
-      </c>
-      <c r="B159" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>9</v>
-      </c>
-      <c r="B161" t="s">
-        <v>25</v>
-      </c>
-      <c r="C161" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161" t="s">
-        <v>26</v>
-      </c>
-      <c r="F161" t="s">
-        <v>27</v>
-      </c>
-      <c r="G161" t="s">
-        <v>15</v>
-      </c>
-      <c r="H161" t="s">
-        <v>18</v>
-      </c>
-      <c r="I161" t="s">
-        <v>22</v>
-      </c>
-      <c r="J161" t="s">
-        <v>28</v>
+      <c r="I161" t="str">
+        <f>B158</f>
+        <v>wastewater, average</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L161" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M161" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N161" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O161" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A162" t="str">
-        <f>B154</f>
-        <v>sec_tre</v>
-      </c>
-      <c r="B162" t="str">
-        <f>B153</f>
-        <v>secondary treatment</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" t="s">
+        <v>36</v>
+      </c>
+      <c r="B162" t="s">
+        <v>96</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162" t="str">
+        <f>B157</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E162" t="s">
+        <v>128</v>
+      </c>
+      <c r="F162" t="s">
+        <v>42</v>
+      </c>
+      <c r="G162" t="str">
+        <f>B154</f>
+        <v>Europe without Switzerland</v>
+      </c>
+      <c r="H162" t="s">
+        <v>43</v>
+      </c>
+      <c r="I162" t="str">
         <f>B158</f>
-        <v>cubic meter</v>
-      </c>
-      <c r="E162" t="str">
+        <v>wastewater, average</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162" t="s">
+        <v>36</v>
+      </c>
+      <c r="L162" t="s">
+        <v>36</v>
+      </c>
+      <c r="M162" t="s">
+        <v>36</v>
+      </c>
+      <c r="N162" t="s">
+        <v>36</v>
+      </c>
+      <c r="O162" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170" t="s">
+        <v>22</v>
+      </c>
+      <c r="B170" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172" t="s">
+        <v>26</v>
+      </c>
+      <c r="F172" t="s">
+        <v>27</v>
+      </c>
+      <c r="G172" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" t="s">
+        <v>22</v>
+      </c>
+      <c r="J172" t="s">
+        <v>28</v>
+      </c>
+      <c r="K172" t="s">
+        <v>29</v>
+      </c>
+      <c r="L172" t="s">
+        <v>30</v>
+      </c>
+      <c r="M172" t="s">
+        <v>31</v>
+      </c>
+      <c r="N172" t="s">
+        <v>32</v>
+      </c>
+      <c r="O172" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" t="str">
+        <f>B165</f>
+        <v>trans_sldg_to_inc</v>
+      </c>
+      <c r="B173" t="str">
+        <f>B164</f>
+        <v>transport of sludge to incineration</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="str">
+        <f>B169</f>
+        <v>ton kilometer</v>
+      </c>
+      <c r="E173" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F173" t="s">
         <v>34</v>
       </c>
-      <c r="G162" t="str">
-        <f>B155</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="H162" t="s">
+      <c r="G173" t="str">
+        <f>B166</f>
+        <v>RER</v>
+      </c>
+      <c r="H173" t="s">
         <v>35</v>
       </c>
-      <c r="I162" t="str">
-        <f>B159</f>
-        <v>wastewater, average</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162" t="s">
-        <v>36</v>
-      </c>
-      <c r="L162" t="s">
-        <v>36</v>
-      </c>
-      <c r="M162" t="s">
-        <v>36</v>
-      </c>
-      <c r="N162" t="s">
-        <v>36</v>
-      </c>
-      <c r="O162" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>36</v>
-      </c>
-      <c r="B163" t="s">
-        <v>98</v>
-      </c>
-      <c r="C163">
+      <c r="I173" t="str">
+        <f>B170</f>
+        <v>transport, freight, lorry, diesel, unspecified</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173" t="s">
+        <v>36</v>
+      </c>
+      <c r="L173" t="s">
+        <v>36</v>
+      </c>
+      <c r="M173" t="s">
+        <v>36</v>
+      </c>
+      <c r="N173" t="s">
+        <v>36</v>
+      </c>
+      <c r="O173" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174" t="s">
+        <v>36</v>
+      </c>
+      <c r="B174" t="s">
+        <v>126</v>
+      </c>
+      <c r="C174">
+        <v>100</v>
+      </c>
+      <c r="D174" t="str">
+        <f>B169</f>
+        <v>ton kilometer</v>
+      </c>
+      <c r="E174" t="s">
+        <v>128</v>
+      </c>
+      <c r="F174" t="s">
+        <v>42</v>
+      </c>
+      <c r="G174" t="str">
+        <f>B166</f>
+        <v>RER</v>
+      </c>
+      <c r="H174" t="s">
+        <v>43</v>
+      </c>
+      <c r="I174" t="s">
+        <v>123</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174" t="s">
+        <v>36</v>
+      </c>
+      <c r="L174" t="s">
+        <v>36</v>
+      </c>
+      <c r="M174" t="s">
+        <v>36</v>
+      </c>
+      <c r="N174" t="s">
+        <v>36</v>
+      </c>
+      <c r="O174" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="A178" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="A179" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179">
         <v>1</v>
       </c>
-      <c r="D163" t="str">
-        <f>B158</f>
-        <v>cubic meter</v>
-      </c>
-      <c r="E163" t="s">
-        <v>132</v>
-      </c>
-      <c r="F163" t="s">
-        <v>42</v>
-      </c>
-      <c r="G163" t="str">
-        <f>B155</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="H163" t="s">
-        <v>43</v>
-      </c>
-      <c r="I163" t="str">
-        <f>B159</f>
-        <v>wastewater, average</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163" t="s">
-        <v>36</v>
-      </c>
-      <c r="L163" t="s">
-        <v>36</v>
-      </c>
-      <c r="M163" t="s">
-        <v>36</v>
-      </c>
-      <c r="N163" t="s">
-        <v>36</v>
-      </c>
-      <c r="O163" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B165" s="4" t="s">
+    </row>
+    <row r="180" spans="1:15">
+      <c r="A180" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="A181" t="s">
+        <v>20</v>
+      </c>
+      <c r="B181" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="A182" t="s">
+        <v>22</v>
+      </c>
+      <c r="B182" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="183" spans="1:15">
+      <c r="A183" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184" t="s">
         <v>9</v>
       </c>
-      <c r="B166" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="B184" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184" t="s">
+        <v>26</v>
+      </c>
+      <c r="F184" t="s">
+        <v>27</v>
+      </c>
+      <c r="G184" t="s">
         <v>15</v>
       </c>
-      <c r="B167" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>17</v>
-      </c>
-      <c r="B168">
+      <c r="H184" t="s">
+        <v>18</v>
+      </c>
+      <c r="I184" t="s">
+        <v>22</v>
+      </c>
+      <c r="J184" t="s">
+        <v>28</v>
+      </c>
+      <c r="K184" t="s">
+        <v>29</v>
+      </c>
+      <c r="L184" t="s">
+        <v>30</v>
+      </c>
+      <c r="M184" t="s">
+        <v>31</v>
+      </c>
+      <c r="N184" t="s">
+        <v>32</v>
+      </c>
+      <c r="O184" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" t="str">
+        <f>B177</f>
+        <v>trans_fer_to_soi</v>
+      </c>
+      <c r="B185" t="str">
+        <f>B176</f>
+        <v>transport of fertilizer to soil</v>
+      </c>
+      <c r="C185">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>18</v>
-      </c>
-      <c r="B169" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>20</v>
-      </c>
-      <c r="B170" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>22</v>
-      </c>
-      <c r="B171" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>9</v>
-      </c>
-      <c r="B173" t="s">
-        <v>25</v>
-      </c>
-      <c r="C173" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" t="s">
-        <v>20</v>
-      </c>
-      <c r="E173" t="s">
-        <v>26</v>
-      </c>
-      <c r="F173" t="s">
-        <v>27</v>
-      </c>
-      <c r="G173" t="s">
-        <v>15</v>
-      </c>
-      <c r="H173" t="s">
-        <v>18</v>
-      </c>
-      <c r="I173" t="s">
-        <v>22</v>
-      </c>
-      <c r="J173" t="s">
-        <v>28</v>
-      </c>
-      <c r="K173" t="s">
-        <v>29</v>
-      </c>
-      <c r="L173" t="s">
-        <v>30</v>
-      </c>
-      <c r="M173" t="s">
-        <v>31</v>
-      </c>
-      <c r="N173" t="s">
-        <v>32</v>
-      </c>
-      <c r="O173" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A174" t="str">
-        <f>B166</f>
-        <v>trans_sldg_to_inc</v>
-      </c>
-      <c r="B174" t="str">
-        <f>B165</f>
-        <v>transport of sludge to incineration</v>
-      </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-      <c r="D174" t="str">
-        <f>B170</f>
-        <v>metric ton kilometer</v>
-      </c>
-      <c r="E174" t="str">
+      <c r="D185" t="str">
+        <f>B181</f>
+        <v>ton kilometer</v>
+      </c>
+      <c r="E185" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F185" t="s">
         <v>34</v>
       </c>
-      <c r="G174" t="str">
-        <f>B167</f>
+      <c r="G185" t="str">
+        <f>B178</f>
         <v>RER</v>
       </c>
-      <c r="H174" t="s">
+      <c r="H185" t="s">
         <v>35</v>
       </c>
-      <c r="I174" t="str">
-        <f>B171</f>
+      <c r="I185" t="str">
+        <f>B182</f>
         <v>transport, freight, lorry, diesel, unspecified</v>
       </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174" t="s">
-        <v>36</v>
-      </c>
-      <c r="L174" t="s">
-        <v>36</v>
-      </c>
-      <c r="M174" t="s">
-        <v>36</v>
-      </c>
-      <c r="N174" t="s">
-        <v>36</v>
-      </c>
-      <c r="O174" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>36</v>
-      </c>
-      <c r="B175" t="s">
-        <v>130</v>
-      </c>
-      <c r="C175">
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185" t="s">
+        <v>36</v>
+      </c>
+      <c r="L185" t="s">
+        <v>36</v>
+      </c>
+      <c r="M185" t="s">
+        <v>36</v>
+      </c>
+      <c r="N185" t="s">
+        <v>36</v>
+      </c>
+      <c r="O185" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186" t="s">
+        <v>36</v>
+      </c>
+      <c r="B186" t="s">
+        <v>126</v>
+      </c>
+      <c r="C186">
         <v>100</v>
       </c>
-      <c r="D175" t="str">
-        <f>B170</f>
-        <v>metric ton kilometer</v>
-      </c>
-      <c r="E175" t="s">
-        <v>132</v>
-      </c>
-      <c r="F175" t="s">
+      <c r="D186" t="str">
+        <f>B181</f>
+        <v>ton kilometer</v>
+      </c>
+      <c r="E186" t="s">
+        <v>128</v>
+      </c>
+      <c r="F186" t="s">
         <v>42</v>
       </c>
-      <c r="G175" t="str">
-        <f>B167</f>
+      <c r="G186" t="str">
+        <f>B178</f>
         <v>RER</v>
       </c>
-      <c r="H175" t="s">
+      <c r="H186" t="s">
         <v>43</v>
       </c>
-      <c r="I175" t="s">
-        <v>127</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175" t="s">
-        <v>36</v>
-      </c>
-      <c r="L175" t="s">
-        <v>36</v>
-      </c>
-      <c r="M175" t="s">
-        <v>36</v>
-      </c>
-      <c r="N175" t="s">
-        <v>36</v>
-      </c>
-      <c r="O175" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>9</v>
-      </c>
-      <c r="B178" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>15</v>
-      </c>
-      <c r="B179" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>17</v>
-      </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>18</v>
-      </c>
-      <c r="B181" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>20</v>
-      </c>
-      <c r="B182" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>22</v>
-      </c>
-      <c r="B183" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>9</v>
-      </c>
-      <c r="B185" t="s">
-        <v>25</v>
-      </c>
-      <c r="C185" t="s">
-        <v>17</v>
-      </c>
-      <c r="D185" t="s">
-        <v>20</v>
-      </c>
-      <c r="E185" t="s">
-        <v>26</v>
-      </c>
-      <c r="F185" t="s">
-        <v>27</v>
-      </c>
-      <c r="G185" t="s">
-        <v>15</v>
-      </c>
-      <c r="H185" t="s">
-        <v>18</v>
-      </c>
-      <c r="I185" t="s">
-        <v>22</v>
-      </c>
-      <c r="J185" t="s">
-        <v>28</v>
-      </c>
-      <c r="K185" t="s">
-        <v>29</v>
-      </c>
-      <c r="L185" t="s">
-        <v>30</v>
-      </c>
-      <c r="M185" t="s">
-        <v>31</v>
-      </c>
-      <c r="N185" t="s">
-        <v>32</v>
-      </c>
-      <c r="O185" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A186" t="str">
-        <f>B178</f>
-        <v>trans_fer_to_soi</v>
-      </c>
-      <c r="B186" t="str">
-        <f>B177</f>
-        <v>transport of fertilizer to soil</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186" t="str">
-        <f>B182</f>
-        <v>metric ton kilometer</v>
-      </c>
-      <c r="E186" t="str">
-        <f>$B$2</f>
-        <v>paw_db</v>
-      </c>
-      <c r="F186" t="s">
-        <v>34</v>
-      </c>
-      <c r="G186" t="str">
-        <f>B179</f>
-        <v>RER</v>
-      </c>
-      <c r="H186" t="s">
-        <v>35</v>
-      </c>
-      <c r="I186" t="str">
-        <f>B183</f>
-        <v>transport, freight, lorry, diesel, unspecified</v>
+      <c r="I186" t="s">
+        <v>123</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -4514,55 +4497,6 @@
         <v>36</v>
       </c>
       <c r="O186" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>36</v>
-      </c>
-      <c r="B187" t="s">
-        <v>130</v>
-      </c>
-      <c r="C187">
-        <v>100</v>
-      </c>
-      <c r="D187" t="str">
-        <f>B182</f>
-        <v>metric ton kilometer</v>
-      </c>
-      <c r="E187" t="s">
-        <v>132</v>
-      </c>
-      <c r="F187" t="s">
-        <v>42</v>
-      </c>
-      <c r="G187" t="str">
-        <f>B179</f>
-        <v>RER</v>
-      </c>
-      <c r="H187" t="s">
-        <v>43</v>
-      </c>
-      <c r="I187" t="s">
-        <v>127</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-      <c r="K187" t="s">
-        <v>36</v>
-      </c>
-      <c r="L187" t="s">
-        <v>36</v>
-      </c>
-      <c r="M187" t="s">
-        <v>36</v>
-      </c>
-      <c r="N187" t="s">
-        <v>36</v>
-      </c>
-      <c r="O187" t="s">
         <v>36</v>
       </c>
     </row>

--- a/LCA/LCI_ Inventories.xlsx
+++ b/LCA/LCI_ Inventories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welkerm\cursor\PAW_MFA_LCA_2025\LCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\repositories\PAW_MFA_LCA_2025\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208411A-5092-4573-BBE1-207C05968B99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7E64CD-4608-40BC-8EA4-EE641E2E7B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-1500" windowWidth="19035" windowHeight="21600" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
   </bookViews>
   <sheets>
     <sheet name="Directory" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="137">
   <si>
     <t>Database</t>
   </si>
@@ -419,13 +430,31 @@
   </si>
   <si>
     <t>ton kilometer</t>
+  </si>
+  <si>
+    <t>sec_tre__qua_tre__aop</t>
+  </si>
+  <si>
+    <t>Activated Carbon Technology</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Advanced Oxidation Process</t>
+  </si>
+  <si>
+    <t>Ozonation</t>
+  </si>
+  <si>
+    <t>treated wastewater</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,7 +479,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +501,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -515,9 +556,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -530,10 +574,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,17 +896,17 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>230</v>
       </c>
@@ -874,7 +914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>102</v>
       </c>
@@ -882,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>128</v>
       </c>
@@ -897,19 +937,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9BD897-F590-4437-A121-ED2632AD5485}">
-  <dimension ref="A1:O186"/>
+  <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="171" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -917,7 +959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" ht="15">
+    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -925,7 +967,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -933,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -941,7 +983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -949,7 +991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -957,7 +999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -965,7 +1007,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -973,7 +1015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -981,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -989,7 +1031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -997,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1005,7 +1047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1013,7 +1055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1021,12 +1063,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1073,7 +1115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1121,7 +1163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1168,7 +1210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1192,7 +1234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1200,7 +1242,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1208,7 +1250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1216,7 +1258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1224,7 +1266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1232,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1240,7 +1282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1248,7 +1290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1256,12 +1298,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1308,7 +1350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1356,7 +1398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1403,7 +1445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1450,7 +1492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1500,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1474,7 +1516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1482,7 +1524,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +1532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1498,7 +1540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +1548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1514,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -1522,7 +1564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1530,7 +1572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1538,12 +1580,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1590,7 +1632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1638,7 +1680,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -1685,7 +1727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -1732,7 +1774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -1779,7 +1821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -1826,7 +1868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -1873,7 +1915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -1920,7 +1962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -1967,7 +2009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -2014,7 +2056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -2061,7 +2103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -2108,7 +2150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -2155,7 +2197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2202,7 +2244,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -2249,7 +2291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -2296,7 +2338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -2343,7 +2385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -2390,7 +2432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -2437,7 +2479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -2484,7 +2526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
@@ -2492,7 +2534,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2500,7 +2542,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2508,7 +2550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -2516,7 +2558,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2524,7 +2566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -2532,7 +2574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -2540,7 +2582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -2548,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -2556,7 +2598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -2564,7 +2606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -2572,12 +2614,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2624,7 +2666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -2672,7 +2714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>36</v>
       </c>
@@ -2719,7 +2761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>36</v>
       </c>
@@ -2766,7 +2808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -2813,7 +2855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -2860,177 +2902,314 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" t="s">
+      <c r="B90" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="A92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="B91" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="11">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s">
         <v>15</v>
       </c>
-      <c r="B96" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" t="s">
-        <v>17</v>
-      </c>
-      <c r="B97">
+      <c r="H99" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" t="s">
+        <v>28</v>
+      </c>
+      <c r="K99" t="s">
+        <v>29</v>
+      </c>
+      <c r="L99" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" t="s">
+        <v>32</v>
+      </c>
+      <c r="O99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <f>B91</f>
+        <v>sec_tre</v>
+      </c>
+      <c r="B100" t="str">
+        <f>B90</f>
+        <v>Activated Carbon Technology</v>
+      </c>
+      <c r="C100">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="A100" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="D100" t="str">
+        <f>B96</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E100" t="str">
+        <f>$B$2</f>
+        <v>paw_db</v>
+      </c>
+      <c r="F100" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" t="str">
+        <f>B93</f>
+        <v>DE</v>
+      </c>
+      <c r="H100" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" t="str">
+        <f>B97</f>
+        <v>wastewater, average</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>36</v>
+      </c>
+      <c r="L100" t="s">
+        <v>36</v>
+      </c>
+      <c r="M100" t="s">
+        <v>36</v>
+      </c>
+      <c r="N100" t="s">
+        <v>36</v>
+      </c>
+      <c r="O100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="B101" t="str">
+        <f>B71</f>
+        <v>Emissions 230</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="str">
+        <f>B80</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E101" t="str">
+        <f>E100</f>
+        <v>paw_db</v>
+      </c>
+      <c r="F101" t="s">
+        <v>42</v>
+      </c>
+      <c r="G101" t="str">
+        <f>B77</f>
+        <v>RER</v>
+      </c>
+      <c r="H101" t="s">
+        <v>43</v>
+      </c>
+      <c r="I101" t="str">
+        <f>B81</f>
+        <v>direct emissions per m3</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>36</v>
+      </c>
+      <c r="L101" t="s">
+        <v>36</v>
+      </c>
+      <c r="M101" t="s">
+        <v>36</v>
+      </c>
+      <c r="N101" t="s">
+        <v>36</v>
+      </c>
+      <c r="O101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" t="s">
-        <v>20</v>
-      </c>
-      <c r="E102" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="B102" t="str">
+        <f>B38</f>
+        <v>Chemicals 230</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="str">
+        <f>B47</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E102" t="str">
+        <f>E101</f>
+        <v>paw_db</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="G102" t="str">
+        <f>B44</f>
+        <v>RER</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
-      </c>
-      <c r="I102" t="s">
-        <v>22</v>
-      </c>
-      <c r="J102" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="I102" t="str">
+        <f>B48</f>
+        <v>chemicals per m3</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L102" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M102" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N102" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O102" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" t="s">
-        <v>105</v>
+        <v>36</v>
+      </c>
+      <c r="B103" t="str">
+        <f>B21</f>
+        <v>GAC 230</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="D103" t="s">
-        <v>21</v>
+      <c r="D103" t="str">
+        <f>B30</f>
+        <v>cubic meter</v>
       </c>
       <c r="E103" t="str">
-        <f>$B$2</f>
+        <f>E102</f>
         <v>paw_db</v>
       </c>
       <c r="F103" t="s">
         <v>34</v>
       </c>
-      <c r="G103" t="s">
-        <v>16</v>
+      <c r="G103" t="str">
+        <f>B27</f>
+        <v>RER</v>
       </c>
       <c r="H103" t="s">
-        <v>35</v>
-      </c>
-      <c r="I103" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="I103" t="str">
+        <f>B31</f>
+        <v>GAC per m3</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K103" t="s">
         <v>36</v>
@@ -3048,36 +3227,41 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>36</v>
       </c>
-      <c r="B104" t="s">
-        <v>40</v>
+      <c r="B104" t="str">
+        <f>B5</f>
+        <v>Electricity 230</v>
       </c>
       <c r="C104">
-        <v>0.17</v>
-      </c>
-      <c r="D104" t="s">
-        <v>41</v>
-      </c>
-      <c r="E104" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="D104" t="str">
+        <f>B14</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E104" t="str">
+        <f>E103</f>
+        <v>paw_db</v>
       </c>
       <c r="F104" t="s">
         <v>34</v>
       </c>
-      <c r="G104" t="s">
-        <v>16</v>
+      <c r="G104" t="str">
+        <f>B11</f>
+        <v>RER</v>
       </c>
       <c r="H104" t="s">
         <v>43</v>
       </c>
-      <c r="I104" t="s">
-        <v>44</v>
+      <c r="I104" t="str">
+        <f>B15</f>
+        <v>electricity per m3</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K104" t="s">
         <v>36</v>
@@ -3095,23 +3279,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -3119,7 +3303,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -3127,7 +3311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -3135,7 +3319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -3143,7 +3327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -3151,7 +3335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -3159,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -3167,7 +3351,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -3175,20 +3359,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -3235,12 +3419,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B119" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3262,7 +3446,7 @@
         <v>35</v>
       </c>
       <c r="I119" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -3283,18 +3467,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C120">
-        <v>0.114</v>
+        <v>0.17</v>
       </c>
       <c r="D120" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E120" t="s">
         <v>128</v>
@@ -3309,7 +3493,7 @@
         <v>43</v>
       </c>
       <c r="I120" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -3330,39 +3514,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>11</v>
       </c>
       <c r="B125">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -3370,15 +3554,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -3386,7 +3570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -3394,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -3402,7 +3586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -3410,7 +3594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>22</v>
       </c>
@@ -3418,12 +3602,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -3470,12 +3654,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B135" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -3518,15 +3702,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>36</v>
       </c>
       <c r="B136" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C136">
-        <v>0.02</v>
+        <v>0.114</v>
       </c>
       <c r="D136" t="s">
         <v>49</v>
@@ -3544,7 +3728,7 @@
         <v>43</v>
       </c>
       <c r="I136" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -3565,938 +3749,1446 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
-      <c r="A137" t="s">
-        <v>36</v>
-      </c>
-      <c r="B137" t="s">
-        <v>60</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137" t="s">
-        <v>49</v>
-      </c>
-      <c r="E137" t="s">
-        <v>128</v>
-      </c>
-      <c r="F137" t="s">
+    <row r="138" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147" t="s">
+        <v>26</v>
+      </c>
+      <c r="F147" t="s">
+        <v>27</v>
+      </c>
+      <c r="G147" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" t="s">
+        <v>22</v>
+      </c>
+      <c r="J147" t="s">
+        <v>28</v>
+      </c>
+      <c r="K147" t="s">
+        <v>29</v>
+      </c>
+      <c r="L147" t="s">
+        <v>30</v>
+      </c>
+      <c r="M147" t="s">
+        <v>31</v>
+      </c>
+      <c r="N147" t="s">
+        <v>32</v>
+      </c>
+      <c r="O147" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A148" t="str">
+        <f>B139</f>
+        <v>sec_tre</v>
+      </c>
+      <c r="B148" t="str">
+        <f>B138</f>
+        <v>Ozonation</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="str">
+        <f>B144</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E148" t="str">
+        <f>$B$2</f>
+        <v>paw_db</v>
+      </c>
+      <c r="F148" t="s">
         <v>34</v>
       </c>
-      <c r="G137" t="s">
-        <v>16</v>
-      </c>
-      <c r="H137" t="s">
-        <v>43</v>
-      </c>
-      <c r="I137" t="s">
-        <v>61</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137" t="s">
-        <v>36</v>
-      </c>
-      <c r="L137" t="s">
-        <v>36</v>
-      </c>
-      <c r="M137" t="s">
-        <v>36</v>
-      </c>
-      <c r="N137" t="s">
-        <v>36</v>
-      </c>
-      <c r="O137" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
-      <c r="A138" t="s">
-        <v>36</v>
-      </c>
-      <c r="B138" t="s">
-        <v>113</v>
-      </c>
-      <c r="C138">
-        <v>0.02</v>
-      </c>
-      <c r="D138" t="s">
-        <v>49</v>
-      </c>
-      <c r="E138" t="s">
-        <v>128</v>
-      </c>
-      <c r="F138" t="s">
-        <v>34</v>
-      </c>
-      <c r="G138" t="s">
-        <v>16</v>
-      </c>
-      <c r="H138" t="s">
-        <v>43</v>
-      </c>
-      <c r="I138" t="s">
-        <v>114</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138" t="s">
-        <v>36</v>
-      </c>
-      <c r="L138" t="s">
-        <v>36</v>
-      </c>
-      <c r="M138" t="s">
-        <v>36</v>
-      </c>
-      <c r="N138" t="s">
-        <v>36</v>
-      </c>
-      <c r="O138" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
-      <c r="A141" t="s">
-        <v>9</v>
-      </c>
-      <c r="B141" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="A142" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="A143" t="s">
-        <v>17</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" t="s">
-        <v>18</v>
-      </c>
-      <c r="B144" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="A145" t="s">
-        <v>20</v>
-      </c>
-      <c r="B145" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
-      <c r="A146" t="s">
-        <v>22</v>
-      </c>
-      <c r="B146" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="A147" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
-      <c r="A148" t="s">
-        <v>9</v>
-      </c>
-      <c r="B148" t="s">
-        <v>25</v>
-      </c>
-      <c r="C148" t="s">
-        <v>17</v>
-      </c>
-      <c r="D148" t="s">
-        <v>20</v>
-      </c>
-      <c r="E148" t="s">
-        <v>26</v>
-      </c>
-      <c r="F148" t="s">
-        <v>27</v>
-      </c>
-      <c r="G148" t="s">
-        <v>15</v>
+      <c r="G148" t="str">
+        <f>B140</f>
+        <v>Europe without Switzerland</v>
       </c>
       <c r="H148" t="s">
-        <v>18</v>
-      </c>
-      <c r="I148" t="s">
-        <v>22</v>
-      </c>
-      <c r="J148" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="I148" t="str">
+        <f>B145</f>
+        <v>treated wastewater</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L148" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M148" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N148" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O148" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="A149" t="str">
-        <f>B141</f>
-        <v>inc</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>36</v>
       </c>
       <c r="B149" t="str">
-        <f>B140</f>
-        <v xml:space="preserve">sludge incineration </v>
+        <f>B122</f>
+        <v>Chemicals 102</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149" t="str">
-        <f>B145</f>
+        <f>B144</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E149" t="str">
+        <f>E148</f>
+        <v>paw_db</v>
+      </c>
+      <c r="F149" t="s">
+        <v>42</v>
+      </c>
+      <c r="G149" t="str">
+        <f>B128</f>
+        <v>RER</v>
+      </c>
+      <c r="H149" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149" t="str">
+        <f>B131</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149" t="s">
+        <v>36</v>
+      </c>
+      <c r="L149" t="s">
+        <v>36</v>
+      </c>
+      <c r="M149" t="s">
+        <v>36</v>
+      </c>
+      <c r="N149" t="s">
+        <v>36</v>
+      </c>
+      <c r="O149" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B150" t="str">
+        <f>B106</f>
+        <v>Electricity 102</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="str">
+        <f>B115</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E150" t="str">
+        <f>E149</f>
+        <v>paw_db</v>
+      </c>
+      <c r="F150" t="s">
+        <v>34</v>
+      </c>
+      <c r="G150" t="str">
+        <f>B115</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="H150" t="str">
+        <f>H149</f>
+        <v>technosphere</v>
+      </c>
+      <c r="I150" t="str">
+        <f>B115</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150" t="s">
+        <v>36</v>
+      </c>
+      <c r="L150" t="s">
+        <v>36</v>
+      </c>
+      <c r="M150" t="s">
+        <v>36</v>
+      </c>
+      <c r="N150" t="s">
+        <v>36</v>
+      </c>
+      <c r="O150" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>22</v>
+      </c>
+      <c r="B162" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164" t="s">
+        <v>26</v>
+      </c>
+      <c r="F164" t="s">
+        <v>27</v>
+      </c>
+      <c r="G164" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" t="s">
+        <v>22</v>
+      </c>
+      <c r="J164" t="s">
+        <v>28</v>
+      </c>
+      <c r="K164" t="s">
+        <v>29</v>
+      </c>
+      <c r="L164" t="s">
+        <v>30</v>
+      </c>
+      <c r="M164" t="s">
+        <v>31</v>
+      </c>
+      <c r="N164" t="s">
+        <v>32</v>
+      </c>
+      <c r="O164" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>111</v>
+      </c>
+      <c r="B165" t="s">
+        <v>110</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>21</v>
+      </c>
+      <c r="E165" t="str">
+        <f>$B$2</f>
+        <v>paw_db</v>
+      </c>
+      <c r="F165" t="s">
+        <v>34</v>
+      </c>
+      <c r="G165" t="s">
+        <v>16</v>
+      </c>
+      <c r="H165" t="s">
+        <v>35</v>
+      </c>
+      <c r="I165" t="s">
+        <v>55</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165" t="s">
+        <v>36</v>
+      </c>
+      <c r="L165" t="s">
+        <v>36</v>
+      </c>
+      <c r="M165" t="s">
+        <v>36</v>
+      </c>
+      <c r="N165" t="s">
+        <v>36</v>
+      </c>
+      <c r="O165" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>36</v>
+      </c>
+      <c r="B166" t="s">
+        <v>62</v>
+      </c>
+      <c r="C166">
+        <v>0.02</v>
+      </c>
+      <c r="D166" t="s">
+        <v>49</v>
+      </c>
+      <c r="E166" t="s">
+        <v>128</v>
+      </c>
+      <c r="F166" t="s">
+        <v>34</v>
+      </c>
+      <c r="G166" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" t="s">
+        <v>43</v>
+      </c>
+      <c r="I166" t="s">
+        <v>63</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166" t="s">
+        <v>36</v>
+      </c>
+      <c r="L166" t="s">
+        <v>36</v>
+      </c>
+      <c r="M166" t="s">
+        <v>36</v>
+      </c>
+      <c r="N166" t="s">
+        <v>36</v>
+      </c>
+      <c r="O166" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>36</v>
+      </c>
+      <c r="B167" t="s">
+        <v>60</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>49</v>
+      </c>
+      <c r="E167" t="s">
+        <v>128</v>
+      </c>
+      <c r="F167" t="s">
+        <v>34</v>
+      </c>
+      <c r="G167" t="s">
+        <v>16</v>
+      </c>
+      <c r="H167" t="s">
+        <v>43</v>
+      </c>
+      <c r="I167" t="s">
+        <v>61</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167" t="s">
+        <v>36</v>
+      </c>
+      <c r="L167" t="s">
+        <v>36</v>
+      </c>
+      <c r="M167" t="s">
+        <v>36</v>
+      </c>
+      <c r="N167" t="s">
+        <v>36</v>
+      </c>
+      <c r="O167" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>36</v>
+      </c>
+      <c r="B168" t="s">
+        <v>113</v>
+      </c>
+      <c r="C168">
+        <v>0.02</v>
+      </c>
+      <c r="D168" t="s">
+        <v>49</v>
+      </c>
+      <c r="E168" t="s">
+        <v>128</v>
+      </c>
+      <c r="F168" t="s">
+        <v>34</v>
+      </c>
+      <c r="G168" t="s">
+        <v>16</v>
+      </c>
+      <c r="H168" t="s">
+        <v>43</v>
+      </c>
+      <c r="I168" t="s">
+        <v>114</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168" t="s">
+        <v>36</v>
+      </c>
+      <c r="L168" t="s">
+        <v>36</v>
+      </c>
+      <c r="M168" t="s">
+        <v>36</v>
+      </c>
+      <c r="N168" t="s">
+        <v>36</v>
+      </c>
+      <c r="O168" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" t="s">
+        <v>25</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" t="s">
+        <v>26</v>
+      </c>
+      <c r="F178" t="s">
+        <v>27</v>
+      </c>
+      <c r="G178" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178" t="s">
+        <v>22</v>
+      </c>
+      <c r="J178" t="s">
+        <v>28</v>
+      </c>
+      <c r="K178" t="s">
+        <v>29</v>
+      </c>
+      <c r="L178" t="s">
+        <v>30</v>
+      </c>
+      <c r="M178" t="s">
+        <v>31</v>
+      </c>
+      <c r="N178" t="s">
+        <v>32</v>
+      </c>
+      <c r="O178" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A179" t="str">
+        <f>B171</f>
+        <v>inc</v>
+      </c>
+      <c r="B179" t="str">
+        <f>B170</f>
+        <v xml:space="preserve">sludge incineration </v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" t="str">
+        <f>B175</f>
         <v>kilogram</v>
       </c>
-      <c r="E149" t="str">
+      <c r="E179" t="str">
         <f>B2</f>
         <v>paw_db</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F179" t="s">
         <v>34</v>
       </c>
-      <c r="G149" t="str">
-        <f>B142</f>
+      <c r="G179" t="str">
+        <f>B172</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H179" t="s">
         <v>35</v>
       </c>
-      <c r="I149" t="str">
-        <f>B146</f>
+      <c r="I179" t="str">
+        <f>B176</f>
         <v>sewage sludge, 70% water, WWT, WW, average</v>
       </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149" t="s">
-        <v>36</v>
-      </c>
-      <c r="L149" t="s">
-        <v>36</v>
-      </c>
-      <c r="M149" t="s">
-        <v>36</v>
-      </c>
-      <c r="N149" t="s">
-        <v>36</v>
-      </c>
-      <c r="O149" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
-      <c r="A150" t="s">
-        <v>36</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179" t="s">
+        <v>36</v>
+      </c>
+      <c r="L179" t="s">
+        <v>36</v>
+      </c>
+      <c r="M179" t="s">
+        <v>36</v>
+      </c>
+      <c r="N179" t="s">
+        <v>36</v>
+      </c>
+      <c r="O179" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>36</v>
+      </c>
+      <c r="B180" t="s">
         <v>117</v>
       </c>
-      <c r="C150">
+      <c r="C180">
         <v>1</v>
       </c>
-      <c r="D150" t="str">
-        <f>D149</f>
+      <c r="D180" t="str">
+        <f>D179</f>
         <v>kilogram</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E180" t="s">
         <v>128</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F180" t="s">
         <v>42</v>
       </c>
-      <c r="G150" t="str">
-        <f>B142</f>
+      <c r="G180" t="str">
+        <f>B172</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H180" t="s">
         <v>43</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I180" t="s">
         <v>116</v>
       </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150" t="s">
-        <v>36</v>
-      </c>
-      <c r="L150" t="s">
-        <v>36</v>
-      </c>
-      <c r="M150" t="s">
-        <v>36</v>
-      </c>
-      <c r="N150" t="s">
-        <v>36</v>
-      </c>
-      <c r="O150" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
-      <c r="A152" s="4" t="s">
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180" t="s">
+        <v>36</v>
+      </c>
+      <c r="L180" t="s">
+        <v>36</v>
+      </c>
+      <c r="M180" t="s">
+        <v>36</v>
+      </c>
+      <c r="N180" t="s">
+        <v>36</v>
+      </c>
+      <c r="O180" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B182" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
-      <c r="A153" t="s">
+    <row r="183" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B183" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
-      <c r="A154" t="s">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>15</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B184" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
-      <c r="A155" t="s">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>17</v>
       </c>
-      <c r="B155">
+      <c r="B185">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
-      <c r="A156" t="s">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>18</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B186" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
-      <c r="A157" t="s">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>20</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B187" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
-      <c r="A158" t="s">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>22</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B188" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
-      <c r="A159" t="s">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
-      <c r="A160" t="s">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>9</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B190" t="s">
         <v>25</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C190" t="s">
         <v>17</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D190" t="s">
         <v>20</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E190" t="s">
         <v>26</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F190" t="s">
         <v>27</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G190" t="s">
         <v>15</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H190" t="s">
         <v>18</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I190" t="s">
         <v>22</v>
       </c>
-      <c r="J160" t="s">
+      <c r="J190" t="s">
         <v>28</v>
       </c>
-      <c r="K160" t="s">
+      <c r="K190" t="s">
         <v>29</v>
       </c>
-      <c r="L160" t="s">
+      <c r="L190" t="s">
         <v>30</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M190" t="s">
         <v>31</v>
       </c>
-      <c r="N160" t="s">
+      <c r="N190" t="s">
         <v>32</v>
       </c>
-      <c r="O160" t="s">
+      <c r="O190" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
-      <c r="A161" t="str">
-        <f>B153</f>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A191" t="str">
+        <f>B183</f>
         <v>sec_tre</v>
       </c>
-      <c r="B161" t="str">
-        <f>B152</f>
+      <c r="B191" t="str">
+        <f>B182</f>
         <v>secondary treatment</v>
       </c>
-      <c r="C161">
+      <c r="C191">
         <v>1</v>
       </c>
-      <c r="D161" t="str">
-        <f>B157</f>
+      <c r="D191" t="str">
+        <f>B187</f>
         <v>cubic meter</v>
       </c>
-      <c r="E161" t="str">
+      <c r="E191" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F191" t="s">
         <v>34</v>
       </c>
-      <c r="G161" t="str">
-        <f>B154</f>
+      <c r="G191" t="str">
+        <f>B184</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H191" t="s">
         <v>35</v>
       </c>
-      <c r="I161" t="str">
-        <f>B158</f>
+      <c r="I191" t="str">
+        <f>B188</f>
         <v>wastewater, average</v>
       </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161" t="s">
-        <v>36</v>
-      </c>
-      <c r="L161" t="s">
-        <v>36</v>
-      </c>
-      <c r="M161" t="s">
-        <v>36</v>
-      </c>
-      <c r="N161" t="s">
-        <v>36</v>
-      </c>
-      <c r="O161" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
-      <c r="A162" t="s">
-        <v>36</v>
-      </c>
-      <c r="B162" t="s">
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191" t="s">
+        <v>36</v>
+      </c>
+      <c r="L191" t="s">
+        <v>36</v>
+      </c>
+      <c r="M191" t="s">
+        <v>36</v>
+      </c>
+      <c r="N191" t="s">
+        <v>36</v>
+      </c>
+      <c r="O191" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>36</v>
+      </c>
+      <c r="B192" t="s">
         <v>96</v>
       </c>
-      <c r="C162">
+      <c r="C192">
         <v>1</v>
       </c>
-      <c r="D162" t="str">
-        <f>B157</f>
+      <c r="D192" t="str">
+        <f>B187</f>
         <v>cubic meter</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E192" t="s">
         <v>128</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F192" t="s">
         <v>42</v>
       </c>
-      <c r="G162" t="str">
-        <f>B154</f>
+      <c r="G192" t="str">
+        <f>B184</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H192" t="s">
         <v>43</v>
       </c>
-      <c r="I162" t="str">
-        <f>B158</f>
+      <c r="I192" t="str">
+        <f>B188</f>
         <v>wastewater, average</v>
       </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162" t="s">
-        <v>36</v>
-      </c>
-      <c r="L162" t="s">
-        <v>36</v>
-      </c>
-      <c r="M162" t="s">
-        <v>36</v>
-      </c>
-      <c r="N162" t="s">
-        <v>36</v>
-      </c>
-      <c r="O162" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
-      <c r="A164" s="4" t="s">
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192" t="s">
+        <v>36</v>
+      </c>
+      <c r="L192" t="s">
+        <v>36</v>
+      </c>
+      <c r="M192" t="s">
+        <v>36</v>
+      </c>
+      <c r="N192" t="s">
+        <v>36</v>
+      </c>
+      <c r="O192" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B194" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
-      <c r="A165" t="s">
+    <row r="195" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B195" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
-      <c r="A166" t="s">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>15</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B196" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
-      <c r="A167" t="s">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>17</v>
       </c>
-      <c r="B167">
+      <c r="B197">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
-      <c r="A168" t="s">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>18</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B198" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
-      <c r="A169" t="s">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>20</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B199" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
-      <c r="A170" t="s">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>22</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B200" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
-      <c r="A171" t="s">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
-      <c r="A172" t="s">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>9</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B202" t="s">
         <v>25</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C202" t="s">
         <v>17</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D202" t="s">
         <v>20</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E202" t="s">
         <v>26</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F202" t="s">
         <v>27</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G202" t="s">
         <v>15</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H202" t="s">
         <v>18</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I202" t="s">
         <v>22</v>
       </c>
-      <c r="J172" t="s">
+      <c r="J202" t="s">
         <v>28</v>
       </c>
-      <c r="K172" t="s">
+      <c r="K202" t="s">
         <v>29</v>
       </c>
-      <c r="L172" t="s">
+      <c r="L202" t="s">
         <v>30</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M202" t="s">
         <v>31</v>
       </c>
-      <c r="N172" t="s">
+      <c r="N202" t="s">
         <v>32</v>
       </c>
-      <c r="O172" t="s">
+      <c r="O202" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
-      <c r="A173" t="str">
-        <f>B165</f>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A203" t="str">
+        <f>B195</f>
         <v>trans_sldg_to_inc</v>
       </c>
-      <c r="B173" t="str">
-        <f>B164</f>
+      <c r="B203" t="str">
+        <f>B194</f>
         <v>transport of sludge to incineration</v>
       </c>
-      <c r="C173">
+      <c r="C203">
         <v>1</v>
       </c>
-      <c r="D173" t="str">
-        <f>B169</f>
+      <c r="D203" t="str">
+        <f>B199</f>
         <v>ton kilometer</v>
       </c>
-      <c r="E173" t="str">
+      <c r="E203" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F203" t="s">
         <v>34</v>
       </c>
-      <c r="G173" t="str">
-        <f>B166</f>
+      <c r="G203" t="str">
+        <f>B196</f>
         <v>RER</v>
       </c>
-      <c r="H173" t="s">
+      <c r="H203" t="s">
         <v>35</v>
       </c>
-      <c r="I173" t="str">
-        <f>B170</f>
+      <c r="I203" t="str">
+        <f>B200</f>
         <v>transport, freight, lorry, diesel, unspecified</v>
       </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173" t="s">
-        <v>36</v>
-      </c>
-      <c r="L173" t="s">
-        <v>36</v>
-      </c>
-      <c r="M173" t="s">
-        <v>36</v>
-      </c>
-      <c r="N173" t="s">
-        <v>36</v>
-      </c>
-      <c r="O173" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15">
-      <c r="A174" t="s">
-        <v>36</v>
-      </c>
-      <c r="B174" t="s">
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s">
+        <v>36</v>
+      </c>
+      <c r="L203" t="s">
+        <v>36</v>
+      </c>
+      <c r="M203" t="s">
+        <v>36</v>
+      </c>
+      <c r="N203" t="s">
+        <v>36</v>
+      </c>
+      <c r="O203" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>36</v>
+      </c>
+      <c r="B204" t="s">
         <v>126</v>
       </c>
-      <c r="C174">
+      <c r="C204">
         <v>100</v>
       </c>
-      <c r="D174" t="str">
-        <f>B169</f>
+      <c r="D204" t="str">
+        <f>B199</f>
         <v>ton kilometer</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E204" t="s">
         <v>128</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F204" t="s">
         <v>42</v>
       </c>
-      <c r="G174" t="str">
-        <f>B166</f>
+      <c r="G204" t="str">
+        <f>B196</f>
         <v>RER</v>
       </c>
-      <c r="H174" t="s">
+      <c r="H204" t="s">
         <v>43</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I204" t="s">
         <v>123</v>
       </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174" t="s">
-        <v>36</v>
-      </c>
-      <c r="L174" t="s">
-        <v>36</v>
-      </c>
-      <c r="M174" t="s">
-        <v>36</v>
-      </c>
-      <c r="N174" t="s">
-        <v>36</v>
-      </c>
-      <c r="O174" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
-      <c r="A176" s="4" t="s">
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204" t="s">
+        <v>36</v>
+      </c>
+      <c r="L204" t="s">
+        <v>36</v>
+      </c>
+      <c r="M204" t="s">
+        <v>36</v>
+      </c>
+      <c r="N204" t="s">
+        <v>36</v>
+      </c>
+      <c r="O204" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B206" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
-      <c r="A177" t="s">
+    <row r="207" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B207" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
-      <c r="A178" t="s">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>15</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B208" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
-      <c r="A179" t="s">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>17</v>
       </c>
-      <c r="B179">
+      <c r="B209">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
-      <c r="A180" t="s">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>18</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B210" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
-      <c r="A181" t="s">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>20</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B211" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
-      <c r="A182" t="s">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>22</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B212" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
-      <c r="A183" t="s">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
-      <c r="A184" t="s">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>9</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B214" t="s">
         <v>25</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C214" t="s">
         <v>17</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D214" t="s">
         <v>20</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E214" t="s">
         <v>26</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F214" t="s">
         <v>27</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G214" t="s">
         <v>15</v>
       </c>
-      <c r="H184" t="s">
+      <c r="H214" t="s">
         <v>18</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I214" t="s">
         <v>22</v>
       </c>
-      <c r="J184" t="s">
+      <c r="J214" t="s">
         <v>28</v>
       </c>
-      <c r="K184" t="s">
+      <c r="K214" t="s">
         <v>29</v>
       </c>
-      <c r="L184" t="s">
+      <c r="L214" t="s">
         <v>30</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M214" t="s">
         <v>31</v>
       </c>
-      <c r="N184" t="s">
+      <c r="N214" t="s">
         <v>32</v>
       </c>
-      <c r="O184" t="s">
+      <c r="O214" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
-      <c r="A185" t="str">
-        <f>B177</f>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A215" t="str">
+        <f>B207</f>
         <v>trans_fer_to_soi</v>
       </c>
-      <c r="B185" t="str">
-        <f>B176</f>
+      <c r="B215" t="str">
+        <f>B206</f>
         <v>transport of fertilizer to soil</v>
       </c>
-      <c r="C185">
+      <c r="C215">
         <v>1</v>
       </c>
-      <c r="D185" t="str">
-        <f>B181</f>
+      <c r="D215" t="str">
+        <f>B211</f>
         <v>ton kilometer</v>
       </c>
-      <c r="E185" t="str">
+      <c r="E215" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F215" t="s">
         <v>34</v>
       </c>
-      <c r="G185" t="str">
-        <f>B178</f>
+      <c r="G215" t="str">
+        <f>B208</f>
         <v>RER</v>
       </c>
-      <c r="H185" t="s">
+      <c r="H215" t="s">
         <v>35</v>
       </c>
-      <c r="I185" t="str">
-        <f>B182</f>
+      <c r="I215" t="str">
+        <f>B212</f>
         <v>transport, freight, lorry, diesel, unspecified</v>
       </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185" t="s">
-        <v>36</v>
-      </c>
-      <c r="L185" t="s">
-        <v>36</v>
-      </c>
-      <c r="M185" t="s">
-        <v>36</v>
-      </c>
-      <c r="N185" t="s">
-        <v>36</v>
-      </c>
-      <c r="O185" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15">
-      <c r="A186" t="s">
-        <v>36</v>
-      </c>
-      <c r="B186" t="s">
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215" t="s">
+        <v>36</v>
+      </c>
+      <c r="L215" t="s">
+        <v>36</v>
+      </c>
+      <c r="M215" t="s">
+        <v>36</v>
+      </c>
+      <c r="N215" t="s">
+        <v>36</v>
+      </c>
+      <c r="O215" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>36</v>
+      </c>
+      <c r="B216" t="s">
         <v>126</v>
       </c>
-      <c r="C186">
-        <v>100</v>
-      </c>
-      <c r="D186" t="str">
-        <f>B181</f>
+      <c r="C216">
+        <v>20</v>
+      </c>
+      <c r="D216" t="str">
+        <f>B211</f>
         <v>ton kilometer</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E216" t="s">
         <v>128</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F216" t="s">
         <v>42</v>
       </c>
-      <c r="G186" t="str">
-        <f>B178</f>
+      <c r="G216" t="str">
+        <f>B208</f>
         <v>RER</v>
       </c>
-      <c r="H186" t="s">
+      <c r="H216" t="s">
         <v>43</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I216" t="s">
         <v>123</v>
       </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-      <c r="K186" t="s">
-        <v>36</v>
-      </c>
-      <c r="L186" t="s">
-        <v>36</v>
-      </c>
-      <c r="M186" t="s">
-        <v>36</v>
-      </c>
-      <c r="N186" t="s">
-        <v>36</v>
-      </c>
-      <c r="O186" t="s">
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216" t="s">
+        <v>36</v>
+      </c>
+      <c r="L216" t="s">
+        <v>36</v>
+      </c>
+      <c r="M216" t="s">
+        <v>36</v>
+      </c>
+      <c r="N216" t="s">
+        <v>36</v>
+      </c>
+      <c r="O216" t="s">
         <v>36</v>
       </c>
     </row>

--- a/LCA/LCI_ Inventories.xlsx
+++ b/LCA/LCI_ Inventories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\repositories\PAW_MFA_LCA_2025\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7E64CD-4608-40BC-8EA4-EE641E2E7B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D796C524-2758-4B40-A482-B39F1C06C6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
   </bookViews>
@@ -414,9 +414,6 @@
     <t>transport of fertilizer to soil</t>
   </si>
   <si>
-    <t>trans_fer_to_soi</t>
-  </si>
-  <si>
     <t>market for transport, freight, lorry, unspecified</t>
   </si>
   <si>
@@ -448,6 +445,9 @@
   </si>
   <si>
     <t>treated wastewater</t>
+  </si>
+  <si>
+    <t>trans_fer_to_soi XXXXXX</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -558,7 +558,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,7 +939,7 @@
   <dimension ref="A1:O216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1177,7 +1176,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
@@ -1412,7 +1411,7 @@
         <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -1459,7 +1458,7 @@
         <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -1694,7 +1693,7 @@
         <v>49</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -1741,7 +1740,7 @@
         <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -1788,7 +1787,7 @@
         <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -1835,7 +1834,7 @@
         <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -1882,7 +1881,7 @@
         <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -1929,7 +1928,7 @@
         <v>49</v>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -1976,7 +1975,7 @@
         <v>49</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -2023,7 +2022,7 @@
         <v>49</v>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -2070,7 +2069,7 @@
         <v>49</v>
       </c>
       <c r="E60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -2117,7 +2116,7 @@
         <v>49</v>
       </c>
       <c r="E61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -2164,7 +2163,7 @@
         <v>49</v>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -2211,7 +2210,7 @@
         <v>49</v>
       </c>
       <c r="E63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -2258,7 +2257,7 @@
         <v>49</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -2305,7 +2304,7 @@
         <v>49</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -2352,7 +2351,7 @@
         <v>49</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -2399,7 +2398,7 @@
         <v>49</v>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -2446,7 +2445,7 @@
         <v>49</v>
       </c>
       <c r="E68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -2493,7 +2492,7 @@
         <v>49</v>
       </c>
       <c r="E69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -2728,7 +2727,7 @@
         <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F85" t="s">
         <v>100</v>
@@ -2775,7 +2774,7 @@
         <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F86" t="s">
         <v>42</v>
@@ -2822,7 +2821,7 @@
         <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -2869,7 +2868,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -2907,7 +2906,7 @@
         <v>8</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -2919,10 +2918,10 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" s="11" t="s">
+      <c r="A92" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="11">
+      <c r="B92">
         <v>230</v>
       </c>
     </row>
@@ -2931,7 +2930,7 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -3481,7 +3480,7 @@
         <v>41</v>
       </c>
       <c r="E120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F120" t="s">
         <v>34</v>
@@ -3716,7 +3715,7 @@
         <v>49</v>
       </c>
       <c r="E136" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F136" t="s">
         <v>34</v>
@@ -3754,7 +3753,7 @@
         <v>8</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -3810,7 +3809,7 @@
         <v>22</v>
       </c>
       <c r="B145" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
@@ -4026,7 +4025,7 @@
         <v>8</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -4034,7 +4033,7 @@
         <v>9</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -4106,7 +4105,7 @@
         <v>22</v>
       </c>
       <c r="B162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
@@ -4223,7 +4222,7 @@
         <v>49</v>
       </c>
       <c r="E166" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F166" t="s">
         <v>34</v>
@@ -4270,7 +4269,7 @@
         <v>49</v>
       </c>
       <c r="E167" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F167" t="s">
         <v>34</v>
@@ -4317,7 +4316,7 @@
         <v>49</v>
       </c>
       <c r="E168" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F168" t="s">
         <v>34</v>
@@ -4526,7 +4525,7 @@
         <v>kilogram</v>
       </c>
       <c r="E180" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F180" t="s">
         <v>42</v>
@@ -4737,7 +4736,7 @@
         <v>cubic meter</v>
       </c>
       <c r="E192" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F192" t="s">
         <v>42</v>
@@ -4817,7 +4816,7 @@
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.3">
@@ -4938,7 +4937,7 @@
         <v>36</v>
       </c>
       <c r="B204" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C204">
         <v>100</v>
@@ -4948,7 +4947,7 @@
         <v>ton kilometer</v>
       </c>
       <c r="E204" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F204" t="s">
         <v>42</v>
@@ -4995,7 +4994,7 @@
         <v>9</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.3">
@@ -5027,7 +5026,7 @@
         <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.3">
@@ -5093,7 +5092,7 @@
     <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f>B207</f>
-        <v>trans_fer_to_soi</v>
+        <v>trans_fer_to_soi XXXXXX</v>
       </c>
       <c r="B215" t="str">
         <f>B206</f>
@@ -5148,7 +5147,7 @@
         <v>36</v>
       </c>
       <c r="B216" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C216">
         <v>20</v>
@@ -5158,7 +5157,7 @@
         <v>ton kilometer</v>
       </c>
       <c r="E216" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F216" t="s">
         <v>42</v>

--- a/LCA/LCI_ Inventories.xlsx
+++ b/LCA/LCI_ Inventories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\repositories\PAW_MFA_LCA_2025\LCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mamy/PAW/PAW_MFA_LCA_2025/LCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D796C524-2758-4B40-A482-B39F1C06C6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BCE575-7F8E-6E40-911B-0796EE746295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
+    <workbookView xWindow="33400" yWindow="-140" windowWidth="34640" windowHeight="19480" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
   </bookViews>
   <sheets>
     <sheet name="Directory" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -159,9 +158,6 @@
     <t>YangLi2019</t>
   </si>
   <si>
-    <t>market group for electricity, medium voltage</t>
-  </si>
-  <si>
     <t>kilowatt hours</t>
   </si>
   <si>
@@ -448,6 +444,9 @@
   </si>
   <si>
     <t>trans_fer_to_soi XXXXXX</t>
+  </si>
+  <si>
+    <t>market for electricity, medium voltage</t>
   </si>
 </sst>
 </file>
@@ -898,14 +897,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>230</v>
       </c>
@@ -913,7 +912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>102</v>
       </c>
@@ -921,7 +920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>128</v>
       </c>
@@ -938,19 +937,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9BD897-F590-4437-A121-ED2632AD5485}">
   <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -958,15 +957,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -974,7 +973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -982,7 +981,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -990,7 +989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -998,7 +997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1038,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1062,12 +1061,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1162,34 +1161,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="C19">
         <v>0.23100000000000001</v>
       </c>
       <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>43</v>
       </c>
-      <c r="I19" t="s">
-        <v>44</v>
-      </c>
       <c r="J19">
         <v>0</v>
       </c>
@@ -1209,23 +1208,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1241,7 +1240,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1289,20 +1288,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1349,12 +1348,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1376,102 +1375,102 @@
         <v>35</v>
       </c>
       <c r="I34" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M34" t="s">
-        <v>36</v>
-      </c>
-      <c r="N34" t="s">
-        <v>36</v>
-      </c>
-      <c r="O34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
         <v>48</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
         <v>50</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L35" t="s">
-        <v>36</v>
-      </c>
-      <c r="M35" t="s">
-        <v>36</v>
-      </c>
-      <c r="N35" t="s">
-        <v>36</v>
-      </c>
-      <c r="O35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
       </c>
       <c r="C36">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" t="s">
         <v>49</v>
       </c>
-      <c r="E36" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" t="s">
-        <v>50</v>
-      </c>
       <c r="J36">
         <v>0</v>
       </c>
@@ -1491,23 +1490,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1539,7 +1538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1571,20 +1570,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1631,12 +1630,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1658,431 +1657,431 @@
         <v>35</v>
       </c>
       <c r="I51" t="s">
+        <v>54</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" t="s">
+        <v>36</v>
+      </c>
+      <c r="M51" t="s">
+        <v>36</v>
+      </c>
+      <c r="N51" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
         <v>55</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" t="s">
-        <v>36</v>
-      </c>
-      <c r="L51" t="s">
-        <v>36</v>
-      </c>
-      <c r="M51" t="s">
-        <v>36</v>
-      </c>
-      <c r="N51" t="s">
-        <v>36</v>
-      </c>
-      <c r="O51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" t="s">
-        <v>56</v>
-      </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
         <v>16</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I52" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" t="s">
+        <v>36</v>
+      </c>
+      <c r="M52" t="s">
+        <v>36</v>
+      </c>
+      <c r="N52" t="s">
+        <v>36</v>
+      </c>
+      <c r="O52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
         <v>57</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>36</v>
-      </c>
-      <c r="L52" t="s">
-        <v>36</v>
-      </c>
-      <c r="M52" t="s">
-        <v>36</v>
-      </c>
-      <c r="N52" t="s">
-        <v>36</v>
-      </c>
-      <c r="O52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s">
         <v>58</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" t="s">
-        <v>52</v>
-      </c>
-      <c r="H53" t="s">
-        <v>43</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" t="s">
+        <v>36</v>
+      </c>
+      <c r="N53" t="s">
+        <v>36</v>
+      </c>
+      <c r="O53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
         <v>59</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53" t="s">
-        <v>36</v>
-      </c>
-      <c r="L53" t="s">
-        <v>36</v>
-      </c>
-      <c r="M53" t="s">
-        <v>36</v>
-      </c>
-      <c r="N53" t="s">
-        <v>36</v>
-      </c>
-      <c r="O53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I54" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" t="s">
+        <v>36</v>
+      </c>
+      <c r="M54" t="s">
+        <v>36</v>
+      </c>
+      <c r="N54" t="s">
+        <v>36</v>
+      </c>
+      <c r="O54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
         <v>61</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54" t="s">
-        <v>36</v>
-      </c>
-      <c r="L54" t="s">
-        <v>36</v>
-      </c>
-      <c r="M54" t="s">
-        <v>36</v>
-      </c>
-      <c r="N54" t="s">
-        <v>36</v>
-      </c>
-      <c r="O54" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" t="s">
-        <v>62</v>
-      </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
       </c>
       <c r="H55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I55" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" t="s">
+        <v>36</v>
+      </c>
+      <c r="N55" t="s">
+        <v>36</v>
+      </c>
+      <c r="O55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
         <v>63</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="s">
-        <v>36</v>
-      </c>
-      <c r="L55" t="s">
-        <v>36</v>
-      </c>
-      <c r="M55" t="s">
-        <v>36</v>
-      </c>
-      <c r="N55" t="s">
-        <v>36</v>
-      </c>
-      <c r="O55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" t="s">
-        <v>64</v>
-      </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I56" t="s">
+        <v>64</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M56" t="s">
+        <v>36</v>
+      </c>
+      <c r="N56" t="s">
+        <v>36</v>
+      </c>
+      <c r="O56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
         <v>65</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" t="s">
-        <v>36</v>
-      </c>
-      <c r="L56" t="s">
-        <v>36</v>
-      </c>
-      <c r="M56" t="s">
-        <v>36</v>
-      </c>
-      <c r="N56" t="s">
-        <v>36</v>
-      </c>
-      <c r="O56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" t="s">
-        <v>66</v>
-      </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I57" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" t="s">
+        <v>36</v>
+      </c>
+      <c r="M57" t="s">
+        <v>36</v>
+      </c>
+      <c r="N57" t="s">
+        <v>36</v>
+      </c>
+      <c r="O57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
         <v>67</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57" t="s">
-        <v>36</v>
-      </c>
-      <c r="L57" t="s">
-        <v>36</v>
-      </c>
-      <c r="M57" t="s">
-        <v>36</v>
-      </c>
-      <c r="N57" t="s">
-        <v>36</v>
-      </c>
-      <c r="O57" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" t="s">
-        <v>68</v>
-      </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
       </c>
       <c r="H58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s">
+        <v>68</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" t="s">
+        <v>36</v>
+      </c>
+      <c r="M58" t="s">
+        <v>36</v>
+      </c>
+      <c r="N58" t="s">
+        <v>36</v>
+      </c>
+      <c r="O58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
         <v>69</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58" t="s">
-        <v>36</v>
-      </c>
-      <c r="L58" t="s">
-        <v>36</v>
-      </c>
-      <c r="M58" t="s">
-        <v>36</v>
-      </c>
-      <c r="N58" t="s">
-        <v>36</v>
-      </c>
-      <c r="O58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" t="s">
-        <v>70</v>
-      </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
       </c>
       <c r="H59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I59" t="s">
+        <v>70</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" t="s">
+        <v>36</v>
+      </c>
+      <c r="M59" t="s">
+        <v>36</v>
+      </c>
+      <c r="N59" t="s">
+        <v>36</v>
+      </c>
+      <c r="O59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
         <v>71</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59" t="s">
-        <v>36</v>
-      </c>
-      <c r="L59" t="s">
-        <v>36</v>
-      </c>
-      <c r="M59" t="s">
-        <v>36</v>
-      </c>
-      <c r="N59" t="s">
-        <v>36</v>
-      </c>
-      <c r="O59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" t="s">
         <v>72</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" t="s">
-        <v>127</v>
-      </c>
-      <c r="F60" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" t="s">
-        <v>52</v>
-      </c>
-      <c r="H60" t="s">
-        <v>43</v>
-      </c>
-      <c r="I60" t="s">
-        <v>73</v>
-      </c>
       <c r="J60">
         <v>0</v>
       </c>
@@ -2102,221 +2101,221 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I61" t="s">
+        <v>76</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" t="s">
+        <v>36</v>
+      </c>
+      <c r="M61" t="s">
+        <v>36</v>
+      </c>
+      <c r="N61" t="s">
+        <v>36</v>
+      </c>
+      <c r="O61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s">
         <v>77</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>36</v>
-      </c>
-      <c r="L61" t="s">
-        <v>36</v>
-      </c>
-      <c r="M61" t="s">
-        <v>36</v>
-      </c>
-      <c r="N61" t="s">
-        <v>36</v>
-      </c>
-      <c r="O61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62" t="s">
-        <v>78</v>
-      </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
       </c>
       <c r="H62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I62" t="s">
+        <v>78</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" t="s">
+        <v>36</v>
+      </c>
+      <c r="M62" t="s">
+        <v>36</v>
+      </c>
+      <c r="N62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
         <v>79</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62" t="s">
-        <v>36</v>
-      </c>
-      <c r="L62" t="s">
-        <v>36</v>
-      </c>
-      <c r="M62" t="s">
-        <v>36</v>
-      </c>
-      <c r="N62" t="s">
-        <v>36</v>
-      </c>
-      <c r="O62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" t="s">
-        <v>80</v>
       </c>
       <c r="C63">
         <v>6.2700000000000006E-2</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F63" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" t="s">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s">
         <v>42</v>
       </c>
-      <c r="G63" t="s">
+      <c r="I63" t="s">
         <v>81</v>
       </c>
-      <c r="H63" t="s">
-        <v>43</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" t="s">
+        <v>36</v>
+      </c>
+      <c r="M63" t="s">
+        <v>36</v>
+      </c>
+      <c r="N63" t="s">
+        <v>36</v>
+      </c>
+      <c r="O63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
         <v>82</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63" t="s">
-        <v>36</v>
-      </c>
-      <c r="L63" t="s">
-        <v>36</v>
-      </c>
-      <c r="M63" t="s">
-        <v>36</v>
-      </c>
-      <c r="N63" t="s">
-        <v>36</v>
-      </c>
-      <c r="O63" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" t="s">
-        <v>83</v>
       </c>
       <c r="C64">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
         <v>16</v>
       </c>
       <c r="H64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I64" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" t="s">
+        <v>36</v>
+      </c>
+      <c r="M64" t="s">
+        <v>36</v>
+      </c>
+      <c r="N64" t="s">
+        <v>36</v>
+      </c>
+      <c r="O64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
         <v>84</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64" t="s">
-        <v>36</v>
-      </c>
-      <c r="L64" t="s">
-        <v>36</v>
-      </c>
-      <c r="M64" t="s">
-        <v>36</v>
-      </c>
-      <c r="N64" t="s">
-        <v>36</v>
-      </c>
-      <c r="O64" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" t="s">
-        <v>85</v>
       </c>
       <c r="C65">
         <v>0.06</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" t="s">
         <v>42</v>
       </c>
-      <c r="G65" t="s">
-        <v>52</v>
-      </c>
-      <c r="H65" t="s">
-        <v>43</v>
-      </c>
       <c r="I65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2337,33 +2336,33 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
         <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2384,127 +2383,127 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>36</v>
       </c>
       <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H67" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" t="s">
         <v>87</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
-        <v>49</v>
-      </c>
-      <c r="E67" t="s">
-        <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>42</v>
-      </c>
-      <c r="G67" t="s">
-        <v>52</v>
-      </c>
-      <c r="H67" t="s">
-        <v>43</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M67" t="s">
+        <v>36</v>
+      </c>
+      <c r="N67" t="s">
+        <v>36</v>
+      </c>
+      <c r="O67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
         <v>88</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M67" t="s">
-        <v>36</v>
-      </c>
-      <c r="N67" t="s">
-        <v>36</v>
-      </c>
-      <c r="O67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" t="s">
-        <v>89</v>
       </c>
       <c r="C68">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s">
+        <v>51</v>
+      </c>
+      <c r="H68" t="s">
         <v>42</v>
       </c>
-      <c r="G68" t="s">
-        <v>52</v>
-      </c>
-      <c r="H68" t="s">
-        <v>43</v>
-      </c>
       <c r="I68" t="s">
+        <v>89</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>36</v>
+      </c>
+      <c r="L68" t="s">
+        <v>36</v>
+      </c>
+      <c r="M68" t="s">
+        <v>36</v>
+      </c>
+      <c r="N68" t="s">
+        <v>36</v>
+      </c>
+      <c r="O68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
         <v>90</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68" t="s">
-        <v>36</v>
-      </c>
-      <c r="L68" t="s">
-        <v>36</v>
-      </c>
-      <c r="M68" t="s">
-        <v>36</v>
-      </c>
-      <c r="N68" t="s">
-        <v>36</v>
-      </c>
-      <c r="O68" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" t="s">
-        <v>91</v>
-      </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
       </c>
       <c r="H69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -2525,23 +2524,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -2581,7 +2580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -2605,20 +2604,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2665,12 +2664,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2692,54 +2691,54 @@
         <v>35</v>
       </c>
       <c r="I84" t="s">
+        <v>92</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>36</v>
+      </c>
+      <c r="L84" t="s">
+        <v>36</v>
+      </c>
+      <c r="M84" t="s">
+        <v>36</v>
+      </c>
+      <c r="N84" t="s">
+        <v>36</v>
+      </c>
+      <c r="O84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" t="s">
         <v>93</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" t="s">
-        <v>36</v>
-      </c>
-      <c r="L84" t="s">
-        <v>36</v>
-      </c>
-      <c r="M84" t="s">
-        <v>36</v>
-      </c>
-      <c r="N84" t="s">
-        <v>36</v>
-      </c>
-      <c r="O84" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>36</v>
-      </c>
-      <c r="B85" t="s">
-        <v>94</v>
       </c>
       <c r="C85">
         <v>5.0499999999999998E-3</v>
       </c>
       <c r="D85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G85" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s">
         <v>74</v>
       </c>
-      <c r="H85" t="s">
-        <v>75</v>
-      </c>
       <c r="I85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -2760,33 +2759,33 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86">
         <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F86" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" t="s">
+        <v>80</v>
+      </c>
+      <c r="H86" t="s">
         <v>42</v>
       </c>
-      <c r="G86" t="s">
-        <v>81</v>
-      </c>
-      <c r="H86" t="s">
-        <v>43</v>
-      </c>
       <c r="I86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -2807,12 +2806,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>36</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87">
         <v>-5.4499999999999997E-7</v>
@@ -2821,20 +2820,20 @@
         <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
+        <v>101</v>
+      </c>
+      <c r="H87" t="s">
         <v>42</v>
       </c>
-      <c r="G87" t="s">
+      <c r="I87" t="s">
         <v>102</v>
       </c>
-      <c r="H87" t="s">
-        <v>43</v>
-      </c>
-      <c r="I87" t="s">
-        <v>103</v>
-      </c>
       <c r="J87">
         <v>0</v>
       </c>
@@ -2854,33 +2853,33 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88">
         <v>-5.0499999999999998E-3</v>
       </c>
       <c r="D88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
         <v>16</v>
       </c>
       <c r="H88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -2901,23 +2900,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -2925,15 +2924,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -2957,20 +2956,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3017,7 +3016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f>B91</f>
         <v>sec_tre</v>
@@ -3070,7 +3069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>36</v>
       </c>
@@ -3090,14 +3089,14 @@
         <v>paw_db</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101" t="str">
         <f>B77</f>
         <v>RER</v>
       </c>
       <c r="H101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I101" t="str">
         <f>B81</f>
@@ -3122,7 +3121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>RER</v>
       </c>
       <c r="H102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I102" t="str">
         <f>B48</f>
@@ -3174,7 +3173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>RER</v>
       </c>
       <c r="H103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I103" t="str">
         <f>B31</f>
@@ -3226,7 +3225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>RER</v>
       </c>
       <c r="H104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I104" t="str">
         <f>B15</f>
@@ -3278,31 +3277,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -3326,7 +3325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -3366,12 +3365,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -3418,12 +3417,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3466,34 +3465,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="C120">
         <v>0.17</v>
       </c>
       <c r="D120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F120" t="s">
         <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="H120" t="s">
+        <v>42</v>
+      </c>
+      <c r="I120" t="s">
         <v>43</v>
       </c>
-      <c r="I120" t="s">
-        <v>44</v>
-      </c>
       <c r="J120">
         <v>0</v>
       </c>
@@ -3513,31 +3512,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -3569,7 +3568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -3593,20 +3592,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>22</v>
       </c>
       <c r="B132" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -3653,12 +3652,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B135" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -3680,7 +3679,7 @@
         <v>35</v>
       </c>
       <c r="I135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -3701,21 +3700,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
       <c r="B136" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C136">
         <v>0.114</v>
       </c>
       <c r="D136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E136" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F136" t="s">
         <v>34</v>
@@ -3724,10 +3723,10 @@
         <v>16</v>
       </c>
       <c r="H136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I136" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -3748,31 +3747,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -3788,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -3804,20 +3803,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>22</v>
       </c>
       <c r="B145" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f>B139</f>
         <v>sec_tre</v>
@@ -3917,7 +3916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -3937,14 +3936,14 @@
         <v>paw_db</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G149" t="str">
         <f>B128</f>
         <v>RER</v>
       </c>
       <c r="H149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I149" t="str">
         <f>B131</f>
@@ -3969,7 +3968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B150" t="str">
         <f>B106</f>
         <v>Electricity 102</v>
@@ -4019,32 +4018,32 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -4052,7 +4051,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -4060,7 +4059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -4076,7 +4075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -4100,20 +4099,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>22</v>
       </c>
       <c r="B162" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -4160,12 +4159,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B165" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -4187,7 +4186,7 @@
         <v>35</v>
       </c>
       <c r="I165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -4208,21 +4207,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C166">
         <v>0.02</v>
       </c>
       <c r="D166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E166" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F166" t="s">
         <v>34</v>
@@ -4231,10 +4230,10 @@
         <v>16</v>
       </c>
       <c r="H166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I166" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -4255,21 +4254,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>36</v>
       </c>
       <c r="B167" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F167" t="s">
         <v>34</v>
@@ -4278,10 +4277,10 @@
         <v>16</v>
       </c>
       <c r="H167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -4302,21 +4301,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>36</v>
       </c>
       <c r="B168" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C168">
         <v>0.02</v>
       </c>
       <c r="D168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E168" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F168" t="s">
         <v>34</v>
@@ -4325,10 +4324,10 @@
         <v>16</v>
       </c>
       <c r="H168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I168" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -4349,31 +4348,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>15</v>
       </c>
       <c r="B172" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -4389,28 +4388,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>22</v>
       </c>
       <c r="B176" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -4457,7 +4456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
         <f>B171</f>
         <v>inc</v>
@@ -4510,12 +4509,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>36</v>
       </c>
       <c r="B180" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -4525,20 +4524,20 @@
         <v>kilogram</v>
       </c>
       <c r="E180" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G180" t="str">
         <f>B172</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="H180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I180" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -4559,32 +4558,32 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -4592,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -4608,20 +4607,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>22</v>
       </c>
       <c r="B188" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
         <f>B183</f>
         <v>sec_tre</v>
@@ -4721,12 +4720,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>36</v>
       </c>
       <c r="B192" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -4736,17 +4735,17 @@
         <v>cubic meter</v>
       </c>
       <c r="E192" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G192" t="str">
         <f>B184</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="H192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I192" t="str">
         <f>B188</f>
@@ -4771,23 +4770,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -4803,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>18</v>
       </c>
@@ -4811,28 +4810,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>22</v>
       </c>
       <c r="B200" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="str">
         <f>B195</f>
         <v>trans_sldg_to_inc</v>
@@ -4932,12 +4931,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>36</v>
       </c>
       <c r="B204" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C204">
         <v>100</v>
@@ -4947,20 +4946,20 @@
         <v>ton kilometer</v>
       </c>
       <c r="E204" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G204" t="str">
         <f>B196</f>
         <v>RER</v>
       </c>
       <c r="H204" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I204" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -4981,23 +4980,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>18</v>
       </c>
@@ -5021,28 +5020,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>22</v>
       </c>
       <c r="B212" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>9</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="str">
         <f>B207</f>
         <v>trans_fer_to_soi XXXXXX</v>
@@ -5142,12 +5141,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>36</v>
       </c>
       <c r="B216" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C216">
         <v>20</v>
@@ -5157,20 +5156,20 @@
         <v>ton kilometer</v>
       </c>
       <c r="E216" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G216" t="str">
         <f>B208</f>
         <v>RER</v>
       </c>
       <c r="H216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I216" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J216">
         <v>0</v>

--- a/LCA/LCI_ Inventories.xlsx
+++ b/LCA/LCI_ Inventories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mamy/PAW/PAW_MFA_LCA_2025/LCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BCE575-7F8E-6E40-911B-0796EE746295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FF092F-67DC-CF43-A2AC-FA9A7D1B270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33400" yWindow="-140" windowWidth="34640" windowHeight="19480" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="142">
   <si>
     <t>Database</t>
   </si>
@@ -389,9 +389,6 @@
     <t>treatment of sewage sludge, 70% water, WWT, WW, average, municipal incineration</t>
   </si>
   <si>
-    <t>inc</t>
-  </si>
-  <si>
     <t>sec_tre</t>
   </si>
   <si>
@@ -401,9 +398,6 @@
     <t>transport of sludge to incineration</t>
   </si>
   <si>
-    <t>trans_sldg_to_inc</t>
-  </si>
-  <si>
     <t>transport, freight, lorry, diesel, unspecified</t>
   </si>
   <si>
@@ -425,9 +419,6 @@
     <t>ton kilometer</t>
   </si>
   <si>
-    <t>sec_tre__qua_tre__aop</t>
-  </si>
-  <si>
     <t>Activated Carbon Technology</t>
   </si>
   <si>
@@ -443,10 +434,34 @@
     <t>treated wastewater</t>
   </si>
   <si>
-    <t>trans_fer_to_soi XXXXXX</t>
-  </si>
-  <si>
     <t>market for electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>fer__soi</t>
+  </si>
+  <si>
+    <t>sldg_sep__inc</t>
+  </si>
+  <si>
+    <t>code1</t>
+  </si>
+  <si>
+    <t>code2</t>
+  </si>
+  <si>
+    <t>dec_tre__sec_tre</t>
+  </si>
+  <si>
+    <t>dom_ww__sec_tre</t>
+  </si>
+  <si>
+    <t>ind_ww__dec_tre</t>
+  </si>
+  <si>
+    <t>qua_tre__inc</t>
+  </si>
+  <si>
+    <t>sec_tre__qua_tre</t>
   </si>
 </sst>
 </file>
@@ -935,10 +950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9BD897-F590-4437-A121-ED2632AD5485}">
-  <dimension ref="A1:O216"/>
+  <dimension ref="A1:O220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1166,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C19">
         <v>0.23100000000000001</v>
@@ -1175,13 +1190,13 @@
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
@@ -1410,7 +1425,7 @@
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
         <v>41</v>
@@ -1457,7 +1472,7 @@
         <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
         <v>41</v>
@@ -1692,7 +1707,7 @@
         <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F52" t="s">
         <v>41</v>
@@ -1739,7 +1754,7 @@
         <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F53" t="s">
         <v>41</v>
@@ -1786,7 +1801,7 @@
         <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F54" t="s">
         <v>41</v>
@@ -1833,7 +1848,7 @@
         <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F55" t="s">
         <v>41</v>
@@ -1880,7 +1895,7 @@
         <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F56" t="s">
         <v>41</v>
@@ -1927,7 +1942,7 @@
         <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F57" t="s">
         <v>41</v>
@@ -1974,7 +1989,7 @@
         <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F58" t="s">
         <v>41</v>
@@ -2021,7 +2036,7 @@
         <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F59" t="s">
         <v>41</v>
@@ -2068,7 +2083,7 @@
         <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F60" t="s">
         <v>41</v>
@@ -2115,7 +2130,7 @@
         <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F61" t="s">
         <v>41</v>
@@ -2162,7 +2177,7 @@
         <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F62" t="s">
         <v>41</v>
@@ -2209,7 +2224,7 @@
         <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
@@ -2256,7 +2271,7 @@
         <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
         <v>41</v>
@@ -2303,7 +2318,7 @@
         <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
         <v>41</v>
@@ -2350,7 +2365,7 @@
         <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
         <v>41</v>
@@ -2397,7 +2412,7 @@
         <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F67" t="s">
         <v>41</v>
@@ -2444,7 +2459,7 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F68" t="s">
         <v>41</v>
@@ -2491,7 +2506,7 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
         <v>41</v>
@@ -2726,7 +2741,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F85" t="s">
         <v>99</v>
@@ -2773,7 +2788,7 @@
         <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F86" t="s">
         <v>41</v>
@@ -2820,7 +2835,7 @@
         <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F87" t="s">
         <v>41</v>
@@ -2867,7 +2882,7 @@
         <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F88" t="s">
         <v>41</v>
@@ -2905,7 +2920,7 @@
         <v>8</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
@@ -2913,7 +2928,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
@@ -2929,7 +2944,7 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -3470,7 +3485,7 @@
         <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C120">
         <v>0.17</v>
@@ -3479,13 +3494,13 @@
         <v>40</v>
       </c>
       <c r="E120" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F120" t="s">
         <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H120" t="s">
         <v>42</v>
@@ -3714,7 +3729,7 @@
         <v>48</v>
       </c>
       <c r="E136" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F136" t="s">
         <v>34</v>
@@ -3752,232 +3767,191 @@
         <v>8</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" t="s">
-        <v>101</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>11</v>
-      </c>
-      <c r="B141">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="B141" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>18</v>
-      </c>
-      <c r="B143" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B146" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>9</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>25</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C148" t="s">
         <v>17</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D148" t="s">
         <v>20</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E148" t="s">
         <v>26</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F148" t="s">
         <v>27</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G148" t="s">
         <v>15</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H148" t="s">
         <v>18</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I148" t="s">
         <v>22</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J148" t="s">
         <v>28</v>
       </c>
-      <c r="K147" t="s">
+      <c r="K148" t="s">
         <v>29</v>
       </c>
-      <c r="L147" t="s">
+      <c r="L148" t="s">
         <v>30</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M148" t="s">
         <v>31</v>
       </c>
-      <c r="N147" t="s">
+      <c r="N148" t="s">
         <v>32</v>
       </c>
-      <c r="O147" t="s">
+      <c r="O148" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A148" t="str">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" t="str">
         <f>B139</f>
-        <v>sec_tre</v>
-      </c>
-      <c r="B148" t="str">
+        <v>ind_ww__dec_tre</v>
+      </c>
+      <c r="B149" t="str">
         <f>B138</f>
         <v>Ozonation</v>
       </c>
-      <c r="C148">
+      <c r="C149">
         <v>1</v>
       </c>
-      <c r="D148" t="str">
-        <f>B144</f>
+      <c r="D149" t="str">
+        <f>B145</f>
         <v>cubic meter</v>
       </c>
-      <c r="E148" t="str">
+      <c r="E149" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F149" t="s">
         <v>34</v>
       </c>
-      <c r="G148" t="str">
-        <f>B140</f>
+      <c r="G149" t="str">
+        <f>B141</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H149" t="s">
         <v>35</v>
       </c>
-      <c r="I148" t="str">
-        <f>B145</f>
+      <c r="I149" t="str">
+        <f>B146</f>
         <v>treated wastewater</v>
       </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148" t="s">
-        <v>36</v>
-      </c>
-      <c r="L148" t="s">
-        <v>36</v>
-      </c>
-      <c r="M148" t="s">
-        <v>36</v>
-      </c>
-      <c r="N148" t="s">
-        <v>36</v>
-      </c>
-      <c r="O148" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>36</v>
-      </c>
-      <c r="B149" t="str">
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149" t="s">
+        <v>36</v>
+      </c>
+      <c r="L149" t="s">
+        <v>36</v>
+      </c>
+      <c r="M149" t="s">
+        <v>36</v>
+      </c>
+      <c r="N149" t="s">
+        <v>36</v>
+      </c>
+      <c r="O149" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>36</v>
+      </c>
+      <c r="B150" t="str">
         <f>B122</f>
         <v>Chemicals 102</v>
       </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149" t="str">
-        <f>B144</f>
-        <v>cubic meter</v>
-      </c>
-      <c r="E149" t="str">
-        <f>E148</f>
-        <v>paw_db</v>
-      </c>
-      <c r="F149" t="s">
-        <v>41</v>
-      </c>
-      <c r="G149" t="str">
-        <f>B128</f>
-        <v>RER</v>
-      </c>
-      <c r="H149" t="s">
-        <v>42</v>
-      </c>
-      <c r="I149" t="str">
-        <f>B131</f>
-        <v>cubic meter</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149" t="s">
-        <v>36</v>
-      </c>
-      <c r="L149" t="s">
-        <v>36</v>
-      </c>
-      <c r="M149" t="s">
-        <v>36</v>
-      </c>
-      <c r="N149" t="s">
-        <v>36</v>
-      </c>
-      <c r="O149" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B150" t="str">
-        <f>B106</f>
-        <v>Electricity 102</v>
-      </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150" t="str">
-        <f>B115</f>
+        <f>B145</f>
         <v>cubic meter</v>
       </c>
       <c r="E150" t="str">
@@ -3985,291 +3959,254 @@
         <v>paw_db</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G150" t="str">
+        <f>B128</f>
+        <v>RER</v>
+      </c>
+      <c r="H150" t="s">
+        <v>42</v>
+      </c>
+      <c r="I150" t="str">
+        <f>B131</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150" t="s">
+        <v>36</v>
+      </c>
+      <c r="L150" t="s">
+        <v>36</v>
+      </c>
+      <c r="M150" t="s">
+        <v>36</v>
+      </c>
+      <c r="N150" t="s">
+        <v>36</v>
+      </c>
+      <c r="O150" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B151" t="str">
+        <f>B106</f>
+        <v>Electricity 102</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="str">
         <f>B115</f>
         <v>cubic meter</v>
       </c>
-      <c r="H150" t="str">
-        <f>H149</f>
-        <v>technosphere</v>
-      </c>
-      <c r="I150" t="str">
+      <c r="E151" t="str">
+        <f>E150</f>
+        <v>paw_db</v>
+      </c>
+      <c r="F151" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151" t="str">
         <f>B115</f>
         <v>cubic meter</v>
       </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150" t="s">
-        <v>36</v>
-      </c>
-      <c r="L150" t="s">
-        <v>36</v>
-      </c>
-      <c r="M150" t="s">
-        <v>36</v>
-      </c>
-      <c r="N150" t="s">
-        <v>36</v>
-      </c>
-      <c r="O150" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
+      <c r="H151" t="str">
+        <f>H150</f>
+        <v>technosphere</v>
+      </c>
+      <c r="I151" t="str">
+        <f>B115</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151" t="s">
+        <v>36</v>
+      </c>
+      <c r="L151" t="s">
+        <v>36</v>
+      </c>
+      <c r="M151" t="s">
+        <v>36</v>
+      </c>
+      <c r="N151" t="s">
+        <v>36</v>
+      </c>
+      <c r="O151" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="153" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B153" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>10</v>
-      </c>
-      <c r="B154" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>11</v>
-      </c>
-      <c r="B155" s="9">
-        <v>128</v>
+    <row r="154" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>14</v>
-      </c>
-      <c r="B157" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B157" s="9">
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>17</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>20</v>
-      </c>
-      <c r="B161" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B162" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B163" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B164" t="s">
-        <v>25</v>
-      </c>
-      <c r="C164" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" t="s">
-        <v>20</v>
-      </c>
-      <c r="E164" t="s">
-        <v>26</v>
-      </c>
-      <c r="F164" t="s">
-        <v>27</v>
-      </c>
-      <c r="G164" t="s">
-        <v>15</v>
-      </c>
-      <c r="H164" t="s">
-        <v>18</v>
-      </c>
-      <c r="I164" t="s">
-        <v>22</v>
-      </c>
-      <c r="J164" t="s">
-        <v>28</v>
-      </c>
-      <c r="K164" t="s">
-        <v>29</v>
-      </c>
-      <c r="L164" t="s">
-        <v>30</v>
-      </c>
-      <c r="M164" t="s">
-        <v>31</v>
-      </c>
-      <c r="N164" t="s">
-        <v>32</v>
-      </c>
-      <c r="O164" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" t="s">
+        <v>26</v>
+      </c>
+      <c r="F166" t="s">
+        <v>27</v>
+      </c>
+      <c r="G166" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" t="s">
+        <v>22</v>
+      </c>
+      <c r="J166" t="s">
+        <v>28</v>
+      </c>
+      <c r="K166" t="s">
+        <v>29</v>
+      </c>
+      <c r="L166" t="s">
+        <v>30</v>
+      </c>
+      <c r="M166" t="s">
+        <v>31</v>
+      </c>
+      <c r="N166" t="s">
+        <v>32</v>
+      </c>
+      <c r="O166" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>110</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B167" t="s">
         <v>109</v>
       </c>
-      <c r="C165">
+      <c r="C167">
         <v>1</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D167" t="s">
         <v>21</v>
       </c>
-      <c r="E165" t="str">
+      <c r="E167" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F165" t="s">
-        <v>34</v>
-      </c>
-      <c r="G165" t="s">
-        <v>16</v>
-      </c>
-      <c r="H165" t="s">
-        <v>35</v>
-      </c>
-      <c r="I165" t="s">
-        <v>54</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165" t="s">
-        <v>36</v>
-      </c>
-      <c r="L165" t="s">
-        <v>36</v>
-      </c>
-      <c r="M165" t="s">
-        <v>36</v>
-      </c>
-      <c r="N165" t="s">
-        <v>36</v>
-      </c>
-      <c r="O165" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>36</v>
-      </c>
-      <c r="B166" t="s">
-        <v>61</v>
-      </c>
-      <c r="C166">
-        <v>0.02</v>
-      </c>
-      <c r="D166" t="s">
-        <v>48</v>
-      </c>
-      <c r="E166" t="s">
-        <v>126</v>
-      </c>
-      <c r="F166" t="s">
-        <v>34</v>
-      </c>
-      <c r="G166" t="s">
-        <v>16</v>
-      </c>
-      <c r="H166" t="s">
-        <v>42</v>
-      </c>
-      <c r="I166" t="s">
-        <v>62</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166" t="s">
-        <v>36</v>
-      </c>
-      <c r="L166" t="s">
-        <v>36</v>
-      </c>
-      <c r="M166" t="s">
-        <v>36</v>
-      </c>
-      <c r="N166" t="s">
-        <v>36</v>
-      </c>
-      <c r="O166" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>36</v>
-      </c>
-      <c r="B167" t="s">
-        <v>59</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167" t="s">
-        <v>48</v>
-      </c>
-      <c r="E167" t="s">
-        <v>126</v>
-      </c>
       <c r="F167" t="s">
         <v>34</v>
       </c>
@@ -4277,10 +4214,10 @@
         <v>16</v>
       </c>
       <c r="H167" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I167" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -4306,7 +4243,7 @@
         <v>36</v>
       </c>
       <c r="B168" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C168">
         <v>0.02</v>
@@ -4315,7 +4252,7 @@
         <v>48</v>
       </c>
       <c r="E168" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F168" t="s">
         <v>34</v>
@@ -4327,866 +4264,976 @@
         <v>42</v>
       </c>
       <c r="I168" t="s">
+        <v>62</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168" t="s">
+        <v>36</v>
+      </c>
+      <c r="L168" t="s">
+        <v>36</v>
+      </c>
+      <c r="M168" t="s">
+        <v>36</v>
+      </c>
+      <c r="N168" t="s">
+        <v>36</v>
+      </c>
+      <c r="O168" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>36</v>
+      </c>
+      <c r="B169" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169" t="s">
+        <v>48</v>
+      </c>
+      <c r="E169" t="s">
+        <v>124</v>
+      </c>
+      <c r="F169" t="s">
+        <v>34</v>
+      </c>
+      <c r="G169" t="s">
+        <v>16</v>
+      </c>
+      <c r="H169" t="s">
+        <v>42</v>
+      </c>
+      <c r="I169" t="s">
+        <v>60</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169" t="s">
+        <v>36</v>
+      </c>
+      <c r="L169" t="s">
+        <v>36</v>
+      </c>
+      <c r="M169" t="s">
+        <v>36</v>
+      </c>
+      <c r="N169" t="s">
+        <v>36</v>
+      </c>
+      <c r="O169" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>36</v>
+      </c>
+      <c r="B170" t="s">
+        <v>112</v>
+      </c>
+      <c r="C170">
+        <v>0.02</v>
+      </c>
+      <c r="D170" t="s">
+        <v>48</v>
+      </c>
+      <c r="E170" t="s">
+        <v>124</v>
+      </c>
+      <c r="F170" t="s">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
+        <v>16</v>
+      </c>
+      <c r="H170" t="s">
+        <v>42</v>
+      </c>
+      <c r="I170" t="s">
         <v>113</v>
       </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168" t="s">
-        <v>36</v>
-      </c>
-      <c r="L168" t="s">
-        <v>36</v>
-      </c>
-      <c r="M168" t="s">
-        <v>36</v>
-      </c>
-      <c r="N168" t="s">
-        <v>36</v>
-      </c>
-      <c r="O168" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="10" t="s">
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170" t="s">
+        <v>36</v>
+      </c>
+      <c r="L170" t="s">
+        <v>36</v>
+      </c>
+      <c r="M170" t="s">
+        <v>36</v>
+      </c>
+      <c r="N170" t="s">
+        <v>36</v>
+      </c>
+      <c r="O170" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B172" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="171" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>15</v>
-      </c>
-      <c r="B172" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>17</v>
-      </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>18</v>
-      </c>
-      <c r="B174" t="s">
-        <v>19</v>
+    <row r="173" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B175" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>22</v>
-      </c>
-      <c r="B176" t="s">
-        <v>115</v>
+        <v>17</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="B177" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>20</v>
+      </c>
+      <c r="B178" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>9</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B181" t="s">
         <v>25</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C181" t="s">
         <v>17</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D181" t="s">
         <v>20</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E181" t="s">
         <v>26</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F181" t="s">
         <v>27</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G181" t="s">
         <v>15</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H181" t="s">
         <v>18</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I181" t="s">
         <v>22</v>
       </c>
-      <c r="J178" t="s">
+      <c r="J181" t="s">
         <v>28</v>
       </c>
-      <c r="K178" t="s">
+      <c r="K181" t="s">
         <v>29</v>
       </c>
-      <c r="L178" t="s">
+      <c r="L181" t="s">
         <v>30</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M181" t="s">
         <v>31</v>
       </c>
-      <c r="N178" t="s">
+      <c r="N181" t="s">
         <v>32</v>
       </c>
-      <c r="O178" t="s">
+      <c r="O181" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A179" t="str">
-        <f>B171</f>
-        <v>inc</v>
-      </c>
-      <c r="B179" t="str">
-        <f>B170</f>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A182" t="str">
+        <f>B173</f>
+        <v>qua_tre__inc</v>
+      </c>
+      <c r="B182" t="str">
+        <f>B172</f>
         <v xml:space="preserve">sludge incineration </v>
       </c>
-      <c r="C179">
+      <c r="C182">
         <v>1</v>
       </c>
-      <c r="D179" t="str">
-        <f>B175</f>
+      <c r="D182" t="str">
+        <f>B178</f>
         <v>kilogram</v>
       </c>
-      <c r="E179" t="str">
+      <c r="E182" t="str">
         <f>B2</f>
         <v>paw_db</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F182" t="s">
         <v>34</v>
       </c>
-      <c r="G179" t="str">
-        <f>B172</f>
+      <c r="G182" t="str">
+        <f>B175</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H182" t="s">
         <v>35</v>
       </c>
-      <c r="I179" t="str">
-        <f>B176</f>
+      <c r="I182" t="str">
+        <f>B179</f>
         <v>sewage sludge, 70% water, WWT, WW, average</v>
       </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179" t="s">
-        <v>36</v>
-      </c>
-      <c r="L179" t="s">
-        <v>36</v>
-      </c>
-      <c r="M179" t="s">
-        <v>36</v>
-      </c>
-      <c r="N179" t="s">
-        <v>36</v>
-      </c>
-      <c r="O179" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>36</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182" t="s">
+        <v>36</v>
+      </c>
+      <c r="L182" t="s">
+        <v>36</v>
+      </c>
+      <c r="M182" t="s">
+        <v>36</v>
+      </c>
+      <c r="N182" t="s">
+        <v>36</v>
+      </c>
+      <c r="O182" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>36</v>
+      </c>
+      <c r="B183" t="s">
         <v>116</v>
       </c>
-      <c r="C180">
+      <c r="C183">
         <v>1</v>
       </c>
-      <c r="D180" t="str">
-        <f>D179</f>
+      <c r="D183" t="str">
+        <f>D182</f>
         <v>kilogram</v>
       </c>
-      <c r="E180" t="s">
-        <v>126</v>
-      </c>
-      <c r="F180" t="s">
+      <c r="E183" t="s">
+        <v>124</v>
+      </c>
+      <c r="F183" t="s">
         <v>41</v>
       </c>
-      <c r="G180" t="str">
-        <f>B172</f>
+      <c r="G183" t="str">
+        <f>B175</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H183" t="s">
         <v>42</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I183" t="s">
         <v>115</v>
       </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-      <c r="K180" t="s">
-        <v>36</v>
-      </c>
-      <c r="L180" t="s">
-        <v>36</v>
-      </c>
-      <c r="M180" t="s">
-        <v>36</v>
-      </c>
-      <c r="N180" t="s">
-        <v>36</v>
-      </c>
-      <c r="O180" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="10" t="s">
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183" t="s">
+        <v>36</v>
+      </c>
+      <c r="L183" t="s">
+        <v>36</v>
+      </c>
+      <c r="M183" t="s">
+        <v>36</v>
+      </c>
+      <c r="N183" t="s">
+        <v>36</v>
+      </c>
+      <c r="O183" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B182" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B183" s="10" t="s">
+      <c r="B185" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>15</v>
-      </c>
-      <c r="B184" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>17</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>18</v>
-      </c>
-      <c r="B186" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>20</v>
-      </c>
-      <c r="B187" t="s">
-        <v>21</v>
+    <row r="186" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B188" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>22</v>
+      </c>
+      <c r="B192" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>9</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B194" t="s">
         <v>25</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C194" t="s">
         <v>17</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D194" t="s">
         <v>20</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E194" t="s">
         <v>26</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F194" t="s">
         <v>27</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G194" t="s">
         <v>15</v>
       </c>
-      <c r="H190" t="s">
+      <c r="H194" t="s">
         <v>18</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I194" t="s">
         <v>22</v>
       </c>
-      <c r="J190" t="s">
+      <c r="J194" t="s">
         <v>28</v>
       </c>
-      <c r="K190" t="s">
+      <c r="K194" t="s">
         <v>29</v>
       </c>
-      <c r="L190" t="s">
+      <c r="L194" t="s">
         <v>30</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M194" t="s">
         <v>31</v>
       </c>
-      <c r="N190" t="s">
+      <c r="N194" t="s">
         <v>32</v>
       </c>
-      <c r="O190" t="s">
+      <c r="O194" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A191" t="str">
-        <f>B183</f>
-        <v>sec_tre</v>
-      </c>
-      <c r="B191" t="str">
-        <f>B182</f>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A195" t="str">
+        <f>B186</f>
+        <v>dec_tre__sec_tre</v>
+      </c>
+      <c r="B195" t="str">
+        <f>B185</f>
         <v>secondary treatment</v>
       </c>
-      <c r="C191">
+      <c r="C195">
         <v>1</v>
       </c>
-      <c r="D191" t="str">
-        <f>B187</f>
+      <c r="D195" t="str">
+        <f>B191</f>
         <v>cubic meter</v>
       </c>
-      <c r="E191" t="str">
+      <c r="E195" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F195" t="s">
         <v>34</v>
       </c>
-      <c r="G191" t="str">
-        <f>B184</f>
+      <c r="G195" t="str">
+        <f>B188</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H191" t="s">
+      <c r="H195" t="s">
         <v>35</v>
       </c>
-      <c r="I191" t="str">
-        <f>B188</f>
+      <c r="I195" t="str">
+        <f>B192</f>
         <v>wastewater, average</v>
       </c>
-      <c r="J191">
-        <v>0</v>
-      </c>
-      <c r="K191" t="s">
-        <v>36</v>
-      </c>
-      <c r="L191" t="s">
-        <v>36</v>
-      </c>
-      <c r="M191" t="s">
-        <v>36</v>
-      </c>
-      <c r="N191" t="s">
-        <v>36</v>
-      </c>
-      <c r="O191" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>36</v>
-      </c>
-      <c r="B192" t="s">
-        <v>95</v>
-      </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="D192" t="str">
-        <f>B187</f>
-        <v>cubic meter</v>
-      </c>
-      <c r="E192" t="s">
-        <v>126</v>
-      </c>
-      <c r="F192" t="s">
-        <v>41</v>
-      </c>
-      <c r="G192" t="str">
-        <f>B184</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="H192" t="s">
-        <v>42</v>
-      </c>
-      <c r="I192" t="str">
-        <f>B188</f>
-        <v>wastewater, average</v>
-      </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-      <c r="K192" t="s">
-        <v>36</v>
-      </c>
-      <c r="L192" t="s">
-        <v>36</v>
-      </c>
-      <c r="M192" t="s">
-        <v>36</v>
-      </c>
-      <c r="N192" t="s">
-        <v>36</v>
-      </c>
-      <c r="O192" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B194" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B195" s="10" t="s">
-        <v>121</v>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195" t="s">
+        <v>36</v>
+      </c>
+      <c r="L195" t="s">
+        <v>36</v>
+      </c>
+      <c r="M195" t="s">
+        <v>36</v>
+      </c>
+      <c r="N195" t="s">
+        <v>36</v>
+      </c>
+      <c r="O195" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>17</v>
-      </c>
-      <c r="B197">
+        <v>95</v>
+      </c>
+      <c r="C196">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>18</v>
-      </c>
-      <c r="B198" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>20</v>
-      </c>
-      <c r="B199" t="s">
-        <v>128</v>
+      <c r="D196" t="str">
+        <f>B191</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E196" t="s">
+        <v>124</v>
+      </c>
+      <c r="F196" t="s">
+        <v>41</v>
+      </c>
+      <c r="G196" t="str">
+        <f>B188</f>
+        <v>Europe without Switzerland</v>
+      </c>
+      <c r="H196" t="s">
+        <v>42</v>
+      </c>
+      <c r="I196" t="str">
+        <f>B192</f>
+        <v>wastewater, average</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196" t="s">
+        <v>36</v>
+      </c>
+      <c r="L196" t="s">
+        <v>36</v>
+      </c>
+      <c r="M196" t="s">
+        <v>36</v>
+      </c>
+      <c r="N196" t="s">
+        <v>36</v>
+      </c>
+      <c r="O196" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B200" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>22</v>
+      </c>
+      <c r="B204" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>9</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B206" t="s">
         <v>25</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C206" t="s">
         <v>17</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D206" t="s">
         <v>20</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E206" t="s">
         <v>26</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F206" t="s">
         <v>27</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G206" t="s">
         <v>15</v>
       </c>
-      <c r="H202" t="s">
+      <c r="H206" t="s">
         <v>18</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I206" t="s">
         <v>22</v>
       </c>
-      <c r="J202" t="s">
+      <c r="J206" t="s">
         <v>28</v>
       </c>
-      <c r="K202" t="s">
+      <c r="K206" t="s">
         <v>29</v>
       </c>
-      <c r="L202" t="s">
+      <c r="L206" t="s">
         <v>30</v>
       </c>
-      <c r="M202" t="s">
+      <c r="M206" t="s">
         <v>31</v>
       </c>
-      <c r="N202" t="s">
+      <c r="N206" t="s">
         <v>32</v>
       </c>
-      <c r="O202" t="s">
+      <c r="O206" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A203" t="str">
-        <f>B195</f>
-        <v>trans_sldg_to_inc</v>
-      </c>
-      <c r="B203" t="str">
-        <f>B194</f>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A207" t="str">
+        <f>B199</f>
+        <v>sldg_sep__inc</v>
+      </c>
+      <c r="B207" t="str">
+        <f>B198</f>
         <v>transport of sludge to incineration</v>
       </c>
-      <c r="C203">
+      <c r="C207">
         <v>1</v>
       </c>
-      <c r="D203" t="str">
-        <f>B199</f>
+      <c r="D207" t="str">
+        <f>B203</f>
         <v>ton kilometer</v>
       </c>
-      <c r="E203" t="str">
+      <c r="E207" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F207" t="s">
         <v>34</v>
       </c>
-      <c r="G203" t="str">
-        <f>B196</f>
+      <c r="G207" t="str">
+        <f>B200</f>
         <v>RER</v>
       </c>
-      <c r="H203" t="s">
+      <c r="H207" t="s">
         <v>35</v>
       </c>
-      <c r="I203" t="str">
-        <f>B200</f>
+      <c r="I207" t="str">
+        <f>B204</f>
         <v>transport, freight, lorry, diesel, unspecified</v>
       </c>
-      <c r="J203">
-        <v>0</v>
-      </c>
-      <c r="K203" t="s">
-        <v>36</v>
-      </c>
-      <c r="L203" t="s">
-        <v>36</v>
-      </c>
-      <c r="M203" t="s">
-        <v>36</v>
-      </c>
-      <c r="N203" t="s">
-        <v>36</v>
-      </c>
-      <c r="O203" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>36</v>
-      </c>
-      <c r="B204" t="s">
-        <v>124</v>
-      </c>
-      <c r="C204">
-        <v>100</v>
-      </c>
-      <c r="D204" t="str">
-        <f>B199</f>
-        <v>ton kilometer</v>
-      </c>
-      <c r="E204" t="s">
-        <v>126</v>
-      </c>
-      <c r="F204" t="s">
-        <v>41</v>
-      </c>
-      <c r="G204" t="str">
-        <f>B196</f>
-        <v>RER</v>
-      </c>
-      <c r="H204" t="s">
-        <v>42</v>
-      </c>
-      <c r="I204" t="s">
-        <v>122</v>
-      </c>
-      <c r="J204">
-        <v>0</v>
-      </c>
-      <c r="K204" t="s">
-        <v>36</v>
-      </c>
-      <c r="L204" t="s">
-        <v>36</v>
-      </c>
-      <c r="M204" t="s">
-        <v>36</v>
-      </c>
-      <c r="N204" t="s">
-        <v>36</v>
-      </c>
-      <c r="O204" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B206" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B207" s="10" t="s">
-        <v>135</v>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207" t="s">
+        <v>36</v>
+      </c>
+      <c r="L207" t="s">
+        <v>36</v>
+      </c>
+      <c r="M207" t="s">
+        <v>36</v>
+      </c>
+      <c r="N207" t="s">
+        <v>36</v>
+      </c>
+      <c r="O207" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>17</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>18</v>
-      </c>
-      <c r="B210" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>20</v>
-      </c>
-      <c r="B211" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="C208">
+        <v>100</v>
+      </c>
+      <c r="D208" t="str">
+        <f>B203</f>
+        <v>ton kilometer</v>
+      </c>
+      <c r="E208" t="s">
+        <v>124</v>
+      </c>
+      <c r="F208" t="s">
+        <v>41</v>
+      </c>
+      <c r="G208" t="str">
+        <f>B200</f>
+        <v>RER</v>
+      </c>
+      <c r="H208" t="s">
+        <v>42</v>
+      </c>
+      <c r="I208" t="s">
+        <v>120</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208" t="s">
+        <v>36</v>
+      </c>
+      <c r="L208" t="s">
+        <v>36</v>
+      </c>
+      <c r="M208" t="s">
+        <v>36</v>
+      </c>
+      <c r="N208" t="s">
+        <v>36</v>
+      </c>
+      <c r="O208" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B212" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>22</v>
+      </c>
+      <c r="B216" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>9</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B218" t="s">
         <v>25</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C218" t="s">
         <v>17</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D218" t="s">
         <v>20</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E218" t="s">
         <v>26</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F218" t="s">
         <v>27</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G218" t="s">
         <v>15</v>
       </c>
-      <c r="H214" t="s">
+      <c r="H218" t="s">
         <v>18</v>
       </c>
-      <c r="I214" t="s">
+      <c r="I218" t="s">
         <v>22</v>
       </c>
-      <c r="J214" t="s">
+      <c r="J218" t="s">
         <v>28</v>
       </c>
-      <c r="K214" t="s">
+      <c r="K218" t="s">
         <v>29</v>
       </c>
-      <c r="L214" t="s">
+      <c r="L218" t="s">
         <v>30</v>
       </c>
-      <c r="M214" t="s">
+      <c r="M218" t="s">
         <v>31</v>
       </c>
-      <c r="N214" t="s">
+      <c r="N218" t="s">
         <v>32</v>
       </c>
-      <c r="O214" t="s">
+      <c r="O218" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A215" t="str">
-        <f>B207</f>
-        <v>trans_fer_to_soi XXXXXX</v>
-      </c>
-      <c r="B215" t="str">
-        <f>B206</f>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A219" t="str">
+        <f>B211</f>
+        <v>fer__soi</v>
+      </c>
+      <c r="B219" t="str">
+        <f>B210</f>
         <v>transport of fertilizer to soil</v>
       </c>
-      <c r="C215">
+      <c r="C219">
         <v>1</v>
       </c>
-      <c r="D215" t="str">
-        <f>B211</f>
+      <c r="D219" t="str">
+        <f>B215</f>
         <v>ton kilometer</v>
       </c>
-      <c r="E215" t="str">
+      <c r="E219" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F219" t="s">
         <v>34</v>
       </c>
-      <c r="G215" t="str">
-        <f>B208</f>
+      <c r="G219" t="str">
+        <f>B212</f>
         <v>RER</v>
       </c>
-      <c r="H215" t="s">
+      <c r="H219" t="s">
         <v>35</v>
       </c>
-      <c r="I215" t="str">
+      <c r="I219" t="str">
+        <f>B216</f>
+        <v>transport, freight, lorry, diesel, unspecified</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219" t="s">
+        <v>36</v>
+      </c>
+      <c r="L219" t="s">
+        <v>36</v>
+      </c>
+      <c r="M219" t="s">
+        <v>36</v>
+      </c>
+      <c r="N219" t="s">
+        <v>36</v>
+      </c>
+      <c r="O219" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>36</v>
+      </c>
+      <c r="B220" t="s">
+        <v>122</v>
+      </c>
+      <c r="C220">
+        <v>20</v>
+      </c>
+      <c r="D220" t="str">
+        <f>B215</f>
+        <v>ton kilometer</v>
+      </c>
+      <c r="E220" t="s">
+        <v>124</v>
+      </c>
+      <c r="F220" t="s">
+        <v>41</v>
+      </c>
+      <c r="G220" t="str">
         <f>B212</f>
-        <v>transport, freight, lorry, diesel, unspecified</v>
-      </c>
-      <c r="J215">
-        <v>0</v>
-      </c>
-      <c r="K215" t="s">
-        <v>36</v>
-      </c>
-      <c r="L215" t="s">
-        <v>36</v>
-      </c>
-      <c r="M215" t="s">
-        <v>36</v>
-      </c>
-      <c r="N215" t="s">
-        <v>36</v>
-      </c>
-      <c r="O215" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>36</v>
-      </c>
-      <c r="B216" t="s">
-        <v>124</v>
-      </c>
-      <c r="C216">
-        <v>20</v>
-      </c>
-      <c r="D216" t="str">
-        <f>B211</f>
-        <v>ton kilometer</v>
-      </c>
-      <c r="E216" t="s">
-        <v>126</v>
-      </c>
-      <c r="F216" t="s">
-        <v>41</v>
-      </c>
-      <c r="G216" t="str">
-        <f>B208</f>
         <v>RER</v>
       </c>
-      <c r="H216" t="s">
+      <c r="H220" t="s">
         <v>42</v>
       </c>
-      <c r="I216" t="s">
-        <v>122</v>
-      </c>
-      <c r="J216">
-        <v>0</v>
-      </c>
-      <c r="K216" t="s">
-        <v>36</v>
-      </c>
-      <c r="L216" t="s">
-        <v>36</v>
-      </c>
-      <c r="M216" t="s">
-        <v>36</v>
-      </c>
-      <c r="N216" t="s">
-        <v>36</v>
-      </c>
-      <c r="O216" t="s">
+      <c r="I220" t="s">
+        <v>120</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220" t="s">
+        <v>36</v>
+      </c>
+      <c r="L220" t="s">
+        <v>36</v>
+      </c>
+      <c r="M220" t="s">
+        <v>36</v>
+      </c>
+      <c r="N220" t="s">
+        <v>36</v>
+      </c>
+      <c r="O220" t="s">
         <v>36</v>
       </c>
     </row>

--- a/LCA/LCI_ Inventories.xlsx
+++ b/LCA/LCI_ Inventories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mamy/PAW/PAW_MFA_LCA_2025/LCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FF092F-67DC-CF43-A2AC-FA9A7D1B270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A3A1B-D0F5-3142-AE64-A891A0F2315D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33400" yWindow="-140" windowWidth="34640" windowHeight="19480" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
+    <workbookView xWindow="30240" yWindow="-1500" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
   </bookViews>
   <sheets>
     <sheet name="Directory" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="141">
   <si>
     <t>Database</t>
   </si>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>treatment of sewage sludge, 70% water, WWT, WW, average, municipal incineration</t>
-  </si>
-  <si>
-    <t>sec_tre</t>
   </si>
   <si>
     <t>secondary treatment</t>
@@ -950,10 +947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9BD897-F590-4437-A121-ED2632AD5485}">
-  <dimension ref="A1:O220"/>
+  <dimension ref="A1:O222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -977,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1181,7 +1178,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19">
         <v>0.23100000000000001</v>
@@ -1190,13 +1187,13 @@
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
@@ -1425,7 +1422,7 @@
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s">
         <v>41</v>
@@ -1472,7 +1469,7 @@
         <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" t="s">
         <v>41</v>
@@ -1707,7 +1704,7 @@
         <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F52" t="s">
         <v>41</v>
@@ -1754,7 +1751,7 @@
         <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F53" t="s">
         <v>41</v>
@@ -1801,7 +1798,7 @@
         <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F54" t="s">
         <v>41</v>
@@ -1848,7 +1845,7 @@
         <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F55" t="s">
         <v>41</v>
@@ -1895,7 +1892,7 @@
         <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F56" t="s">
         <v>41</v>
@@ -1942,7 +1939,7 @@
         <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F57" t="s">
         <v>41</v>
@@ -1989,7 +1986,7 @@
         <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F58" t="s">
         <v>41</v>
@@ -2036,7 +2033,7 @@
         <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
         <v>41</v>
@@ -2083,7 +2080,7 @@
         <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
         <v>41</v>
@@ -2130,7 +2127,7 @@
         <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F61" t="s">
         <v>41</v>
@@ -2177,7 +2174,7 @@
         <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F62" t="s">
         <v>41</v>
@@ -2224,7 +2221,7 @@
         <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
@@ -2271,7 +2268,7 @@
         <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
         <v>41</v>
@@ -2318,7 +2315,7 @@
         <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
         <v>41</v>
@@ -2365,7 +2362,7 @@
         <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
         <v>41</v>
@@ -2412,7 +2409,7 @@
         <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
         <v>41</v>
@@ -2459,7 +2456,7 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F68" t="s">
         <v>41</v>
@@ -2506,7 +2503,7 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
         <v>41</v>
@@ -2741,7 +2738,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F85" t="s">
         <v>99</v>
@@ -2788,7 +2785,7 @@
         <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F86" t="s">
         <v>41</v>
@@ -2835,7 +2832,7 @@
         <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F87" t="s">
         <v>41</v>
@@ -2882,7 +2879,7 @@
         <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F88" t="s">
         <v>41</v>
@@ -2920,235 +2917,191 @@
         <v>8</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92">
-        <v>230</v>
+      <c r="A92" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" t="s">
-        <v>128</v>
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>17</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>18</v>
-      </c>
-      <c r="B95" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>9</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>25</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>17</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>20</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>26</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F100" t="s">
         <v>27</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G100" t="s">
         <v>15</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H100" t="s">
         <v>18</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I100" t="s">
         <v>22</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J100" t="s">
         <v>28</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K100" t="s">
         <v>29</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L100" t="s">
         <v>30</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M100" t="s">
         <v>31</v>
       </c>
-      <c r="N99" t="s">
+      <c r="N100" t="s">
         <v>32</v>
       </c>
-      <c r="O99" t="s">
+      <c r="O100" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" t="str">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" t="str">
         <f>B91</f>
-        <v>sec_tre</v>
-      </c>
-      <c r="B100" t="str">
+        <v>sec_tre__qua_tre</v>
+      </c>
+      <c r="B101" t="str">
         <f>B90</f>
         <v>Activated Carbon Technology</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>1</v>
       </c>
-      <c r="D100" t="str">
-        <f>B96</f>
+      <c r="D101" t="str">
+        <f>B97</f>
         <v>cubic meter</v>
       </c>
-      <c r="E100" t="str">
+      <c r="E101" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F101" t="s">
         <v>34</v>
       </c>
-      <c r="G100" t="str">
-        <f>B93</f>
+      <c r="G101" t="str">
+        <f>B94</f>
         <v>DE</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H101" t="s">
         <v>35</v>
       </c>
-      <c r="I100" t="str">
-        <f>B97</f>
+      <c r="I101" t="str">
+        <f>B98</f>
         <v>wastewater, average</v>
       </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100" t="s">
-        <v>36</v>
-      </c>
-      <c r="L100" t="s">
-        <v>36</v>
-      </c>
-      <c r="M100" t="s">
-        <v>36</v>
-      </c>
-      <c r="N100" t="s">
-        <v>36</v>
-      </c>
-      <c r="O100" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>36</v>
-      </c>
-      <c r="B101" t="str">
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>36</v>
+      </c>
+      <c r="L101" t="s">
+        <v>36</v>
+      </c>
+      <c r="M101" t="s">
+        <v>36</v>
+      </c>
+      <c r="N101" t="s">
+        <v>36</v>
+      </c>
+      <c r="O101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" t="str">
         <f>B71</f>
         <v>Emissions 230</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101" t="str">
-        <f>B80</f>
-        <v>cubic meter</v>
-      </c>
-      <c r="E101" t="str">
-        <f>E100</f>
-        <v>paw_db</v>
-      </c>
-      <c r="F101" t="s">
-        <v>41</v>
-      </c>
-      <c r="G101" t="str">
-        <f>B77</f>
-        <v>RER</v>
-      </c>
-      <c r="H101" t="s">
-        <v>42</v>
-      </c>
-      <c r="I101" t="str">
-        <f>B81</f>
-        <v>direct emissions per m3</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101" t="s">
-        <v>36</v>
-      </c>
-      <c r="L101" t="s">
-        <v>36</v>
-      </c>
-      <c r="M101" t="s">
-        <v>36</v>
-      </c>
-      <c r="N101" t="s">
-        <v>36</v>
-      </c>
-      <c r="O101" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>36</v>
-      </c>
-      <c r="B102" t="str">
-        <f>B38</f>
-        <v>Chemicals 230</v>
-      </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="str">
-        <f>B47</f>
+        <f>B80</f>
         <v>cubic meter</v>
       </c>
       <c r="E102" t="str">
@@ -3156,21 +3109,21 @@
         <v>paw_db</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G102" t="str">
-        <f>B44</f>
+        <f>B77</f>
         <v>RER</v>
       </c>
       <c r="H102" t="s">
         <v>42</v>
       </c>
       <c r="I102" t="str">
-        <f>B48</f>
-        <v>chemicals per m3</v>
+        <f>B81</f>
+        <v>direct emissions per m3</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="s">
         <v>36</v>
@@ -3193,14 +3146,14 @@
         <v>36</v>
       </c>
       <c r="B103" t="str">
-        <f>B21</f>
-        <v>GAC 230</v>
+        <f>B38</f>
+        <v>Chemicals 230</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="str">
-        <f>B30</f>
+        <f>B47</f>
         <v>cubic meter</v>
       </c>
       <c r="E103" t="str">
@@ -3211,18 +3164,18 @@
         <v>34</v>
       </c>
       <c r="G103" t="str">
-        <f>B27</f>
+        <f>B44</f>
         <v>RER</v>
       </c>
       <c r="H103" t="s">
         <v>42</v>
       </c>
       <c r="I103" t="str">
-        <f>B31</f>
-        <v>GAC per m3</v>
+        <f>B48</f>
+        <v>chemicals per m3</v>
       </c>
       <c r="J103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K103" t="s">
         <v>36</v>
@@ -3245,14 +3198,14 @@
         <v>36</v>
       </c>
       <c r="B104" t="str">
-        <f>B5</f>
-        <v>Electricity 230</v>
+        <f>B21</f>
+        <v>GAC 230</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="str">
-        <f>B14</f>
+        <f>B30</f>
         <v>cubic meter</v>
       </c>
       <c r="E104" t="str">
@@ -3263,474 +3216,479 @@
         <v>34</v>
       </c>
       <c r="G104" t="str">
+        <f>B27</f>
+        <v>RER</v>
+      </c>
+      <c r="H104" t="s">
+        <v>42</v>
+      </c>
+      <c r="I104" t="str">
+        <f>B31</f>
+        <v>GAC per m3</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104" t="s">
+        <v>36</v>
+      </c>
+      <c r="L104" t="s">
+        <v>36</v>
+      </c>
+      <c r="M104" t="s">
+        <v>36</v>
+      </c>
+      <c r="N104" t="s">
+        <v>36</v>
+      </c>
+      <c r="O104" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" t="str">
+        <f>B5</f>
+        <v>Electricity 230</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="str">
+        <f>B14</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E105" t="str">
+        <f>E104</f>
+        <v>paw_db</v>
+      </c>
+      <c r="F105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" t="str">
         <f>B11</f>
         <v>RER</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H105" t="s">
         <v>42</v>
       </c>
-      <c r="I104" t="str">
+      <c r="I105" t="str">
         <f>B15</f>
         <v>electricity per m3</v>
       </c>
-      <c r="J104">
+      <c r="J105">
         <v>3</v>
       </c>
-      <c r="K104" t="s">
-        <v>36</v>
-      </c>
-      <c r="L104" t="s">
-        <v>36</v>
-      </c>
-      <c r="M104" t="s">
-        <v>36</v>
-      </c>
-      <c r="N104" t="s">
-        <v>36</v>
-      </c>
-      <c r="O104" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+      <c r="K105" t="s">
+        <v>36</v>
+      </c>
+      <c r="L105" t="s">
+        <v>36</v>
+      </c>
+      <c r="M105" t="s">
+        <v>36</v>
+      </c>
+      <c r="N105" t="s">
+        <v>36</v>
+      </c>
+      <c r="O105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B110">
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>18</v>
-      </c>
-      <c r="B114" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" t="s">
-        <v>25</v>
-      </c>
-      <c r="C118" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" t="s">
-        <v>26</v>
-      </c>
-      <c r="F118" t="s">
-        <v>27</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
-      <c r="H118" t="s">
-        <v>18</v>
-      </c>
-      <c r="I118" t="s">
-        <v>22</v>
-      </c>
-      <c r="J118" t="s">
-        <v>28</v>
-      </c>
-      <c r="K118" t="s">
-        <v>29</v>
-      </c>
-      <c r="L118" t="s">
-        <v>30</v>
-      </c>
-      <c r="M118" t="s">
-        <v>31</v>
-      </c>
-      <c r="N118" t="s">
-        <v>32</v>
-      </c>
-      <c r="O118" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" t="s">
+        <v>28</v>
+      </c>
+      <c r="K119" t="s">
+        <v>29</v>
+      </c>
+      <c r="L119" t="s">
+        <v>30</v>
+      </c>
+      <c r="M119" t="s">
+        <v>31</v>
+      </c>
+      <c r="N119" t="s">
+        <v>32</v>
+      </c>
+      <c r="O119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>105</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>104</v>
       </c>
-      <c r="C119">
+      <c r="C120">
         <v>1</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>21</v>
       </c>
-      <c r="E119" t="str">
+      <c r="E120" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F119" t="s">
-        <v>34</v>
-      </c>
-      <c r="G119" t="s">
-        <v>16</v>
-      </c>
-      <c r="H119" t="s">
-        <v>35</v>
-      </c>
-      <c r="I119" t="s">
-        <v>23</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119" t="s">
-        <v>36</v>
-      </c>
-      <c r="L119" t="s">
-        <v>36</v>
-      </c>
-      <c r="M119" t="s">
-        <v>36</v>
-      </c>
-      <c r="N119" t="s">
-        <v>36</v>
-      </c>
-      <c r="O119" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>36</v>
-      </c>
-      <c r="B120" t="s">
-        <v>132</v>
-      </c>
-      <c r="C120">
-        <v>0.17</v>
-      </c>
-      <c r="D120" t="s">
-        <v>40</v>
-      </c>
-      <c r="E120" t="s">
-        <v>124</v>
-      </c>
       <c r="F120" t="s">
         <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="H120" t="s">
+        <v>35</v>
+      </c>
+      <c r="I120" t="s">
+        <v>23</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>36</v>
+      </c>
+      <c r="L120" t="s">
+        <v>36</v>
+      </c>
+      <c r="M120" t="s">
+        <v>36</v>
+      </c>
+      <c r="N120" t="s">
+        <v>36</v>
+      </c>
+      <c r="O120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121">
+        <v>0.17</v>
+      </c>
+      <c r="D121" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121" t="s">
+        <v>123</v>
+      </c>
+      <c r="F121" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" t="s">
+        <v>127</v>
+      </c>
+      <c r="H121" t="s">
         <v>42</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I121" t="s">
         <v>43</v>
       </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120" t="s">
-        <v>36</v>
-      </c>
-      <c r="L120" t="s">
-        <v>36</v>
-      </c>
-      <c r="M120" t="s">
-        <v>36</v>
-      </c>
-      <c r="N120" t="s">
-        <v>36</v>
-      </c>
-      <c r="O120" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>36</v>
+      </c>
+      <c r="L121" t="s">
+        <v>36</v>
+      </c>
+      <c r="M121" t="s">
+        <v>36</v>
+      </c>
+      <c r="N121" t="s">
+        <v>36</v>
+      </c>
+      <c r="O121" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B123" s="4" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>11</v>
-      </c>
-      <c r="B125">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="B125" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>12</v>
-      </c>
-      <c r="B126" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B126">
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>17</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>18</v>
-      </c>
-      <c r="B130" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B131" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B133" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>9</v>
-      </c>
-      <c r="B134" t="s">
-        <v>25</v>
-      </c>
-      <c r="C134" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" t="s">
-        <v>20</v>
-      </c>
-      <c r="E134" t="s">
-        <v>26</v>
-      </c>
-      <c r="F134" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" t="s">
-        <v>15</v>
-      </c>
-      <c r="H134" t="s">
-        <v>18</v>
-      </c>
-      <c r="I134" t="s">
-        <v>22</v>
-      </c>
-      <c r="J134" t="s">
-        <v>28</v>
-      </c>
-      <c r="K134" t="s">
-        <v>29</v>
-      </c>
-      <c r="L134" t="s">
-        <v>30</v>
-      </c>
-      <c r="M134" t="s">
-        <v>31</v>
-      </c>
-      <c r="N134" t="s">
-        <v>32</v>
-      </c>
-      <c r="O134" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" t="s">
+        <v>26</v>
+      </c>
+      <c r="F135" t="s">
+        <v>27</v>
+      </c>
+      <c r="G135" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" t="s">
+        <v>22</v>
+      </c>
+      <c r="J135" t="s">
+        <v>28</v>
+      </c>
+      <c r="K135" t="s">
+        <v>29</v>
+      </c>
+      <c r="L135" t="s">
+        <v>30</v>
+      </c>
+      <c r="M135" t="s">
+        <v>31</v>
+      </c>
+      <c r="N135" t="s">
+        <v>32</v>
+      </c>
+      <c r="O135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>108</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>107</v>
       </c>
-      <c r="C135">
+      <c r="C136">
         <v>1</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D136" t="s">
         <v>21</v>
       </c>
-      <c r="E135" t="str">
+      <c r="E136" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F135" t="s">
-        <v>34</v>
-      </c>
-      <c r="G135" t="s">
-        <v>16</v>
-      </c>
-      <c r="H135" t="s">
-        <v>35</v>
-      </c>
-      <c r="I135" t="s">
-        <v>54</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135" t="s">
-        <v>36</v>
-      </c>
-      <c r="L135" t="s">
-        <v>36</v>
-      </c>
-      <c r="M135" t="s">
-        <v>36</v>
-      </c>
-      <c r="N135" t="s">
-        <v>36</v>
-      </c>
-      <c r="O135" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>36</v>
-      </c>
-      <c r="B136" t="s">
-        <v>69</v>
-      </c>
-      <c r="C136">
-        <v>0.114</v>
-      </c>
-      <c r="D136" t="s">
-        <v>48</v>
-      </c>
-      <c r="E136" t="s">
-        <v>124</v>
-      </c>
       <c r="F136" t="s">
         <v>34</v>
       </c>
@@ -3738,269 +3696,267 @@
         <v>16</v>
       </c>
       <c r="H136" t="s">
+        <v>35</v>
+      </c>
+      <c r="I136" t="s">
+        <v>54</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136" t="s">
+        <v>36</v>
+      </c>
+      <c r="L136" t="s">
+        <v>36</v>
+      </c>
+      <c r="M136" t="s">
+        <v>36</v>
+      </c>
+      <c r="N136" t="s">
+        <v>36</v>
+      </c>
+      <c r="O136" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>36</v>
+      </c>
+      <c r="B137" t="s">
+        <v>69</v>
+      </c>
+      <c r="C137">
+        <v>0.114</v>
+      </c>
+      <c r="D137" t="s">
+        <v>48</v>
+      </c>
+      <c r="E137" t="s">
+        <v>123</v>
+      </c>
+      <c r="F137" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" t="s">
         <v>42</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I137" t="s">
         <v>70</v>
       </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136" t="s">
-        <v>36</v>
-      </c>
-      <c r="L136" t="s">
-        <v>36</v>
-      </c>
-      <c r="M136" t="s">
-        <v>36</v>
-      </c>
-      <c r="N136" t="s">
-        <v>36</v>
-      </c>
-      <c r="O136" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>130</v>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137" t="s">
+        <v>36</v>
+      </c>
+      <c r="L137" t="s">
+        <v>36</v>
+      </c>
+      <c r="M137" t="s">
+        <v>36</v>
+      </c>
+      <c r="N137" t="s">
+        <v>36</v>
+      </c>
+      <c r="O137" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>15</v>
-      </c>
-      <c r="B141" t="s">
-        <v>101</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>11</v>
-      </c>
-      <c r="B142">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="B142" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>18</v>
-      </c>
-      <c r="B144" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B147" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>9</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>25</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>17</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D149" t="s">
         <v>20</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E149" t="s">
         <v>26</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F149" t="s">
         <v>27</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G149" t="s">
         <v>15</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H149" t="s">
         <v>18</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I149" t="s">
         <v>22</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J149" t="s">
         <v>28</v>
       </c>
-      <c r="K148" t="s">
+      <c r="K149" t="s">
         <v>29</v>
       </c>
-      <c r="L148" t="s">
+      <c r="L149" t="s">
         <v>30</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M149" t="s">
         <v>31</v>
       </c>
-      <c r="N148" t="s">
+      <c r="N149" t="s">
         <v>32</v>
       </c>
-      <c r="O148" t="s">
+      <c r="O149" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A149" t="str">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" t="str">
+        <f>B140</f>
+        <v>sec_tre__qua_tre</v>
+      </c>
+      <c r="B150" t="str">
         <f>B139</f>
-        <v>ind_ww__dec_tre</v>
-      </c>
-      <c r="B149" t="str">
-        <f>B138</f>
         <v>Ozonation</v>
       </c>
-      <c r="C149">
+      <c r="C150">
         <v>1</v>
       </c>
-      <c r="D149" t="str">
-        <f>B145</f>
+      <c r="D150" t="str">
+        <f>B146</f>
         <v>cubic meter</v>
       </c>
-      <c r="E149" t="str">
+      <c r="E150" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F150" t="s">
         <v>34</v>
       </c>
-      <c r="G149" t="str">
-        <f>B141</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="H149" t="s">
+      <c r="G150" t="str">
+        <f>B142</f>
+        <v>DE</v>
+      </c>
+      <c r="H150" t="s">
         <v>35</v>
       </c>
-      <c r="I149" t="str">
-        <f>B146</f>
+      <c r="I150" t="str">
+        <f>B147</f>
         <v>treated wastewater</v>
       </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149" t="s">
-        <v>36</v>
-      </c>
-      <c r="L149" t="s">
-        <v>36</v>
-      </c>
-      <c r="M149" t="s">
-        <v>36</v>
-      </c>
-      <c r="N149" t="s">
-        <v>36</v>
-      </c>
-      <c r="O149" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>36</v>
-      </c>
-      <c r="B150" t="str">
-        <f>B122</f>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150" t="s">
+        <v>36</v>
+      </c>
+      <c r="L150" t="s">
+        <v>36</v>
+      </c>
+      <c r="M150" t="s">
+        <v>36</v>
+      </c>
+      <c r="N150" t="s">
+        <v>36</v>
+      </c>
+      <c r="O150" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>36</v>
+      </c>
+      <c r="B151" t="str">
+        <f>B123</f>
         <v>Chemicals 102</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150" t="str">
-        <f>B145</f>
-        <v>cubic meter</v>
-      </c>
-      <c r="E150" t="str">
-        <f>E149</f>
-        <v>paw_db</v>
-      </c>
-      <c r="F150" t="s">
-        <v>41</v>
-      </c>
-      <c r="G150" t="str">
-        <f>B128</f>
-        <v>RER</v>
-      </c>
-      <c r="H150" t="s">
-        <v>42</v>
-      </c>
-      <c r="I150" t="str">
-        <f>B131</f>
-        <v>cubic meter</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150" t="s">
-        <v>36</v>
-      </c>
-      <c r="L150" t="s">
-        <v>36</v>
-      </c>
-      <c r="M150" t="s">
-        <v>36</v>
-      </c>
-      <c r="N150" t="s">
-        <v>36</v>
-      </c>
-      <c r="O150" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B151" t="str">
-        <f>B106</f>
-        <v>Electricity 102</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151" t="str">
-        <f>B115</f>
+        <f>B146</f>
         <v>cubic meter</v>
       </c>
       <c r="E151" t="str">
@@ -4008,252 +3964,254 @@
         <v>paw_db</v>
       </c>
       <c r="F151" t="s">
+        <v>41</v>
+      </c>
+      <c r="G151" t="str">
+        <f>B129</f>
+        <v>RER</v>
+      </c>
+      <c r="H151" t="s">
+        <v>42</v>
+      </c>
+      <c r="I151" t="str">
+        <f>B132</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151" t="s">
+        <v>36</v>
+      </c>
+      <c r="L151" t="s">
+        <v>36</v>
+      </c>
+      <c r="M151" t="s">
+        <v>36</v>
+      </c>
+      <c r="N151" t="s">
+        <v>36</v>
+      </c>
+      <c r="O151" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B152" t="str">
+        <f>B107</f>
+        <v>Electricity 102</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="str">
+        <f>B116</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E152" t="str">
+        <f>E151</f>
+        <v>paw_db</v>
+      </c>
+      <c r="F152" t="s">
         <v>34</v>
       </c>
-      <c r="G151" t="str">
-        <f>B115</f>
+      <c r="G152" t="str">
+        <f>B116</f>
         <v>cubic meter</v>
       </c>
-      <c r="H151" t="str">
-        <f>H150</f>
+      <c r="H152" t="str">
+        <f>H151</f>
         <v>technosphere</v>
       </c>
-      <c r="I151" t="str">
-        <f>B115</f>
+      <c r="I152" t="str">
+        <f>B116</f>
         <v>cubic meter</v>
       </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151" t="s">
-        <v>36</v>
-      </c>
-      <c r="L151" t="s">
-        <v>36</v>
-      </c>
-      <c r="M151" t="s">
-        <v>36</v>
-      </c>
-      <c r="N151" t="s">
-        <v>36</v>
-      </c>
-      <c r="O151" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152" t="s">
+        <v>36</v>
+      </c>
+      <c r="L152" t="s">
+        <v>36</v>
+      </c>
+      <c r="M152" t="s">
+        <v>36</v>
+      </c>
+      <c r="N152" t="s">
+        <v>36</v>
+      </c>
+      <c r="O152" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="154" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>10</v>
-      </c>
-      <c r="B156" t="s">
-        <v>111</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>11</v>
-      </c>
-      <c r="B157" s="9">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>12</v>
-      </c>
-      <c r="B158" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B158" s="9">
+        <v>128</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>17</v>
-      </c>
-      <c r="B161">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B161" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>18</v>
-      </c>
-      <c r="B162" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B163" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B165" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>9</v>
-      </c>
-      <c r="B166" t="s">
-        <v>25</v>
-      </c>
-      <c r="C166" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" t="s">
-        <v>20</v>
-      </c>
-      <c r="E166" t="s">
-        <v>26</v>
-      </c>
-      <c r="F166" t="s">
-        <v>27</v>
-      </c>
-      <c r="G166" t="s">
-        <v>15</v>
-      </c>
-      <c r="H166" t="s">
-        <v>18</v>
-      </c>
-      <c r="I166" t="s">
-        <v>22</v>
-      </c>
-      <c r="J166" t="s">
-        <v>28</v>
-      </c>
-      <c r="K166" t="s">
-        <v>29</v>
-      </c>
-      <c r="L166" t="s">
-        <v>30</v>
-      </c>
-      <c r="M166" t="s">
-        <v>31</v>
-      </c>
-      <c r="N166" t="s">
-        <v>32</v>
-      </c>
-      <c r="O166" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" t="s">
+        <v>26</v>
+      </c>
+      <c r="F167" t="s">
+        <v>27</v>
+      </c>
+      <c r="G167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" t="s">
+        <v>22</v>
+      </c>
+      <c r="J167" t="s">
+        <v>28</v>
+      </c>
+      <c r="K167" t="s">
+        <v>29</v>
+      </c>
+      <c r="L167" t="s">
+        <v>30</v>
+      </c>
+      <c r="M167" t="s">
+        <v>31</v>
+      </c>
+      <c r="N167" t="s">
+        <v>32</v>
+      </c>
+      <c r="O167" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>110</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>109</v>
       </c>
-      <c r="C167">
+      <c r="C168">
         <v>1</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D168" t="s">
         <v>21</v>
       </c>
-      <c r="E167" t="str">
+      <c r="E168" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F167" t="s">
-        <v>34</v>
-      </c>
-      <c r="G167" t="s">
-        <v>16</v>
-      </c>
-      <c r="H167" t="s">
-        <v>35</v>
-      </c>
-      <c r="I167" t="s">
-        <v>54</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-      <c r="K167" t="s">
-        <v>36</v>
-      </c>
-      <c r="L167" t="s">
-        <v>36</v>
-      </c>
-      <c r="M167" t="s">
-        <v>36</v>
-      </c>
-      <c r="N167" t="s">
-        <v>36</v>
-      </c>
-      <c r="O167" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>36</v>
-      </c>
-      <c r="B168" t="s">
-        <v>61</v>
-      </c>
-      <c r="C168">
-        <v>0.02</v>
-      </c>
-      <c r="D168" t="s">
-        <v>48</v>
-      </c>
-      <c r="E168" t="s">
-        <v>124</v>
-      </c>
       <c r="F168" t="s">
         <v>34</v>
       </c>
@@ -4261,10 +4219,10 @@
         <v>16</v>
       </c>
       <c r="H168" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I168" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -4290,16 +4248,16 @@
         <v>36</v>
       </c>
       <c r="B169" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D169" t="s">
         <v>48</v>
       </c>
       <c r="E169" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F169" t="s">
         <v>34</v>
@@ -4311,7 +4269,7 @@
         <v>42</v>
       </c>
       <c r="I169" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -4337,16 +4295,16 @@
         <v>36</v>
       </c>
       <c r="B170" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C170">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D170" t="s">
         <v>48</v>
       </c>
       <c r="E170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F170" t="s">
         <v>34</v>
@@ -4358,882 +4316,937 @@
         <v>42</v>
       </c>
       <c r="I170" t="s">
+        <v>60</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170" t="s">
+        <v>36</v>
+      </c>
+      <c r="L170" t="s">
+        <v>36</v>
+      </c>
+      <c r="M170" t="s">
+        <v>36</v>
+      </c>
+      <c r="N170" t="s">
+        <v>36</v>
+      </c>
+      <c r="O170" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>36</v>
+      </c>
+      <c r="B171" t="s">
+        <v>112</v>
+      </c>
+      <c r="C171">
+        <v>0.02</v>
+      </c>
+      <c r="D171" t="s">
+        <v>48</v>
+      </c>
+      <c r="E171" t="s">
+        <v>123</v>
+      </c>
+      <c r="F171" t="s">
+        <v>34</v>
+      </c>
+      <c r="G171" t="s">
+        <v>16</v>
+      </c>
+      <c r="H171" t="s">
+        <v>42</v>
+      </c>
+      <c r="I171" t="s">
         <v>113</v>
       </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170" t="s">
-        <v>36</v>
-      </c>
-      <c r="L170" t="s">
-        <v>36</v>
-      </c>
-      <c r="M170" t="s">
-        <v>36</v>
-      </c>
-      <c r="N170" t="s">
-        <v>36</v>
-      </c>
-      <c r="O170" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>114</v>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171" t="s">
+        <v>36</v>
+      </c>
+      <c r="L171" t="s">
+        <v>36</v>
+      </c>
+      <c r="M171" t="s">
+        <v>36</v>
+      </c>
+      <c r="N171" t="s">
+        <v>36</v>
+      </c>
+      <c r="O171" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="174" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>15</v>
-      </c>
-      <c r="B175" t="s">
-        <v>101</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>17</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B176" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>18</v>
-      </c>
-      <c r="B177" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B178" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B179" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B180" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>9</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>25</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C182" t="s">
         <v>17</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>20</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E182" t="s">
         <v>26</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F182" t="s">
         <v>27</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G182" t="s">
         <v>15</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H182" t="s">
         <v>18</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I182" t="s">
         <v>22</v>
       </c>
-      <c r="J181" t="s">
+      <c r="J182" t="s">
         <v>28</v>
       </c>
-      <c r="K181" t="s">
+      <c r="K182" t="s">
         <v>29</v>
       </c>
-      <c r="L181" t="s">
+      <c r="L182" t="s">
         <v>30</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M182" t="s">
         <v>31</v>
       </c>
-      <c r="N181" t="s">
+      <c r="N182" t="s">
         <v>32</v>
       </c>
-      <c r="O181" t="s">
+      <c r="O182" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A182" t="str">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A183" t="str">
+        <f>B174</f>
+        <v>qua_tre__inc</v>
+      </c>
+      <c r="B183" t="str">
         <f>B173</f>
-        <v>qua_tre__inc</v>
-      </c>
-      <c r="B182" t="str">
-        <f>B172</f>
         <v xml:space="preserve">sludge incineration </v>
       </c>
-      <c r="C182">
+      <c r="C183">
         <v>1</v>
       </c>
-      <c r="D182" t="str">
-        <f>B178</f>
+      <c r="D183" t="str">
+        <f>B179</f>
         <v>kilogram</v>
       </c>
-      <c r="E182" t="str">
+      <c r="E183" t="str">
         <f>B2</f>
         <v>paw_db</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F183" t="s">
         <v>34</v>
       </c>
-      <c r="G182" t="str">
-        <f>B175</f>
+      <c r="G183" t="str">
+        <f>B176</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H183" t="s">
         <v>35</v>
       </c>
-      <c r="I182" t="str">
-        <f>B179</f>
+      <c r="I183" t="str">
+        <f>B180</f>
         <v>sewage sludge, 70% water, WWT, WW, average</v>
       </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-      <c r="K182" t="s">
-        <v>36</v>
-      </c>
-      <c r="L182" t="s">
-        <v>36</v>
-      </c>
-      <c r="M182" t="s">
-        <v>36</v>
-      </c>
-      <c r="N182" t="s">
-        <v>36</v>
-      </c>
-      <c r="O182" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>36</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183" t="s">
+        <v>36</v>
+      </c>
+      <c r="L183" t="s">
+        <v>36</v>
+      </c>
+      <c r="M183" t="s">
+        <v>36</v>
+      </c>
+      <c r="N183" t="s">
+        <v>36</v>
+      </c>
+      <c r="O183" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>36</v>
+      </c>
+      <c r="B184" t="s">
         <v>116</v>
       </c>
-      <c r="C183">
+      <c r="C184">
         <v>1</v>
       </c>
-      <c r="D183" t="str">
-        <f>D182</f>
+      <c r="D184" t="str">
+        <f>D183</f>
         <v>kilogram</v>
       </c>
-      <c r="E183" t="s">
-        <v>124</v>
-      </c>
-      <c r="F183" t="s">
+      <c r="E184" t="s">
+        <v>123</v>
+      </c>
+      <c r="F184" t="s">
         <v>41</v>
       </c>
-      <c r="G183" t="str">
-        <f>B175</f>
+      <c r="G184" t="str">
+        <f>B176</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H183" t="s">
+      <c r="H184" t="s">
         <v>42</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I184" t="s">
         <v>115</v>
       </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="K183" t="s">
-        <v>36</v>
-      </c>
-      <c r="L183" t="s">
-        <v>36</v>
-      </c>
-      <c r="M183" t="s">
-        <v>36</v>
-      </c>
-      <c r="N183" t="s">
-        <v>36</v>
-      </c>
-      <c r="O183" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184" t="s">
+        <v>36</v>
+      </c>
+      <c r="L184" t="s">
+        <v>36</v>
+      </c>
+      <c r="M184" t="s">
+        <v>36</v>
+      </c>
+      <c r="N184" t="s">
+        <v>36</v>
+      </c>
+      <c r="O184" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="186" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="187" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B187" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B187" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188" t="s">
-        <v>101</v>
+    </row>
+    <row r="188" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>17</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B189" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>18</v>
-      </c>
-      <c r="B190" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B191" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B193" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>9</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>25</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
         <v>17</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>20</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E195" t="s">
         <v>26</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F195" t="s">
         <v>27</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G195" t="s">
         <v>15</v>
       </c>
-      <c r="H194" t="s">
+      <c r="H195" t="s">
         <v>18</v>
       </c>
-      <c r="I194" t="s">
+      <c r="I195" t="s">
         <v>22</v>
       </c>
-      <c r="J194" t="s">
+      <c r="J195" t="s">
         <v>28</v>
       </c>
-      <c r="K194" t="s">
+      <c r="K195" t="s">
         <v>29</v>
       </c>
-      <c r="L194" t="s">
+      <c r="L195" t="s">
         <v>30</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M195" t="s">
         <v>31</v>
       </c>
-      <c r="N194" t="s">
+      <c r="N195" t="s">
         <v>32</v>
       </c>
-      <c r="O194" t="s">
+      <c r="O195" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A195" t="str">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A196" t="str">
+        <f>B187</f>
+        <v>dec_tre__sec_tre</v>
+      </c>
+      <c r="B196" t="str">
         <f>B186</f>
-        <v>dec_tre__sec_tre</v>
-      </c>
-      <c r="B195" t="str">
-        <f>B185</f>
         <v>secondary treatment</v>
       </c>
-      <c r="C195">
+      <c r="C196">
         <v>1</v>
       </c>
-      <c r="D195" t="str">
-        <f>B191</f>
+      <c r="D196" t="str">
+        <f>B192</f>
         <v>cubic meter</v>
       </c>
-      <c r="E195" t="str">
+      <c r="E196" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F196" t="s">
         <v>34</v>
       </c>
-      <c r="G195" t="str">
-        <f>B188</f>
+      <c r="G196" t="str">
+        <f>B189</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H196" t="s">
         <v>35</v>
       </c>
-      <c r="I195" t="str">
+      <c r="I196" t="str">
+        <f>B193</f>
+        <v>wastewater, average</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196" t="s">
+        <v>36</v>
+      </c>
+      <c r="L196" t="s">
+        <v>36</v>
+      </c>
+      <c r="M196" t="s">
+        <v>36</v>
+      </c>
+      <c r="N196" t="s">
+        <v>36</v>
+      </c>
+      <c r="O196" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>36</v>
+      </c>
+      <c r="B197" t="s">
+        <v>95</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="str">
         <f>B192</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E197" t="s">
+        <v>123</v>
+      </c>
+      <c r="F197" t="s">
+        <v>41</v>
+      </c>
+      <c r="G197" t="str">
+        <f>B189</f>
+        <v>Europe without Switzerland</v>
+      </c>
+      <c r="H197" t="s">
+        <v>42</v>
+      </c>
+      <c r="I197" t="str">
+        <f>B193</f>
         <v>wastewater, average</v>
       </c>
-      <c r="J195">
-        <v>0</v>
-      </c>
-      <c r="K195" t="s">
-        <v>36</v>
-      </c>
-      <c r="L195" t="s">
-        <v>36</v>
-      </c>
-      <c r="M195" t="s">
-        <v>36</v>
-      </c>
-      <c r="N195" t="s">
-        <v>36</v>
-      </c>
-      <c r="O195" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>36</v>
-      </c>
-      <c r="B196" t="s">
-        <v>95</v>
-      </c>
-      <c r="C196">
-        <v>1</v>
-      </c>
-      <c r="D196" t="str">
-        <f>B191</f>
-        <v>cubic meter</v>
-      </c>
-      <c r="E196" t="s">
-        <v>124</v>
-      </c>
-      <c r="F196" t="s">
-        <v>41</v>
-      </c>
-      <c r="G196" t="str">
-        <f>B188</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="H196" t="s">
-        <v>42</v>
-      </c>
-      <c r="I196" t="str">
-        <f>B192</f>
-        <v>wastewater, average</v>
-      </c>
-      <c r="J196">
-        <v>0</v>
-      </c>
-      <c r="K196" t="s">
-        <v>36</v>
-      </c>
-      <c r="L196" t="s">
-        <v>36</v>
-      </c>
-      <c r="M196" t="s">
-        <v>36</v>
-      </c>
-      <c r="N196" t="s">
-        <v>36</v>
-      </c>
-      <c r="O196" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B198" s="10" t="s">
-        <v>119</v>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197" t="s">
+        <v>36</v>
+      </c>
+      <c r="L197" t="s">
+        <v>36</v>
+      </c>
+      <c r="M197" t="s">
+        <v>36</v>
+      </c>
+      <c r="N197" t="s">
+        <v>36</v>
+      </c>
+      <c r="O197" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B199" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>15</v>
-      </c>
-      <c r="B200" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>17</v>
-      </c>
-      <c r="B201">
-        <v>1</v>
+      <c r="B200" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B202" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>20</v>
-      </c>
-      <c r="B203" t="s">
-        <v>126</v>
+        <v>17</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B204" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B205" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>22</v>
+      </c>
+      <c r="B206" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>9</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B208" t="s">
         <v>25</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C208" t="s">
         <v>17</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D208" t="s">
         <v>20</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E208" t="s">
         <v>26</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F208" t="s">
         <v>27</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G208" t="s">
         <v>15</v>
       </c>
-      <c r="H206" t="s">
+      <c r="H208" t="s">
         <v>18</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I208" t="s">
         <v>22</v>
       </c>
-      <c r="J206" t="s">
+      <c r="J208" t="s">
         <v>28</v>
       </c>
-      <c r="K206" t="s">
+      <c r="K208" t="s">
         <v>29</v>
       </c>
-      <c r="L206" t="s">
+      <c r="L208" t="s">
         <v>30</v>
       </c>
-      <c r="M206" t="s">
+      <c r="M208" t="s">
         <v>31</v>
       </c>
-      <c r="N206" t="s">
+      <c r="N208" t="s">
         <v>32</v>
       </c>
-      <c r="O206" t="s">
+      <c r="O208" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A207" t="str">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A209" t="str">
+        <f>B200</f>
+        <v>sldg_sep__inc</v>
+      </c>
+      <c r="B209" t="str">
         <f>B199</f>
-        <v>sldg_sep__inc</v>
-      </c>
-      <c r="B207" t="str">
-        <f>B198</f>
         <v>transport of sludge to incineration</v>
       </c>
-      <c r="C207">
+      <c r="C209">
         <v>1</v>
       </c>
-      <c r="D207" t="str">
-        <f>B203</f>
+      <c r="D209" t="str">
+        <f>B205</f>
         <v>ton kilometer</v>
       </c>
-      <c r="E207" t="str">
+      <c r="E209" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F209" t="s">
         <v>34</v>
       </c>
-      <c r="G207" t="str">
-        <f>B200</f>
+      <c r="G209" t="str">
+        <f>B202</f>
         <v>RER</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H209" t="s">
         <v>35</v>
       </c>
-      <c r="I207" t="str">
-        <f>B204</f>
+      <c r="I209" t="str">
+        <f>B206</f>
         <v>transport, freight, lorry, diesel, unspecified</v>
       </c>
-      <c r="J207">
-        <v>0</v>
-      </c>
-      <c r="K207" t="s">
-        <v>36</v>
-      </c>
-      <c r="L207" t="s">
-        <v>36</v>
-      </c>
-      <c r="M207" t="s">
-        <v>36</v>
-      </c>
-      <c r="N207" t="s">
-        <v>36</v>
-      </c>
-      <c r="O207" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>36</v>
-      </c>
-      <c r="B208" t="s">
-        <v>122</v>
-      </c>
-      <c r="C208">
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209" t="s">
+        <v>36</v>
+      </c>
+      <c r="L209" t="s">
+        <v>36</v>
+      </c>
+      <c r="M209" t="s">
+        <v>36</v>
+      </c>
+      <c r="N209" t="s">
+        <v>36</v>
+      </c>
+      <c r="O209" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>36</v>
+      </c>
+      <c r="B210" t="s">
+        <v>121</v>
+      </c>
+      <c r="C210">
         <v>100</v>
       </c>
-      <c r="D208" t="str">
-        <f>B203</f>
+      <c r="D210" t="str">
+        <f>B205</f>
         <v>ton kilometer</v>
       </c>
-      <c r="E208" t="s">
-        <v>124</v>
-      </c>
-      <c r="F208" t="s">
+      <c r="E210" t="s">
+        <v>123</v>
+      </c>
+      <c r="F210" t="s">
         <v>41</v>
       </c>
-      <c r="G208" t="str">
-        <f>B200</f>
+      <c r="G210" t="str">
+        <f>B202</f>
         <v>RER</v>
       </c>
-      <c r="H208" t="s">
+      <c r="H210" t="s">
         <v>42</v>
       </c>
-      <c r="I208" t="s">
+      <c r="I210" t="s">
+        <v>119</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210" t="s">
+        <v>36</v>
+      </c>
+      <c r="L210" t="s">
+        <v>36</v>
+      </c>
+      <c r="M210" t="s">
+        <v>36</v>
+      </c>
+      <c r="N210" t="s">
+        <v>36</v>
+      </c>
+      <c r="O210" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J208">
-        <v>0</v>
-      </c>
-      <c r="K208" t="s">
-        <v>36</v>
-      </c>
-      <c r="L208" t="s">
-        <v>36</v>
-      </c>
-      <c r="M208" t="s">
-        <v>36</v>
-      </c>
-      <c r="N208" t="s">
-        <v>36</v>
-      </c>
-      <c r="O208" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="10" t="s">
+    </row>
+    <row r="213" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B211" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>15</v>
-      </c>
-      <c r="B212" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>17</v>
-      </c>
-      <c r="B213">
-        <v>1</v>
+      <c r="B213" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B214" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>20</v>
-      </c>
-      <c r="B215" t="s">
-        <v>126</v>
+        <v>17</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B216" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B217" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>22</v>
+      </c>
+      <c r="B218" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>9</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B220" t="s">
         <v>25</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C220" t="s">
         <v>17</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D220" t="s">
         <v>20</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E220" t="s">
         <v>26</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F220" t="s">
         <v>27</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G220" t="s">
         <v>15</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H220" t="s">
         <v>18</v>
       </c>
-      <c r="I218" t="s">
+      <c r="I220" t="s">
         <v>22</v>
       </c>
-      <c r="J218" t="s">
+      <c r="J220" t="s">
         <v>28</v>
       </c>
-      <c r="K218" t="s">
+      <c r="K220" t="s">
         <v>29</v>
       </c>
-      <c r="L218" t="s">
+      <c r="L220" t="s">
         <v>30</v>
       </c>
-      <c r="M218" t="s">
+      <c r="M220" t="s">
         <v>31</v>
       </c>
-      <c r="N218" t="s">
+      <c r="N220" t="s">
         <v>32</v>
       </c>
-      <c r="O218" t="s">
+      <c r="O220" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A219" t="str">
-        <f>B211</f>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A221" t="str">
+        <f>B213</f>
         <v>fer__soi</v>
       </c>
-      <c r="B219" t="str">
-        <f>B210</f>
+      <c r="B221" t="str">
+        <f>B212</f>
         <v>transport of fertilizer to soil</v>
       </c>
-      <c r="C219">
+      <c r="C221">
         <v>1</v>
       </c>
-      <c r="D219" t="str">
-        <f>B215</f>
+      <c r="D221" t="str">
+        <f>B217</f>
         <v>ton kilometer</v>
       </c>
-      <c r="E219" t="str">
+      <c r="E221" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F221" t="s">
         <v>34</v>
       </c>
-      <c r="G219" t="str">
-        <f>B212</f>
+      <c r="G221" t="str">
+        <f>B214</f>
         <v>RER</v>
       </c>
-      <c r="H219" t="s">
+      <c r="H221" t="s">
         <v>35</v>
       </c>
-      <c r="I219" t="str">
-        <f>B216</f>
+      <c r="I221" t="str">
+        <f>B218</f>
         <v>transport, freight, lorry, diesel, unspecified</v>
       </c>
-      <c r="J219">
-        <v>0</v>
-      </c>
-      <c r="K219" t="s">
-        <v>36</v>
-      </c>
-      <c r="L219" t="s">
-        <v>36</v>
-      </c>
-      <c r="M219" t="s">
-        <v>36</v>
-      </c>
-      <c r="N219" t="s">
-        <v>36</v>
-      </c>
-      <c r="O219" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>36</v>
-      </c>
-      <c r="B220" t="s">
-        <v>122</v>
-      </c>
-      <c r="C220">
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221" t="s">
+        <v>36</v>
+      </c>
+      <c r="L221" t="s">
+        <v>36</v>
+      </c>
+      <c r="M221" t="s">
+        <v>36</v>
+      </c>
+      <c r="N221" t="s">
+        <v>36</v>
+      </c>
+      <c r="O221" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>36</v>
+      </c>
+      <c r="B222" t="s">
+        <v>121</v>
+      </c>
+      <c r="C222">
         <v>20</v>
       </c>
-      <c r="D220" t="str">
-        <f>B215</f>
+      <c r="D222" t="str">
+        <f>B217</f>
         <v>ton kilometer</v>
       </c>
-      <c r="E220" t="s">
-        <v>124</v>
-      </c>
-      <c r="F220" t="s">
+      <c r="E222" t="s">
+        <v>123</v>
+      </c>
+      <c r="F222" t="s">
         <v>41</v>
       </c>
-      <c r="G220" t="str">
-        <f>B212</f>
+      <c r="G222" t="str">
+        <f>B214</f>
         <v>RER</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H222" t="s">
         <v>42</v>
       </c>
-      <c r="I220" t="s">
-        <v>120</v>
-      </c>
-      <c r="J220">
-        <v>0</v>
-      </c>
-      <c r="K220" t="s">
-        <v>36</v>
-      </c>
-      <c r="L220" t="s">
-        <v>36</v>
-      </c>
-      <c r="M220" t="s">
-        <v>36</v>
-      </c>
-      <c r="N220" t="s">
-        <v>36</v>
-      </c>
-      <c r="O220" t="s">
+      <c r="I222" t="s">
+        <v>119</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222" t="s">
+        <v>36</v>
+      </c>
+      <c r="L222" t="s">
+        <v>36</v>
+      </c>
+      <c r="M222" t="s">
+        <v>36</v>
+      </c>
+      <c r="N222" t="s">
+        <v>36</v>
+      </c>
+      <c r="O222" t="s">
         <v>36</v>
       </c>
     </row>

--- a/LCA/LCI_ Inventories.xlsx
+++ b/LCA/LCI_ Inventories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mamy/PAW/PAW_MFA_LCA_2025/LCA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welkerm\cursor\PAW_MFA_LCA_2025\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A3A1B-D0F5-3142-AE64-A891A0F2315D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076C64D-DEEC-4FA8-B2C9-64D6267F3853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-1500" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
   </bookViews>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="149">
   <si>
     <t>Database</t>
   </si>
@@ -459,13 +449,37 @@
   </si>
   <si>
     <t>sec_tre__qua_tre</t>
+  </si>
+  <si>
+    <t>BPA to soil</t>
+  </si>
+  <si>
+    <t>sldg_sep_fer</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Bisphenol A</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>bpa to soil</t>
+  </si>
+  <si>
+    <t>BPA to water</t>
+  </si>
+  <si>
+    <t>bpa to water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -909,14 +923,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="6">
         <v>230</v>
       </c>
@@ -924,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="8">
         <v>102</v>
       </c>
@@ -932,7 +946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="7">
         <v>128</v>
       </c>
@@ -947,21 +961,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9BD897-F590-4437-A121-ED2632AD5485}">
-  <dimension ref="A1:O222"/>
+  <dimension ref="A1:O246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F247" sqref="F247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -969,7 +983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="4" customFormat="1" ht="15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -977,7 +991,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.95">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -985,7 +999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -993,7 +1007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1001,7 +1015,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1009,7 +1023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1031,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1025,7 +1039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1033,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1041,7 +1055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1049,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1057,7 +1071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1065,7 +1079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1073,12 +1087,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1173,7 +1187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1220,7 +1234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1228,7 +1242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1236,7 +1250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1244,7 +1258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1252,7 +1266,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1260,7 +1274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1268,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="15">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1276,7 +1290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="15">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1284,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="15">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1292,7 +1306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="15">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1300,7 +1314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="15">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1308,12 +1322,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="15">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="15">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1360,7 +1374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="15">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1408,7 +1422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="15">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1455,7 +1469,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="15">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1502,7 +1516,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="15">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -1510,7 +1524,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="15">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1518,7 +1532,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="15">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1526,7 +1540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="15">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1548,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="15">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1542,7 +1556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="15">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1550,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="15">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1558,7 +1572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="15">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1566,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="15">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -1574,7 +1588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="15">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1582,7 +1596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="15">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1590,12 +1604,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="15">
       <c r="A49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="15">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1642,7 +1656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="15">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1690,7 +1704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="15">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -1737,7 +1751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="15">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -1784,7 +1798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="15">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -1831,7 +1845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="15">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -1878,7 +1892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="15">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -1925,7 +1939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="15">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -1972,7 +1986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="15">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -2019,7 +2033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="15">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -2066,7 +2080,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="15">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -2113,7 +2127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="15">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -2160,7 +2174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="15">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -2207,7 +2221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="15">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2254,7 +2268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="15">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -2301,7 +2315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="15">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -2348,7 +2362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="15">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -2395,7 +2409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="15">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -2442,7 +2456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="15">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -2489,7 +2503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="15">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -2536,7 +2550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="15">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
@@ -2544,7 +2558,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="15">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2552,7 +2566,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="15">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2560,7 +2574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="15">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -2568,7 +2582,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="15">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2576,7 +2590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="15">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -2584,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="15">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -2592,7 +2606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="15">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -2600,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="15">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -2608,7 +2622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="15">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -2616,7 +2630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="15">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -2624,12 +2638,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="15">
       <c r="A82" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="15">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2676,7 +2690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="15">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -2724,7 +2738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="15">
       <c r="A85" t="s">
         <v>36</v>
       </c>
@@ -2771,7 +2785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="15">
       <c r="A86" t="s">
         <v>36</v>
       </c>
@@ -2818,7 +2832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="15">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -2865,7 +2879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="15">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -2912,7 +2926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="15">
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
@@ -2920,7 +2934,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="15">
       <c r="A91" s="10" t="s">
         <v>134</v>
       </c>
@@ -2928,7 +2942,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="15">
       <c r="A92" s="10" t="s">
         <v>135</v>
       </c>
@@ -2936,7 +2950,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="15">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -2944,7 +2958,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="15">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -2952,7 +2966,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="15">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -2960,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="15">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -2968,7 +2982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="15">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -2976,7 +2990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="15">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -2984,12 +2998,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="15">
       <c r="A99" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="15">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -3036,7 +3050,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="15">
       <c r="A101" t="str">
         <f>B91</f>
         <v>sec_tre__qua_tre</v>
@@ -3089,7 +3103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="15">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -3141,7 +3155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="15">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -3193,7 +3207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="15">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -3245,7 +3259,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="15">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -3297,7 +3311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="15">
       <c r="A107" s="4" t="s">
         <v>8</v>
       </c>
@@ -3305,7 +3319,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="15">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -3313,7 +3327,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="15">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -3321,7 +3335,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="15">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3329,7 +3343,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="15">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -3337,7 +3351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="15">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -3345,7 +3359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="15">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -3353,7 +3367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="15">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -3361,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="15">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -3369,7 +3383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="15">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -3377,7 +3391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="15">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3385,12 +3399,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="15">
       <c r="A118" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="15">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -3437,7 +3451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="15">
       <c r="A120" t="s">
         <v>105</v>
       </c>
@@ -3485,7 +3499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="15">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -3532,7 +3546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="15">
       <c r="A123" s="4" t="s">
         <v>8</v>
       </c>
@@ -3540,7 +3554,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="15">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -3548,7 +3562,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="15">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -3556,7 +3570,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="15">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -3564,7 +3578,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="15">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -3572,7 +3586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="15">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3580,7 +3594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="15">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -3588,7 +3602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="15">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -3596,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="15">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -3604,7 +3618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="15">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -3612,7 +3626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="15">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -3620,12 +3634,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="15">
       <c r="A134" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="15">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -3672,7 +3686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="15">
       <c r="A136" t="s">
         <v>108</v>
       </c>
@@ -3720,7 +3734,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="15">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -3767,7 +3781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A139" s="10" t="s">
         <v>8</v>
       </c>
@@ -3775,7 +3789,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A140" s="10" t="s">
         <v>134</v>
       </c>
@@ -3783,7 +3797,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A141" s="10" t="s">
         <v>135</v>
       </c>
@@ -3791,7 +3805,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="15">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -3799,7 +3813,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="15">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -3807,7 +3821,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="15">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -3815,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="15">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -3823,7 +3837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="15">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -3831,7 +3845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="15">
       <c r="A147" t="s">
         <v>22</v>
       </c>
@@ -3839,12 +3853,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="15">
       <c r="A148" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="15">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -3891,7 +3905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="15">
       <c r="A150" t="str">
         <f>B140</f>
         <v>sec_tre__qua_tre</v>
@@ -3944,7 +3958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="15">
       <c r="A151" t="s">
         <v>36</v>
       </c>
@@ -3996,7 +4010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="15">
       <c r="B152" t="str">
         <f>B107</f>
         <v>Electricity 102</v>
@@ -4046,8 +4060,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="13.7" customHeight="1"/>
+    <row r="154" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A154" s="10" t="s">
         <v>8</v>
       </c>
@@ -4055,7 +4069,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="155" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A155" s="10" t="s">
         <v>134</v>
       </c>
@@ -4063,7 +4077,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="156" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A156" s="10" t="s">
         <v>135</v>
       </c>
@@ -4071,7 +4085,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="15">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -4079,7 +4093,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="15">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -4087,7 +4101,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="15">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -4095,7 +4109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="15">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -4103,7 +4117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="15">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -4111,7 +4125,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="15">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -4119,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="15">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -4127,7 +4141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="15">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -4135,7 +4149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="15">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -4143,12 +4157,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="15">
       <c r="A166" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="15">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -4195,7 +4209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="15">
       <c r="A168" t="s">
         <v>110</v>
       </c>
@@ -4243,7 +4257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="15">
       <c r="A169" t="s">
         <v>36</v>
       </c>
@@ -4290,7 +4304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="15">
       <c r="A170" t="s">
         <v>36</v>
       </c>
@@ -4337,7 +4351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="15">
       <c r="A171" t="s">
         <v>36</v>
       </c>
@@ -4384,7 +4398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A173" s="10" t="s">
         <v>8</v>
       </c>
@@ -4392,7 +4406,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="174" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A174" s="10" t="s">
         <v>134</v>
       </c>
@@ -4400,7 +4414,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="175" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A175" s="10" t="s">
         <v>135</v>
       </c>
@@ -4408,7 +4422,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="15">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -4416,7 +4430,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="15">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -4424,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="15">
       <c r="A178" t="s">
         <v>18</v>
       </c>
@@ -4432,7 +4446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="15">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -4440,7 +4454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="15">
       <c r="A180" t="s">
         <v>22</v>
       </c>
@@ -4448,12 +4462,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="15">
       <c r="A181" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="15">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -4500,7 +4514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="15">
       <c r="A183" t="str">
         <f>B174</f>
         <v>qua_tre__inc</v>
@@ -4553,7 +4567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="15">
       <c r="A184" t="s">
         <v>36</v>
       </c>
@@ -4602,8 +4616,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="15.6" customHeight="1"/>
+    <row r="186" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A186" s="10" t="s">
         <v>8</v>
       </c>
@@ -4611,7 +4625,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="187" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A187" s="10" t="s">
         <v>134</v>
       </c>
@@ -4619,7 +4633,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="188" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A188" s="10" t="s">
         <v>135</v>
       </c>
@@ -4627,7 +4641,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="15">
       <c r="A189" t="s">
         <v>15</v>
       </c>
@@ -4635,7 +4649,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="15">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -4643,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="15">
       <c r="A191" t="s">
         <v>18</v>
       </c>
@@ -4651,7 +4665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="15">
       <c r="A192" t="s">
         <v>20</v>
       </c>
@@ -4659,7 +4673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="15">
       <c r="A193" t="s">
         <v>22</v>
       </c>
@@ -4667,12 +4681,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="15">
       <c r="A194" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="15">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -4719,7 +4733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="15">
       <c r="A196" t="str">
         <f>B187</f>
         <v>dec_tre__sec_tre</v>
@@ -4772,7 +4786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="15">
       <c r="A197" t="s">
         <v>36</v>
       </c>
@@ -4822,7 +4836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A199" s="10" t="s">
         <v>8</v>
       </c>
@@ -4830,7 +4844,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="200" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A200" s="10" t="s">
         <v>134</v>
       </c>
@@ -4838,7 +4852,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="201" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A201" s="10" t="s">
         <v>135</v>
       </c>
@@ -4846,7 +4860,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="15">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -4854,7 +4868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="15">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -4862,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="15">
       <c r="A204" t="s">
         <v>18</v>
       </c>
@@ -4870,7 +4884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="15">
       <c r="A205" t="s">
         <v>20</v>
       </c>
@@ -4878,7 +4892,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="15">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -4886,12 +4900,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="15">
       <c r="A207" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="15">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -4938,7 +4952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="15">
       <c r="A209" t="str">
         <f>B200</f>
         <v>sldg_sep__inc</v>
@@ -4991,7 +5005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="15">
       <c r="A210" t="s">
         <v>36</v>
       </c>
@@ -5040,7 +5054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A212" s="10" t="s">
         <v>8</v>
       </c>
@@ -5048,7 +5062,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="213" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A213" s="10" t="s">
         <v>9</v>
       </c>
@@ -5056,7 +5070,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="15">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -5064,7 +5078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="15">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -5072,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="15">
       <c r="A216" t="s">
         <v>18</v>
       </c>
@@ -5080,7 +5094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="15">
       <c r="A217" t="s">
         <v>20</v>
       </c>
@@ -5088,7 +5102,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15">
       <c r="A218" t="s">
         <v>22</v>
       </c>
@@ -5096,12 +5110,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15">
       <c r="A219" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -5148,7 +5162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15">
       <c r="A221" t="str">
         <f>B213</f>
         <v>fer__soi</v>
@@ -5201,7 +5215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15">
       <c r="A222" t="s">
         <v>36</v>
       </c>
@@ -5250,7 +5264,362 @@
         <v>36</v>
       </c>
     </row>
+    <row r="224" spans="1:15">
+      <c r="A224" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15">
+      <c r="A225" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15">
+      <c r="A226" t="s">
+        <v>15</v>
+      </c>
+      <c r="B226" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15">
+      <c r="A227" t="s">
+        <v>17</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15">
+      <c r="A228" t="s">
+        <v>18</v>
+      </c>
+      <c r="B228" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15">
+      <c r="A229" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15">
+      <c r="A230" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15">
+      <c r="A231" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15">
+      <c r="A232" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" t="s">
+        <v>25</v>
+      </c>
+      <c r="C232" t="s">
+        <v>17</v>
+      </c>
+      <c r="D232" t="s">
+        <v>20</v>
+      </c>
+      <c r="E232" t="s">
+        <v>26</v>
+      </c>
+      <c r="F232" t="s">
+        <v>27</v>
+      </c>
+      <c r="G232" t="s">
+        <v>15</v>
+      </c>
+      <c r="H232" t="s">
+        <v>18</v>
+      </c>
+      <c r="I232" t="s">
+        <v>22</v>
+      </c>
+      <c r="J232" t="s">
+        <v>28</v>
+      </c>
+      <c r="K232" t="s">
+        <v>29</v>
+      </c>
+      <c r="L232" t="s">
+        <v>30</v>
+      </c>
+      <c r="M232" t="s">
+        <v>31</v>
+      </c>
+      <c r="N232" t="s">
+        <v>32</v>
+      </c>
+      <c r="O232" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15">
+      <c r="A233" t="s">
+        <v>142</v>
+      </c>
+      <c r="B233" t="str">
+        <f>B224</f>
+        <v>BPA to soil</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>48</v>
+      </c>
+      <c r="E233" t="s">
+        <v>122</v>
+      </c>
+      <c r="F233" t="s">
+        <v>34</v>
+      </c>
+      <c r="G233" t="s">
+        <v>16</v>
+      </c>
+      <c r="H233" t="s">
+        <v>35</v>
+      </c>
+      <c r="I233" t="str">
+        <f>B230</f>
+        <v>bpa to soil</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233" t="s">
+        <v>36</v>
+      </c>
+      <c r="L233" t="s">
+        <v>36</v>
+      </c>
+      <c r="M233" t="s">
+        <v>36</v>
+      </c>
+      <c r="N233" t="s">
+        <v>36</v>
+      </c>
+      <c r="O233" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15">
+      <c r="B234" t="s">
+        <v>144</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>48</v>
+      </c>
+      <c r="E234" t="s">
+        <v>124</v>
+      </c>
+      <c r="F234" t="s">
+        <v>145</v>
+      </c>
+      <c r="H234" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15">
+      <c r="A236" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15">
+      <c r="A237" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15">
+      <c r="A238" t="s">
+        <v>15</v>
+      </c>
+      <c r="B238" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15">
+      <c r="A239" t="s">
+        <v>17</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15">
+      <c r="A240" t="s">
+        <v>18</v>
+      </c>
+      <c r="B240" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15">
+      <c r="A241" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15">
+      <c r="A242" t="s">
+        <v>22</v>
+      </c>
+      <c r="B242" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15">
+      <c r="A243" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15">
+      <c r="A244" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" t="s">
+        <v>25</v>
+      </c>
+      <c r="C244" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" t="s">
+        <v>20</v>
+      </c>
+      <c r="E244" t="s">
+        <v>26</v>
+      </c>
+      <c r="F244" t="s">
+        <v>27</v>
+      </c>
+      <c r="G244" t="s">
+        <v>15</v>
+      </c>
+      <c r="H244" t="s">
+        <v>18</v>
+      </c>
+      <c r="I244" t="s">
+        <v>22</v>
+      </c>
+      <c r="J244" t="s">
+        <v>28</v>
+      </c>
+      <c r="K244" t="s">
+        <v>29</v>
+      </c>
+      <c r="L244" t="s">
+        <v>30</v>
+      </c>
+      <c r="M244" t="s">
+        <v>31</v>
+      </c>
+      <c r="N244" t="s">
+        <v>32</v>
+      </c>
+      <c r="O244" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15">
+      <c r="A245" t="s">
+        <v>142</v>
+      </c>
+      <c r="B245" t="str">
+        <f>B236</f>
+        <v>BPA to water</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>48</v>
+      </c>
+      <c r="E245" t="s">
+        <v>122</v>
+      </c>
+      <c r="F245" t="s">
+        <v>34</v>
+      </c>
+      <c r="G245" t="s">
+        <v>16</v>
+      </c>
+      <c r="H245" t="s">
+        <v>35</v>
+      </c>
+      <c r="I245" t="str">
+        <f>B242</f>
+        <v>bpa to water</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245" t="s">
+        <v>36</v>
+      </c>
+      <c r="L245" t="s">
+        <v>36</v>
+      </c>
+      <c r="M245" t="s">
+        <v>36</v>
+      </c>
+      <c r="N245" t="s">
+        <v>36</v>
+      </c>
+      <c r="O245" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15">
+      <c r="B246" t="s">
+        <v>144</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>48</v>
+      </c>
+      <c r="E246" t="s">
+        <v>124</v>
+      </c>
+      <c r="F246" t="s">
+        <v>143</v>
+      </c>
+      <c r="H246" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LCA/LCI_ Inventories.xlsx
+++ b/LCA/LCI_ Inventories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welkerm\cursor\PAW_MFA_LCA_2025\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076C64D-DEEC-4FA8-B2C9-64D6267F3853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA94C204-31EE-42AE-88FC-FDDD31267290}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-1500" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="164">
   <si>
     <t>Database</t>
   </si>
@@ -355,12 +355,6 @@
     <t>102_chem</t>
   </si>
   <si>
-    <t>Chemicals 128</t>
-  </si>
-  <si>
-    <t>128_chem</t>
-  </si>
-  <si>
     <t>Pesqueira2021</t>
   </si>
   <si>
@@ -424,33 +418,9 @@
     <t>market for electricity, medium voltage</t>
   </si>
   <si>
-    <t>fer__soi</t>
-  </si>
-  <si>
-    <t>sldg_sep__inc</t>
-  </si>
-  <si>
-    <t>code1</t>
-  </si>
-  <si>
     <t>code2</t>
   </si>
   <si>
-    <t>dec_tre__sec_tre</t>
-  </si>
-  <si>
-    <t>dom_ww__sec_tre</t>
-  </si>
-  <si>
-    <t>ind_ww__dec_tre</t>
-  </si>
-  <si>
-    <t>qua_tre__inc</t>
-  </si>
-  <si>
-    <t>sec_tre__qua_tre</t>
-  </si>
-  <si>
     <t>BPA to soil</t>
   </si>
   <si>
@@ -473,6 +443,81 @@
   </si>
   <si>
     <t>bpa to water</t>
+  </si>
+  <si>
+    <t>sec_tre =&gt; qua_tre__o3</t>
+  </si>
+  <si>
+    <t>ind_ww =&gt; dec_tre__o3</t>
+  </si>
+  <si>
+    <t>ind_ww =&gt; dec_tre__aop</t>
+  </si>
+  <si>
+    <t>sec_tre =&gt; qua_tre__aop</t>
+  </si>
+  <si>
+    <t>sec_tre =&gt; qua_tre__gac</t>
+  </si>
+  <si>
+    <t>ind_ww =&gt; dec_tre__gac</t>
+  </si>
+  <si>
+    <t>qua_tre =&gt; inc__nof</t>
+  </si>
+  <si>
+    <t>qua_tre =&gt; inc__aop</t>
+  </si>
+  <si>
+    <t>qua_tre =&gt; inc__o3</t>
+  </si>
+  <si>
+    <t>qua_tre =&gt; inc__gac</t>
+  </si>
+  <si>
+    <t>code3</t>
+  </si>
+  <si>
+    <t>code4</t>
+  </si>
+  <si>
+    <t>dec_tre =&gt; sec_tre__aop</t>
+  </si>
+  <si>
+    <t>dec_tre =&gt; sec_tre__nof</t>
+  </si>
+  <si>
+    <t>dec_tre =&gt; sec_tre__o3</t>
+  </si>
+  <si>
+    <t>dec_tre =&gt; sec_tre__gac</t>
+  </si>
+  <si>
+    <t>dom_ww =&gt; sec_tre</t>
+  </si>
+  <si>
+    <t>code5</t>
+  </si>
+  <si>
+    <t>sldg_sep =&gt; inc</t>
+  </si>
+  <si>
+    <t>code6</t>
+  </si>
+  <si>
+    <t>sldg_trans</t>
+  </si>
+  <si>
+    <t>fer =&gt; soi</t>
+  </si>
+  <si>
+    <t>sldg_sep =&gt; fer</t>
+  </si>
+  <si>
+    <t>wtr_dis =&gt; irr</t>
+  </si>
+  <si>
+    <t>wtr_dis =&gt; riv</t>
   </si>
 </sst>
 </file>
@@ -930,7 +975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" s="6">
         <v>230</v>
       </c>
@@ -938,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" s="8">
         <v>102</v>
       </c>
@@ -946,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="15">
       <c r="A6" s="7">
         <v>128</v>
       </c>
@@ -961,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9BD897-F590-4437-A121-ED2632AD5485}">
-  <dimension ref="A1:O246"/>
+  <dimension ref="A1:O257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F247" sqref="F247"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -975,7 +1020,7 @@
     <col min="9" max="9" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -988,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.95">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -999,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +1052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1015,7 +1060,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1031,7 +1076,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1039,7 +1084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1055,7 +1100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1063,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1071,7 +1116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +1124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1087,12 +1132,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1139,7 +1184,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1187,12 +1232,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19">
         <v>0.23100000000000001</v>
@@ -1201,13 +1246,13 @@
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
@@ -1234,7 +1279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15">
+    <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1242,7 +1287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1258,7 +1303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1266,7 +1311,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1274,7 +1319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1282,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1290,7 +1335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1298,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1306,7 +1351,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1314,7 +1359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1322,12 +1367,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1374,7 +1419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1422,7 +1467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1436,7 +1481,7 @@
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
         <v>41</v>
@@ -1469,7 +1514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1483,7 +1528,7 @@
         <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
         <v>41</v>
@@ -1516,7 +1561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15">
+    <row r="38" spans="1:15">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -1524,7 +1569,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1532,7 +1577,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1540,7 +1585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1548,7 +1593,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1556,7 +1601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1564,7 +1609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1572,7 +1617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -1588,7 +1633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1596,7 +1641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1604,12 +1649,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1656,7 +1701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1704,7 +1749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -1718,7 +1763,7 @@
         <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F52" t="s">
         <v>41</v>
@@ -1751,7 +1796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -1765,7 +1810,7 @@
         <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F53" t="s">
         <v>41</v>
@@ -1798,7 +1843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -1812,7 +1857,7 @@
         <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F54" t="s">
         <v>41</v>
@@ -1845,7 +1890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -1859,7 +1904,7 @@
         <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F55" t="s">
         <v>41</v>
@@ -1892,7 +1937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -1906,7 +1951,7 @@
         <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F56" t="s">
         <v>41</v>
@@ -1939,7 +1984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -1953,7 +1998,7 @@
         <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F57" t="s">
         <v>41</v>
@@ -1986,7 +2031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -2000,7 +2045,7 @@
         <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
         <v>41</v>
@@ -2033,7 +2078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -2047,7 +2092,7 @@
         <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F59" t="s">
         <v>41</v>
@@ -2080,7 +2125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -2094,7 +2139,7 @@
         <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F60" t="s">
         <v>41</v>
@@ -2127,7 +2172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -2141,7 +2186,7 @@
         <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F61" t="s">
         <v>41</v>
@@ -2174,7 +2219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -2188,7 +2233,7 @@
         <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
         <v>41</v>
@@ -2221,7 +2266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2235,7 +2280,7 @@
         <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
@@ -2268,7 +2313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -2282,7 +2327,7 @@
         <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
         <v>41</v>
@@ -2315,7 +2360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -2329,7 +2374,7 @@
         <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
         <v>41</v>
@@ -2362,7 +2407,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -2376,7 +2421,7 @@
         <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s">
         <v>41</v>
@@ -2409,7 +2454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -2423,7 +2468,7 @@
         <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F67" t="s">
         <v>41</v>
@@ -2456,7 +2501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -2470,7 +2515,7 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F68" t="s">
         <v>41</v>
@@ -2503,7 +2548,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -2517,7 +2562,7 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F69" t="s">
         <v>41</v>
@@ -2550,7 +2595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15">
+    <row r="71" spans="1:15">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
@@ -2558,7 +2603,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2566,7 +2611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2574,7 +2619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -2582,7 +2627,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2590,7 +2635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -2598,7 +2643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -2606,7 +2651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -2614,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -2622,7 +2667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -2630,7 +2675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -2638,12 +2683,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15">
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15">
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2690,7 +2735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -2738,7 +2783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>36</v>
       </c>
@@ -2752,7 +2797,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F85" t="s">
         <v>99</v>
@@ -2785,7 +2830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15">
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>36</v>
       </c>
@@ -2799,7 +2844,7 @@
         <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F86" t="s">
         <v>41</v>
@@ -2832,7 +2877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -2846,7 +2891,7 @@
         <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F87" t="s">
         <v>41</v>
@@ -2879,7 +2924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -2893,7 +2938,7 @@
         <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F88" t="s">
         <v>41</v>
@@ -2926,31 +2971,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15">
+    <row r="90" spans="1:15">
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="10" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -2958,15 +3003,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15">
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -2974,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -2982,7 +3027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15">
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -2990,7 +3035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -2998,12 +3043,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="15">
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="15">
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -3050,10 +3095,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="15">
+    <row r="101" spans="1:15">
       <c r="A101" t="str">
         <f>B91</f>
-        <v>sec_tre__qua_tre</v>
+        <v>sec_tre =&gt; qua_tre__gac</v>
       </c>
       <c r="B101" t="str">
         <f>B90</f>
@@ -3103,7 +3148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="15">
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -3155,7 +3200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="15">
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -3207,7 +3252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="15">
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -3259,7 +3304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="15">
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -3311,7 +3356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="15">
+    <row r="107" spans="1:15">
       <c r="A107" s="4" t="s">
         <v>8</v>
       </c>
@@ -3319,7 +3364,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="15">
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +3372,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="15">
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -3335,7 +3380,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="15">
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3343,7 +3388,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="15">
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -3351,7 +3396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="15">
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -3359,7 +3404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15">
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -3367,7 +3412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15">
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -3375,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="15">
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -3383,7 +3428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="15">
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -3391,7 +3436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="15">
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3399,12 +3444,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="15">
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15">
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -3451,7 +3496,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="15">
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
         <v>105</v>
       </c>
@@ -3499,12 +3544,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="15">
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
         <v>36</v>
       </c>
       <c r="B121" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C121">
         <v>0.17</v>
@@ -3513,13 +3558,13 @@
         <v>40</v>
       </c>
       <c r="E121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F121" t="s">
         <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H121" t="s">
         <v>42</v>
@@ -3546,7 +3591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="15">
+    <row r="123" spans="1:15">
       <c r="A123" s="4" t="s">
         <v>8</v>
       </c>
@@ -3554,7 +3599,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="15">
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -3562,7 +3607,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="15">
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -3570,7 +3615,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="15">
+    <row r="126" spans="1:15">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -3578,7 +3623,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="15">
+    <row r="127" spans="1:15">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -3586,7 +3631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="15">
+    <row r="128" spans="1:15">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3594,7 +3639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="15">
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -3602,7 +3647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15">
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -3610,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="15">
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -3618,7 +3663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="15">
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -3626,7 +3671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="15">
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -3634,12 +3679,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="15">
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="15">
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -3686,7 +3731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="15">
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
         <v>108</v>
       </c>
@@ -3734,7 +3779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="15">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -3748,7 +3793,7 @@
         <v>48</v>
       </c>
       <c r="E137" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F137" t="s">
         <v>34</v>
@@ -3781,39 +3826,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:15" s="10" customFormat="1" ht="15">
+    <row r="139" spans="1:15" s="10" customFormat="1">
       <c r="A139" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" s="10" customFormat="1" ht="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" s="10" customFormat="1">
       <c r="A140" s="10" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="B140" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" s="10" customFormat="1">
+      <c r="A141" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B141" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="A141" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="15">
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" ht="15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -3821,7 +3866,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="15">
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -3829,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="15">
+    <row r="145" spans="1:15">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -3837,7 +3882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15">
+    <row r="146" spans="1:15">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -3845,20 +3890,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15">
+    <row r="147" spans="1:15">
       <c r="A147" t="s">
         <v>22</v>
       </c>
       <c r="B147" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15">
+    <row r="149" spans="1:15">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -3905,10 +3950,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15">
+    <row r="150" spans="1:15">
       <c r="A150" t="str">
         <f>B140</f>
-        <v>sec_tre__qua_tre</v>
+        <v>sec_tre =&gt; qua_tre__o3</v>
       </c>
       <c r="B150" t="str">
         <f>B139</f>
@@ -3958,7 +4003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15">
+    <row r="151" spans="1:15">
       <c r="A151" t="s">
         <v>36</v>
       </c>
@@ -4010,7 +4055,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15">
+    <row r="152" spans="1:15">
+      <c r="A152" t="s">
+        <v>36</v>
+      </c>
       <c r="B152" t="str">
         <f>B107</f>
         <v>Electricity 102</v>
@@ -4030,8 +4078,8 @@
         <v>34</v>
       </c>
       <c r="G152" t="str">
-        <f>B116</f>
-        <v>cubic meter</v>
+        <f>B113</f>
+        <v>RER</v>
       </c>
       <c r="H152" t="str">
         <f>H151</f>
@@ -4061,39 +4109,39 @@
       </c>
     </row>
     <row r="153" spans="1:15" ht="13.7" customHeight="1"/>
-    <row r="154" spans="1:15" s="10" customFormat="1" ht="15">
+    <row r="154" spans="1:15" s="10" customFormat="1">
       <c r="A154" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" s="10" customFormat="1" ht="15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" s="10" customFormat="1">
       <c r="A155" s="10" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" s="10" customFormat="1" ht="15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" s="10" customFormat="1">
       <c r="A156" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" t="s">
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" ht="15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -4101,7 +4149,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15">
+    <row r="159" spans="1:15">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -4109,7 +4157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15">
+    <row r="160" spans="1:15">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -4117,15 +4165,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15">
+    <row r="161" spans="1:15">
       <c r="A161" t="s">
         <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" ht="15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -4133,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="15">
+    <row r="163" spans="1:15">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -4141,7 +4189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="15">
+    <row r="164" spans="1:15">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -4149,20 +4197,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15">
+    <row r="165" spans="1:15">
       <c r="A165" t="s">
         <v>22</v>
       </c>
       <c r="B165" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" ht="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15">
+    <row r="167" spans="1:15">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -4209,12 +4257,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="15">
-      <c r="A168" t="s">
-        <v>110</v>
-      </c>
-      <c r="B168" t="s">
-        <v>109</v>
+    <row r="168" spans="1:15">
+      <c r="A168" t="str">
+        <f>B155</f>
+        <v>sec_tre =&gt; qua_tre__aop</v>
+      </c>
+      <c r="B168" t="str">
+        <f>B154</f>
+        <v>Advanced Oxidation Process</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -4230,13 +4280,14 @@
         <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="H168" t="s">
         <v>35</v>
       </c>
-      <c r="I168" t="s">
-        <v>54</v>
+      <c r="I168" t="str">
+        <f>B165</f>
+        <v>treated wastewater</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -4257,7 +4308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15">
+    <row r="169" spans="1:15">
       <c r="A169" t="s">
         <v>36</v>
       </c>
@@ -4271,7 +4322,7 @@
         <v>48</v>
       </c>
       <c r="E169" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F169" t="s">
         <v>34</v>
@@ -4304,7 +4355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15">
+    <row r="170" spans="1:15">
       <c r="A170" t="s">
         <v>36</v>
       </c>
@@ -4318,7 +4369,7 @@
         <v>48</v>
       </c>
       <c r="E170" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F170" t="s">
         <v>34</v>
@@ -4351,12 +4402,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="15">
+    <row r="171" spans="1:15">
       <c r="A171" t="s">
         <v>36</v>
       </c>
       <c r="B171" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C171">
         <v>0.02</v>
@@ -4365,7 +4416,7 @@
         <v>48</v>
       </c>
       <c r="E171" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F171" t="s">
         <v>34</v>
@@ -4377,7 +4428,7 @@
         <v>42</v>
       </c>
       <c r="I171" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -4398,1164 +4449,1120 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:15" s="10" customFormat="1" ht="15">
+    <row r="173" spans="1:15" s="10" customFormat="1">
       <c r="A173" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" s="10" customFormat="1" ht="15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" s="10" customFormat="1">
       <c r="A174" s="10" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" s="10" customFormat="1" ht="15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" s="10" customFormat="1">
       <c r="A175" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" ht="15">
-      <c r="A176" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" s="10" customFormat="1">
+      <c r="A176" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" s="10" customFormat="1">
+      <c r="A177" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" s="10" customFormat="1">
+      <c r="A178" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="A179" t="s">
         <v>15</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B179" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="15">
-      <c r="A177" t="s">
+    <row r="180" spans="1:15">
+      <c r="A180" t="s">
         <v>17</v>
       </c>
-      <c r="B177">
+      <c r="B180">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15">
-      <c r="A178" t="s">
+    <row r="181" spans="1:15">
+      <c r="A181" t="s">
         <v>18</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B181" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15">
-      <c r="A179" t="s">
+    <row r="182" spans="1:15">
+      <c r="A182" t="s">
         <v>20</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B182" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15">
-      <c r="A180" t="s">
+    <row r="183" spans="1:15">
+      <c r="A183" t="s">
         <v>22</v>
       </c>
-      <c r="B180" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" ht="15">
-      <c r="A181" t="s">
+      <c r="B183" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15">
-      <c r="A182" t="s">
+    <row r="185" spans="1:15">
+      <c r="A185" t="s">
         <v>9</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B185" t="s">
         <v>25</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C185" t="s">
         <v>17</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D185" t="s">
         <v>20</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E185" t="s">
         <v>26</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F185" t="s">
         <v>27</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G185" t="s">
         <v>15</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H185" t="s">
         <v>18</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I185" t="s">
         <v>22</v>
       </c>
-      <c r="J182" t="s">
+      <c r="J185" t="s">
         <v>28</v>
       </c>
-      <c r="K182" t="s">
+      <c r="K185" t="s">
         <v>29</v>
       </c>
-      <c r="L182" t="s">
+      <c r="L185" t="s">
         <v>30</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M185" t="s">
         <v>31</v>
       </c>
-      <c r="N182" t="s">
+      <c r="N185" t="s">
         <v>32</v>
       </c>
-      <c r="O182" t="s">
+      <c r="O185" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="15">
-      <c r="A183" t="str">
+    <row r="186" spans="1:15">
+      <c r="A186" t="str">
         <f>B174</f>
-        <v>qua_tre__inc</v>
-      </c>
-      <c r="B183" t="str">
+        <v>qua_tre =&gt; inc__nof</v>
+      </c>
+      <c r="B186" t="str">
         <f>B173</f>
         <v xml:space="preserve">sludge incineration </v>
       </c>
-      <c r="C183">
+      <c r="C186">
         <v>1</v>
       </c>
-      <c r="D183" t="str">
-        <f>B179</f>
+      <c r="D186" t="str">
+        <f>B182</f>
         <v>kilogram</v>
       </c>
-      <c r="E183" t="str">
+      <c r="E186" t="str">
         <f>B2</f>
         <v>paw_db</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F186" t="s">
         <v>34</v>
       </c>
-      <c r="G183" t="str">
-        <f>B176</f>
+      <c r="G186" t="str">
+        <f>B179</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H183" t="s">
+      <c r="H186" t="s">
         <v>35</v>
       </c>
-      <c r="I183" t="str">
-        <f>B180</f>
+      <c r="I186" t="str">
+        <f>B183</f>
         <v>sewage sludge, 70% water, WWT, WW, average</v>
       </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="K183" t="s">
-        <v>36</v>
-      </c>
-      <c r="L183" t="s">
-        <v>36</v>
-      </c>
-      <c r="M183" t="s">
-        <v>36</v>
-      </c>
-      <c r="N183" t="s">
-        <v>36</v>
-      </c>
-      <c r="O183" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" ht="15">
-      <c r="A184" t="s">
-        <v>36</v>
-      </c>
-      <c r="B184" t="s">
-        <v>116</v>
-      </c>
-      <c r="C184">
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186" t="s">
+        <v>36</v>
+      </c>
+      <c r="L186" t="s">
+        <v>36</v>
+      </c>
+      <c r="M186" t="s">
+        <v>36</v>
+      </c>
+      <c r="N186" t="s">
+        <v>36</v>
+      </c>
+      <c r="O186" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" t="s">
+        <v>36</v>
+      </c>
+      <c r="B187" t="s">
+        <v>114</v>
+      </c>
+      <c r="C187">
         <v>1</v>
       </c>
-      <c r="D184" t="str">
-        <f>D183</f>
+      <c r="D187" t="str">
+        <f>D186</f>
         <v>kilogram</v>
       </c>
-      <c r="E184" t="s">
-        <v>123</v>
-      </c>
-      <c r="F184" t="s">
+      <c r="E187" t="s">
+        <v>121</v>
+      </c>
+      <c r="F187" t="s">
         <v>41</v>
       </c>
-      <c r="G184" t="str">
-        <f>B176</f>
+      <c r="G187" t="str">
+        <f>B179</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H184" t="s">
+      <c r="H187" t="s">
         <v>42</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I187" t="s">
+        <v>113</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187" t="s">
+        <v>36</v>
+      </c>
+      <c r="L187" t="s">
+        <v>36</v>
+      </c>
+      <c r="M187" t="s">
+        <v>36</v>
+      </c>
+      <c r="N187" t="s">
+        <v>36</v>
+      </c>
+      <c r="O187" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="15.6" customHeight="1"/>
+    <row r="189" spans="1:15" s="10" customFormat="1">
+      <c r="A189" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-      <c r="K184" t="s">
-        <v>36</v>
-      </c>
-      <c r="L184" t="s">
-        <v>36</v>
-      </c>
-      <c r="M184" t="s">
-        <v>36</v>
-      </c>
-      <c r="N184" t="s">
-        <v>36</v>
-      </c>
-      <c r="O184" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" ht="15.6" customHeight="1"/>
-    <row r="186" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="A186" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="A187" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="A188" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" ht="15">
-      <c r="A189" t="s">
+    </row>
+    <row r="190" spans="1:15" s="10" customFormat="1">
+      <c r="A190" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" s="10" customFormat="1">
+      <c r="A191" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" s="10" customFormat="1">
+      <c r="A192" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" s="10" customFormat="1">
+      <c r="A193" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" s="10" customFormat="1">
+      <c r="A194" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15">
+      <c r="A195" t="s">
         <v>15</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B195" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="15">
-      <c r="A190" t="s">
+    <row r="196" spans="1:15">
+      <c r="A196" t="s">
         <v>17</v>
       </c>
-      <c r="B190">
+      <c r="B196">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15">
-      <c r="A191" t="s">
+    <row r="197" spans="1:15">
+      <c r="A197" t="s">
         <v>18</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B197" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15">
-      <c r="A192" t="s">
+    <row r="198" spans="1:15">
+      <c r="A198" t="s">
         <v>20</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B198" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="15">
-      <c r="A193" t="s">
+    <row r="199" spans="1:15">
+      <c r="A199" t="s">
         <v>22</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B199" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="15">
-      <c r="A194" t="s">
+    <row r="200" spans="1:15">
+      <c r="A200" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="15">
-      <c r="A195" t="s">
+    <row r="201" spans="1:15">
+      <c r="A201" t="s">
         <v>9</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B201" t="s">
         <v>25</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C201" t="s">
         <v>17</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D201" t="s">
         <v>20</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E201" t="s">
         <v>26</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F201" t="s">
         <v>27</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G201" t="s">
         <v>15</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H201" t="s">
         <v>18</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I201" t="s">
         <v>22</v>
       </c>
-      <c r="J195" t="s">
+      <c r="J201" t="s">
         <v>28</v>
       </c>
-      <c r="K195" t="s">
+      <c r="K201" t="s">
         <v>29</v>
       </c>
-      <c r="L195" t="s">
+      <c r="L201" t="s">
         <v>30</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M201" t="s">
         <v>31</v>
       </c>
-      <c r="N195" t="s">
+      <c r="N201" t="s">
         <v>32</v>
       </c>
-      <c r="O195" t="s">
+      <c r="O201" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15">
-      <c r="A196" t="str">
-        <f>B187</f>
-        <v>dec_tre__sec_tre</v>
-      </c>
-      <c r="B196" t="str">
-        <f>B186</f>
+    <row r="202" spans="1:15">
+      <c r="A202" t="str">
+        <f>B192</f>
+        <v>dec_tre =&gt; sec_tre__o3</v>
+      </c>
+      <c r="B202" t="str">
+        <f>B189</f>
         <v>secondary treatment</v>
       </c>
-      <c r="C196">
+      <c r="C202">
         <v>1</v>
       </c>
-      <c r="D196" t="str">
-        <f>B192</f>
+      <c r="D202" t="str">
+        <f>B198</f>
         <v>cubic meter</v>
       </c>
-      <c r="E196" t="str">
+      <c r="E202" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F202" t="s">
         <v>34</v>
       </c>
-      <c r="G196" t="str">
-        <f>B189</f>
+      <c r="G202" t="str">
+        <f>B195</f>
         <v>Europe without Switzerland</v>
       </c>
-      <c r="H196" t="s">
+      <c r="H202" t="s">
         <v>35</v>
       </c>
-      <c r="I196" t="str">
-        <f>B193</f>
+      <c r="I202" t="str">
+        <f>B199</f>
         <v>wastewater, average</v>
       </c>
-      <c r="J196">
-        <v>0</v>
-      </c>
-      <c r="K196" t="s">
-        <v>36</v>
-      </c>
-      <c r="L196" t="s">
-        <v>36</v>
-      </c>
-      <c r="M196" t="s">
-        <v>36</v>
-      </c>
-      <c r="N196" t="s">
-        <v>36</v>
-      </c>
-      <c r="O196" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" ht="15">
-      <c r="A197" t="s">
-        <v>36</v>
-      </c>
-      <c r="B197" t="s">
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202" t="s">
+        <v>36</v>
+      </c>
+      <c r="L202" t="s">
+        <v>36</v>
+      </c>
+      <c r="M202" t="s">
+        <v>36</v>
+      </c>
+      <c r="N202" t="s">
+        <v>36</v>
+      </c>
+      <c r="O202" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
+      <c r="A203" t="s">
+        <v>36</v>
+      </c>
+      <c r="B203" t="s">
         <v>95</v>
       </c>
-      <c r="C197">
+      <c r="C203">
         <v>1</v>
       </c>
-      <c r="D197" t="str">
-        <f>B192</f>
+      <c r="D203" t="str">
+        <f>B198</f>
         <v>cubic meter</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E203" t="s">
+        <v>121</v>
+      </c>
+      <c r="F203" t="s">
+        <v>41</v>
+      </c>
+      <c r="G203" t="str">
+        <f>B195</f>
+        <v>Europe without Switzerland</v>
+      </c>
+      <c r="H203" t="s">
+        <v>42</v>
+      </c>
+      <c r="I203" t="str">
+        <f>B199</f>
+        <v>wastewater, average</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s">
+        <v>36</v>
+      </c>
+      <c r="L203" t="s">
+        <v>36</v>
+      </c>
+      <c r="M203" t="s">
+        <v>36</v>
+      </c>
+      <c r="N203" t="s">
+        <v>36</v>
+      </c>
+      <c r="O203" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" s="10" customFormat="1">
+      <c r="A205" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" s="10" customFormat="1">
+      <c r="A206" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" s="10" customFormat="1">
+      <c r="A207" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" s="10" customFormat="1">
+      <c r="A208" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" s="10" customFormat="1">
+      <c r="A209" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" s="10" customFormat="1">
+      <c r="A210" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" s="10" customFormat="1">
+      <c r="A211" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15">
+      <c r="A212" t="s">
+        <v>15</v>
+      </c>
+      <c r="B212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15">
+      <c r="A213" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15">
+      <c r="A214" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="A215" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" t="s">
         <v>123</v>
       </c>
-      <c r="F197" t="s">
-        <v>41</v>
-      </c>
-      <c r="G197" t="str">
-        <f>B189</f>
-        <v>Europe without Switzerland</v>
-      </c>
-      <c r="H197" t="s">
-        <v>42</v>
-      </c>
-      <c r="I197" t="str">
-        <f>B193</f>
-        <v>wastewater, average</v>
-      </c>
-      <c r="J197">
-        <v>0</v>
-      </c>
-      <c r="K197" t="s">
-        <v>36</v>
-      </c>
-      <c r="L197" t="s">
-        <v>36</v>
-      </c>
-      <c r="M197" t="s">
-        <v>36</v>
-      </c>
-      <c r="N197" t="s">
-        <v>36</v>
-      </c>
-      <c r="O197" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="A199" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B199" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="A200" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B200" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="A201" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" ht="15">
-      <c r="A202" t="s">
+    </row>
+    <row r="216" spans="1:15">
+      <c r="A216" t="s">
+        <v>22</v>
+      </c>
+      <c r="B216" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15">
+      <c r="A217" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" t="s">
+        <v>25</v>
+      </c>
+      <c r="C218" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" t="s">
+        <v>20</v>
+      </c>
+      <c r="E218" t="s">
+        <v>26</v>
+      </c>
+      <c r="F218" t="s">
+        <v>27</v>
+      </c>
+      <c r="G218" t="s">
         <v>15</v>
       </c>
-      <c r="B202" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" ht="15">
-      <c r="A203" t="s">
-        <v>17</v>
-      </c>
-      <c r="B203">
+      <c r="H218" t="s">
+        <v>18</v>
+      </c>
+      <c r="I218" t="s">
+        <v>22</v>
+      </c>
+      <c r="J218" t="s">
+        <v>28</v>
+      </c>
+      <c r="K218" t="s">
+        <v>29</v>
+      </c>
+      <c r="L218" t="s">
+        <v>30</v>
+      </c>
+      <c r="M218" t="s">
+        <v>31</v>
+      </c>
+      <c r="N218" t="s">
+        <v>32</v>
+      </c>
+      <c r="O218" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15">
+      <c r="A219" t="str">
+        <f>B211</f>
+        <v>sldg_trans</v>
+      </c>
+      <c r="B219" t="str">
+        <f>B205</f>
+        <v>transport of sludge to incineration</v>
+      </c>
+      <c r="C219">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" ht="15">
-      <c r="A204" t="s">
-        <v>18</v>
-      </c>
-      <c r="B204" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" ht="15">
-      <c r="A205" t="s">
-        <v>20</v>
-      </c>
-      <c r="B205" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" ht="15">
-      <c r="A206" t="s">
-        <v>22</v>
-      </c>
-      <c r="B206" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" ht="15">
-      <c r="A207" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" ht="15">
-      <c r="A208" t="s">
-        <v>9</v>
-      </c>
-      <c r="B208" t="s">
-        <v>25</v>
-      </c>
-      <c r="C208" t="s">
-        <v>17</v>
-      </c>
-      <c r="D208" t="s">
-        <v>20</v>
-      </c>
-      <c r="E208" t="s">
-        <v>26</v>
-      </c>
-      <c r="F208" t="s">
-        <v>27</v>
-      </c>
-      <c r="G208" t="s">
-        <v>15</v>
-      </c>
-      <c r="H208" t="s">
-        <v>18</v>
-      </c>
-      <c r="I208" t="s">
-        <v>22</v>
-      </c>
-      <c r="J208" t="s">
-        <v>28</v>
-      </c>
-      <c r="K208" t="s">
-        <v>29</v>
-      </c>
-      <c r="L208" t="s">
-        <v>30</v>
-      </c>
-      <c r="M208" t="s">
-        <v>31</v>
-      </c>
-      <c r="N208" t="s">
-        <v>32</v>
-      </c>
-      <c r="O208" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" ht="15">
-      <c r="A209" t="str">
-        <f>B200</f>
-        <v>sldg_sep__inc</v>
-      </c>
-      <c r="B209" t="str">
-        <f>B199</f>
-        <v>transport of sludge to incineration</v>
-      </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-      <c r="D209" t="str">
-        <f>B205</f>
+      <c r="D219" t="str">
+        <f>B215</f>
         <v>ton kilometer</v>
       </c>
-      <c r="E209" t="str">
+      <c r="E219" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F219" t="s">
         <v>34</v>
       </c>
-      <c r="G209" t="str">
-        <f>B202</f>
+      <c r="G219" t="str">
+        <f>B212</f>
         <v>RER</v>
       </c>
-      <c r="H209" t="s">
+      <c r="H219" t="s">
         <v>35</v>
       </c>
-      <c r="I209" t="str">
-        <f>B206</f>
+      <c r="I219" t="str">
+        <f>B216</f>
         <v>transport, freight, lorry, diesel, unspecified</v>
       </c>
-      <c r="J209">
-        <v>0</v>
-      </c>
-      <c r="K209" t="s">
-        <v>36</v>
-      </c>
-      <c r="L209" t="s">
-        <v>36</v>
-      </c>
-      <c r="M209" t="s">
-        <v>36</v>
-      </c>
-      <c r="N209" t="s">
-        <v>36</v>
-      </c>
-      <c r="O209" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" ht="15">
-      <c r="A210" t="s">
-        <v>36</v>
-      </c>
-      <c r="B210" t="s">
-        <v>121</v>
-      </c>
-      <c r="C210">
-        <v>100</v>
-      </c>
-      <c r="D210" t="str">
-        <f>B205</f>
-        <v>ton kilometer</v>
-      </c>
-      <c r="E210" t="s">
-        <v>123</v>
-      </c>
-      <c r="F210" t="s">
-        <v>41</v>
-      </c>
-      <c r="G210" t="str">
-        <f>B202</f>
-        <v>RER</v>
-      </c>
-      <c r="H210" t="s">
-        <v>42</v>
-      </c>
-      <c r="I210" t="s">
-        <v>119</v>
-      </c>
-      <c r="J210">
-        <v>0</v>
-      </c>
-      <c r="K210" t="s">
-        <v>36</v>
-      </c>
-      <c r="L210" t="s">
-        <v>36</v>
-      </c>
-      <c r="M210" t="s">
-        <v>36</v>
-      </c>
-      <c r="N210" t="s">
-        <v>36</v>
-      </c>
-      <c r="O210" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="A212" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B212" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="A213" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B213" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" ht="15">
-      <c r="A214" t="s">
-        <v>15</v>
-      </c>
-      <c r="B214" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15" ht="15">
-      <c r="A215" t="s">
-        <v>17</v>
-      </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15" ht="15">
-      <c r="A216" t="s">
-        <v>18</v>
-      </c>
-      <c r="B216" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" ht="15">
-      <c r="A217" t="s">
-        <v>20</v>
-      </c>
-      <c r="B217" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15">
-      <c r="A218" t="s">
-        <v>22</v>
-      </c>
-      <c r="B218" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15">
-      <c r="A219" t="s">
-        <v>24</v>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219" t="s">
+        <v>36</v>
+      </c>
+      <c r="L219" t="s">
+        <v>36</v>
+      </c>
+      <c r="M219" t="s">
+        <v>36</v>
+      </c>
+      <c r="N219" t="s">
+        <v>36</v>
+      </c>
+      <c r="O219" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" t="s">
+        <v>36</v>
+      </c>
+      <c r="B220" t="s">
+        <v>119</v>
+      </c>
+      <c r="C220">
+        <v>100</v>
+      </c>
+      <c r="D220" t="str">
+        <f>B215</f>
+        <v>ton kilometer</v>
+      </c>
+      <c r="E220" t="s">
+        <v>121</v>
+      </c>
+      <c r="F220" t="s">
+        <v>41</v>
+      </c>
+      <c r="G220" t="str">
+        <f>B212</f>
+        <v>RER</v>
+      </c>
+      <c r="H220" t="s">
+        <v>42</v>
+      </c>
+      <c r="I220" t="s">
+        <v>117</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220" t="s">
+        <v>36</v>
+      </c>
+      <c r="L220" t="s">
+        <v>36</v>
+      </c>
+      <c r="M220" t="s">
+        <v>36</v>
+      </c>
+      <c r="N220" t="s">
+        <v>36</v>
+      </c>
+      <c r="O220" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" s="10" customFormat="1">
+      <c r="A222" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" s="10" customFormat="1">
+      <c r="A223" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B223" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15">
+      <c r="A224" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15">
+      <c r="A225" t="s">
+        <v>17</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15">
+      <c r="A226" t="s">
+        <v>18</v>
+      </c>
+      <c r="B226" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15">
+      <c r="A227" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15">
+      <c r="A228" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15">
+      <c r="A229" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15">
+      <c r="A230" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" t="s">
         <v>25</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C230" t="s">
         <v>17</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D230" t="s">
         <v>20</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E230" t="s">
         <v>26</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F230" t="s">
         <v>27</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G230" t="s">
         <v>15</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H230" t="s">
         <v>18</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I230" t="s">
         <v>22</v>
       </c>
-      <c r="J220" t="s">
+      <c r="J230" t="s">
         <v>28</v>
       </c>
-      <c r="K220" t="s">
+      <c r="K230" t="s">
         <v>29</v>
       </c>
-      <c r="L220" t="s">
+      <c r="L230" t="s">
         <v>30</v>
       </c>
-      <c r="M220" t="s">
+      <c r="M230" t="s">
         <v>31</v>
       </c>
-      <c r="N220" t="s">
+      <c r="N230" t="s">
         <v>32</v>
       </c>
-      <c r="O220" t="s">
+      <c r="O230" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
-      <c r="A221" t="str">
-        <f>B213</f>
-        <v>fer__soi</v>
-      </c>
-      <c r="B221" t="str">
-        <f>B212</f>
+    <row r="231" spans="1:15">
+      <c r="A231" t="str">
+        <f>B223</f>
+        <v>fer =&gt; soi</v>
+      </c>
+      <c r="B231" t="str">
+        <f>B222</f>
         <v>transport of fertilizer to soil</v>
       </c>
-      <c r="C221">
+      <c r="C231">
         <v>1</v>
       </c>
-      <c r="D221" t="str">
-        <f>B217</f>
+      <c r="D231" t="str">
+        <f>B227</f>
         <v>ton kilometer</v>
       </c>
-      <c r="E221" t="str">
+      <c r="E231" t="str">
         <f>$B$2</f>
         <v>paw_db</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F231" t="s">
         <v>34</v>
       </c>
-      <c r="G221" t="str">
-        <f>B214</f>
+      <c r="G231" t="str">
+        <f>B224</f>
         <v>RER</v>
       </c>
-      <c r="H221" t="s">
+      <c r="H231" t="s">
         <v>35</v>
       </c>
-      <c r="I221" t="str">
-        <f>B218</f>
+      <c r="I231" t="str">
+        <f>B228</f>
         <v>transport, freight, lorry, diesel, unspecified</v>
       </c>
-      <c r="J221">
-        <v>0</v>
-      </c>
-      <c r="K221" t="s">
-        <v>36</v>
-      </c>
-      <c r="L221" t="s">
-        <v>36</v>
-      </c>
-      <c r="M221" t="s">
-        <v>36</v>
-      </c>
-      <c r="N221" t="s">
-        <v>36</v>
-      </c>
-      <c r="O221" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15">
-      <c r="A222" t="s">
-        <v>36</v>
-      </c>
-      <c r="B222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C222">
-        <v>20</v>
-      </c>
-      <c r="D222" t="str">
-        <f>B217</f>
-        <v>ton kilometer</v>
-      </c>
-      <c r="E222" t="s">
-        <v>123</v>
-      </c>
-      <c r="F222" t="s">
-        <v>41</v>
-      </c>
-      <c r="G222" t="str">
-        <f>B214</f>
-        <v>RER</v>
-      </c>
-      <c r="H222" t="s">
-        <v>42</v>
-      </c>
-      <c r="I222" t="s">
-        <v>119</v>
-      </c>
-      <c r="J222">
-        <v>0</v>
-      </c>
-      <c r="K222" t="s">
-        <v>36</v>
-      </c>
-      <c r="L222" t="s">
-        <v>36</v>
-      </c>
-      <c r="M222" t="s">
-        <v>36</v>
-      </c>
-      <c r="N222" t="s">
-        <v>36</v>
-      </c>
-      <c r="O222" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15">
-      <c r="A224" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15">
-      <c r="A225" t="s">
-        <v>9</v>
-      </c>
-      <c r="B225" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15">
-      <c r="A226" t="s">
-        <v>15</v>
-      </c>
-      <c r="B226" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15">
-      <c r="A227" t="s">
-        <v>17</v>
-      </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15">
-      <c r="A228" t="s">
-        <v>18</v>
-      </c>
-      <c r="B228" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15">
-      <c r="A229" t="s">
-        <v>20</v>
-      </c>
-      <c r="B229" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15">
-      <c r="A230" t="s">
-        <v>22</v>
-      </c>
-      <c r="B230" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15">
-      <c r="A231" t="s">
-        <v>24</v>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231" t="s">
+        <v>36</v>
+      </c>
+      <c r="L231" t="s">
+        <v>36</v>
+      </c>
+      <c r="M231" t="s">
+        <v>36</v>
+      </c>
+      <c r="N231" t="s">
+        <v>36</v>
+      </c>
+      <c r="O231" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="232" spans="1:15">
       <c r="A232" t="s">
+        <v>36</v>
+      </c>
+      <c r="B232" t="s">
+        <v>119</v>
+      </c>
+      <c r="C232">
+        <v>20</v>
+      </c>
+      <c r="D232" t="str">
+        <f>B227</f>
+        <v>ton kilometer</v>
+      </c>
+      <c r="E232" t="s">
+        <v>121</v>
+      </c>
+      <c r="F232" t="s">
+        <v>41</v>
+      </c>
+      <c r="G232" t="str">
+        <f>B224</f>
+        <v>RER</v>
+      </c>
+      <c r="H232" t="s">
+        <v>42</v>
+      </c>
+      <c r="I232" t="s">
+        <v>117</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232" t="s">
+        <v>36</v>
+      </c>
+      <c r="L232" t="s">
+        <v>36</v>
+      </c>
+      <c r="M232" t="s">
+        <v>36</v>
+      </c>
+      <c r="N232" t="s">
+        <v>36</v>
+      </c>
+      <c r="O232" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15">
+      <c r="A234" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15">
+      <c r="A235" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15">
+      <c r="A236" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B232" t="s">
-        <v>25</v>
-      </c>
-      <c r="C232" t="s">
-        <v>17</v>
-      </c>
-      <c r="D232" t="s">
-        <v>20</v>
-      </c>
-      <c r="E232" t="s">
-        <v>26</v>
-      </c>
-      <c r="F232" t="s">
-        <v>27</v>
-      </c>
-      <c r="G232" t="s">
-        <v>15</v>
-      </c>
-      <c r="H232" t="s">
-        <v>18</v>
-      </c>
-      <c r="I232" t="s">
-        <v>22</v>
-      </c>
-      <c r="J232" t="s">
-        <v>28</v>
-      </c>
-      <c r="K232" t="s">
-        <v>29</v>
-      </c>
-      <c r="L232" t="s">
-        <v>30</v>
-      </c>
-      <c r="M232" t="s">
-        <v>31</v>
-      </c>
-      <c r="N232" t="s">
-        <v>32</v>
-      </c>
-      <c r="O232" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15">
-      <c r="A233" t="s">
-        <v>142</v>
-      </c>
-      <c r="B233" t="str">
-        <f>B224</f>
-        <v>BPA to soil</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-      <c r="D233" t="s">
-        <v>48</v>
-      </c>
-      <c r="E233" t="s">
-        <v>122</v>
-      </c>
-      <c r="F233" t="s">
-        <v>34</v>
-      </c>
-      <c r="G233" t="s">
-        <v>16</v>
-      </c>
-      <c r="H233" t="s">
-        <v>35</v>
-      </c>
-      <c r="I233" t="str">
-        <f>B230</f>
-        <v>bpa to soil</v>
-      </c>
-      <c r="J233">
-        <v>0</v>
-      </c>
-      <c r="K233" t="s">
-        <v>36</v>
-      </c>
-      <c r="L233" t="s">
-        <v>36</v>
-      </c>
-      <c r="M233" t="s">
-        <v>36</v>
-      </c>
-      <c r="N233" t="s">
-        <v>36</v>
-      </c>
-      <c r="O233" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15">
-      <c r="B234" t="s">
-        <v>144</v>
-      </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-      <c r="D234" t="s">
-        <v>48</v>
-      </c>
-      <c r="E234" t="s">
-        <v>124</v>
-      </c>
-      <c r="F234" t="s">
-        <v>145</v>
-      </c>
-      <c r="H234" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15">
-      <c r="A236" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>147</v>
+      <c r="B236" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="237" spans="1:15">
       <c r="A237" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B237" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="238" spans="1:15">
       <c r="A238" t="s">
-        <v>15</v>
-      </c>
-      <c r="B238" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" t="s">
-        <v>17</v>
-      </c>
-      <c r="B239">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B239" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B240" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="241" spans="1:15">
       <c r="A241" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B241" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
     </row>
     <row r="242" spans="1:15">
       <c r="A242" t="s">
-        <v>22</v>
-      </c>
-      <c r="B242" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" spans="1:15">
       <c r="A243" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="B243" t="s">
+        <v>25</v>
+      </c>
+      <c r="C243" t="s">
+        <v>17</v>
+      </c>
+      <c r="D243" t="s">
+        <v>20</v>
+      </c>
+      <c r="E243" t="s">
+        <v>26</v>
+      </c>
+      <c r="F243" t="s">
+        <v>27</v>
+      </c>
+      <c r="G243" t="s">
+        <v>15</v>
+      </c>
+      <c r="H243" t="s">
+        <v>18</v>
+      </c>
+      <c r="I243" t="s">
+        <v>22</v>
+      </c>
+      <c r="J243" t="s">
+        <v>28</v>
+      </c>
+      <c r="K243" t="s">
+        <v>29</v>
+      </c>
+      <c r="L243" t="s">
+        <v>30</v>
+      </c>
+      <c r="M243" t="s">
+        <v>31</v>
+      </c>
+      <c r="N243" t="s">
+        <v>32</v>
+      </c>
+      <c r="O243" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="244" spans="1:15">
       <c r="A244" t="s">
-        <v>9</v>
-      </c>
-      <c r="B244" t="s">
-        <v>25</v>
-      </c>
-      <c r="C244" t="s">
-        <v>17</v>
+        <v>132</v>
+      </c>
+      <c r="B244" t="str">
+        <f>B234</f>
+        <v>BPA to soil</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E244" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F244" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G244" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H244" t="s">
-        <v>18</v>
-      </c>
-      <c r="I244" t="s">
-        <v>22</v>
-      </c>
-      <c r="J244" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="I244" t="str">
+        <f>B241</f>
+        <v>bpa to soil</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
       </c>
       <c r="K244" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L244" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M244" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N244" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O244" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="245" spans="1:15">
-      <c r="A245" t="s">
-        <v>142</v>
-      </c>
-      <c r="B245" t="str">
-        <f>B236</f>
-        <v>BPA to water</v>
+      <c r="B245" t="s">
+        <v>134</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -5567,54 +5574,186 @@
         <v>122</v>
       </c>
       <c r="F245" t="s">
+        <v>135</v>
+      </c>
+      <c r="H245" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15">
+      <c r="A247" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15">
+      <c r="A248" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15">
+      <c r="A249" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15">
+      <c r="A250" t="s">
+        <v>17</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15">
+      <c r="A251" t="s">
+        <v>18</v>
+      </c>
+      <c r="B251" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15">
+      <c r="A252" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15">
+      <c r="A253" t="s">
+        <v>22</v>
+      </c>
+      <c r="B253" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15">
+      <c r="A254" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15">
+      <c r="A255" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" t="s">
+        <v>25</v>
+      </c>
+      <c r="C255" t="s">
+        <v>17</v>
+      </c>
+      <c r="D255" t="s">
+        <v>20</v>
+      </c>
+      <c r="E255" t="s">
+        <v>26</v>
+      </c>
+      <c r="F255" t="s">
+        <v>27</v>
+      </c>
+      <c r="G255" t="s">
+        <v>15</v>
+      </c>
+      <c r="H255" t="s">
+        <v>18</v>
+      </c>
+      <c r="I255" t="s">
+        <v>22</v>
+      </c>
+      <c r="J255" t="s">
+        <v>28</v>
+      </c>
+      <c r="K255" t="s">
+        <v>29</v>
+      </c>
+      <c r="L255" t="s">
+        <v>30</v>
+      </c>
+      <c r="M255" t="s">
+        <v>31</v>
+      </c>
+      <c r="N255" t="s">
+        <v>32</v>
+      </c>
+      <c r="O255" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15">
+      <c r="A256" t="s">
+        <v>132</v>
+      </c>
+      <c r="B256" t="str">
+        <f>B247</f>
+        <v>BPA to water</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256" t="s">
+        <v>48</v>
+      </c>
+      <c r="E256" t="s">
+        <v>120</v>
+      </c>
+      <c r="F256" t="s">
         <v>34</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G256" t="s">
         <v>16</v>
       </c>
-      <c r="H245" t="s">
+      <c r="H256" t="s">
         <v>35</v>
       </c>
-      <c r="I245" t="str">
-        <f>B242</f>
+      <c r="I256" t="str">
+        <f>B253</f>
         <v>bpa to water</v>
       </c>
-      <c r="J245">
-        <v>0</v>
-      </c>
-      <c r="K245" t="s">
-        <v>36</v>
-      </c>
-      <c r="L245" t="s">
-        <v>36</v>
-      </c>
-      <c r="M245" t="s">
-        <v>36</v>
-      </c>
-      <c r="N245" t="s">
-        <v>36</v>
-      </c>
-      <c r="O245" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15">
-      <c r="B246" t="s">
-        <v>144</v>
-      </c>
-      <c r="C246">
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256" t="s">
+        <v>36</v>
+      </c>
+      <c r="L256" t="s">
+        <v>36</v>
+      </c>
+      <c r="M256" t="s">
+        <v>36</v>
+      </c>
+      <c r="N256" t="s">
+        <v>36</v>
+      </c>
+      <c r="O256" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8">
+      <c r="B257" t="s">
+        <v>134</v>
+      </c>
+      <c r="C257">
         <v>1</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D257" t="s">
         <v>48</v>
       </c>
-      <c r="E246" t="s">
-        <v>124</v>
-      </c>
-      <c r="F246" t="s">
-        <v>143</v>
-      </c>
-      <c r="H246" t="s">
+      <c r="E257" t="s">
+        <v>122</v>
+      </c>
+      <c r="F257" t="s">
+        <v>133</v>
+      </c>
+      <c r="H257" t="s">
         <v>74</v>
       </c>
     </row>

--- a/LCA/LCI_ Inventories.xlsx
+++ b/LCA/LCI_ Inventories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welkerm\cursor\PAW_MFA_LCA_2025\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA94C204-31EE-42AE-88FC-FDDD31267290}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A118D9C-A500-4579-A978-6011489C3395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-1500" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
   </bookViews>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9BD897-F590-4437-A121-ED2632AD5485}">
   <dimension ref="A1:O257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1427,7 +1427,7 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -2743,7 +2743,7 @@
         <v>97</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -4650,7 +4650,7 @@
         <v>114</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D187" t="str">
         <f>D186</f>
@@ -4893,7 +4893,7 @@
         <v>95</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D203" t="str">
         <f>B198</f>

--- a/LCA/LCI_ Inventories.xlsx
+++ b/LCA/LCI_ Inventories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welkerm\cursor\PAW_MFA_LCA_2025\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A118D9C-A500-4579-A978-6011489C3395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5AC587-669D-4D85-9D33-645B4FCFB429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-1500" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
   </bookViews>
@@ -514,10 +514,10 @@
     <t>sldg_sep =&gt; fer</t>
   </si>
   <si>
-    <t>wtr_dis =&gt; irr</t>
-  </si>
-  <si>
-    <t>wtr_dis =&gt; riv</t>
+    <t>wtr_dis =&gt; riv__cec</t>
+  </si>
+  <si>
+    <t>wtr_dis =&gt; irr__cec</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9BD897-F590-4437-A121-ED2632AD5485}">
   <dimension ref="A1:O257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5408,7 +5408,7 @@
         <v>130</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="236" spans="1:15">
@@ -5593,7 +5593,7 @@
         <v>9</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="249" spans="1:15">

--- a/LCA/LCI_ Inventories.xlsx
+++ b/LCA/LCI_ Inventories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welkerm\cursor\PAW_MFA_LCA_2025\LCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\repositories\PAW_MFA_LCA_2025\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5AC587-669D-4D85-9D33-645B4FCFB429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9171F6-1887-4FA1-B13E-31491570E266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-1500" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF6BAC2F-8532-4D6B-ADAB-847A45F05723}"/>
   </bookViews>
   <sheets>
     <sheet name="Directory" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="165">
   <si>
     <t>Database</t>
   </si>
@@ -518,13 +529,16 @@
   </si>
   <si>
     <t>wtr_dis =&gt; irr__cec</t>
+  </si>
+  <si>
+    <t>code1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -968,14 +982,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>230</v>
       </c>
@@ -983,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>102</v>
       </c>
@@ -991,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>128</v>
       </c>
@@ -1008,19 +1022,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9BD897-F590-4437-A121-ED2632AD5485}">
   <dimension ref="A1:O257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1028,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" ht="15">
+    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1050,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1044,7 +1058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1052,7 +1066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1068,7 +1082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1090,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1100,7 +1114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1108,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1116,7 +1130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1124,7 +1138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1132,12 +1146,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1198,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1232,7 +1246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1279,7 +1293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1287,7 +1301,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1303,7 +1317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1311,7 +1325,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1319,7 +1333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1327,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1335,7 +1349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1343,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1351,7 +1365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1359,7 +1373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1367,12 +1381,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1419,7 +1433,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1467,7 +1481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1514,7 +1528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1561,7 +1575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -1569,7 +1583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1577,7 +1591,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1585,7 +1599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1593,7 +1607,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1601,7 +1615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1609,7 +1623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1617,7 +1631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1625,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -1633,7 +1647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1641,7 +1655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1649,12 +1663,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1701,7 +1715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1749,7 +1763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -1796,7 +1810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -1843,7 +1857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -1890,7 +1904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -1937,7 +1951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -1984,7 +1998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -2031,7 +2045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -2078,7 +2092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -2125,7 +2139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -2172,7 +2186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -2219,7 +2233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -2266,7 +2280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2313,7 +2327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -2360,7 +2374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -2407,7 +2421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -2454,7 +2468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -2501,7 +2515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -2548,7 +2562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -2595,7 +2609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
@@ -2603,7 +2617,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2611,7 +2625,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2619,7 +2633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -2627,7 +2641,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2635,7 +2649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -2643,7 +2657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -2651,7 +2665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -2659,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -2667,7 +2681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -2675,7 +2689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -2683,12 +2697,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2735,7 +2749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -2783,7 +2797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>36</v>
       </c>
@@ -2830,7 +2844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>36</v>
       </c>
@@ -2877,7 +2891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -2924,7 +2938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -2971,7 +2985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
@@ -2979,15 +2993,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>130</v>
       </c>
@@ -2995,7 +3009,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -3003,7 +3017,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -3011,7 +3025,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -3019,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -3027,7 +3041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -3035,7 +3049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -3043,12 +3057,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -3095,7 +3109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f>B91</f>
         <v>sec_tre =&gt; qua_tre__gac</v>
@@ -3148,7 +3162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -3200,7 +3214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -3252,7 +3266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -3304,7 +3318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -3356,7 +3370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>8</v>
       </c>
@@ -3364,7 +3378,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -3372,7 +3386,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -3380,7 +3394,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3388,7 +3402,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -3396,7 +3410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -3404,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -3412,7 +3426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -3420,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -3428,7 +3442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -3436,7 +3450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3444,12 +3458,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -3496,7 +3510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>105</v>
       </c>
@@ -3544,7 +3558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -3591,7 +3605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>8</v>
       </c>
@@ -3599,7 +3613,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -3607,7 +3621,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -3615,7 +3629,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -3623,7 +3637,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -3631,7 +3645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3639,7 +3653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -3647,7 +3661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -3655,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -3663,7 +3677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -3671,7 +3685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -3679,12 +3693,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -3731,7 +3745,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>108</v>
       </c>
@@ -3779,7 +3793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -3826,7 +3840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:15" s="10" customFormat="1">
+    <row r="139" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>8</v>
       </c>
@@ -3834,15 +3848,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:15" s="10" customFormat="1">
+    <row r="140" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:15" s="10" customFormat="1">
+    <row r="141" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>130</v>
       </c>
@@ -3850,7 +3864,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -3858,7 +3872,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -3866,7 +3880,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -3874,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -3882,7 +3896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -3890,7 +3904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>22</v>
       </c>
@@ -3898,12 +3912,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -3950,7 +3964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f>B140</f>
         <v>sec_tre =&gt; qua_tre__o3</v>
@@ -4003,7 +4017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>36</v>
       </c>
@@ -4055,7 +4069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>36</v>
       </c>
@@ -4108,8 +4122,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="13.7" customHeight="1"/>
-    <row r="154" spans="1:15" s="10" customFormat="1">
+    <row r="153" spans="1:15" ht="13.65" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>8</v>
       </c>
@@ -4117,15 +4131,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="155" spans="1:15" s="10" customFormat="1">
+    <row r="155" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="156" spans="1:15" s="10" customFormat="1">
+    <row r="156" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>130</v>
       </c>
@@ -4133,7 +4147,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -4141,7 +4155,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -4149,7 +4163,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -4157,7 +4171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -4165,7 +4179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -4173,7 +4187,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -4181,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -4189,7 +4203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -4197,7 +4211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -4205,12 +4219,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -4257,7 +4271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f>B155</f>
         <v>sec_tre =&gt; qua_tre__aop</v>
@@ -4308,7 +4322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>36</v>
       </c>
@@ -4355,7 +4369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>36</v>
       </c>
@@ -4402,7 +4416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>36</v>
       </c>
@@ -4449,7 +4463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:15" s="10" customFormat="1">
+    <row r="173" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>8</v>
       </c>
@@ -4457,15 +4471,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="174" spans="1:15" s="10" customFormat="1">
+    <row r="174" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="175" spans="1:15" s="10" customFormat="1">
+    <row r="175" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
         <v>130</v>
       </c>
@@ -4473,7 +4487,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:15" s="10" customFormat="1">
+    <row r="176" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>149</v>
       </c>
@@ -4481,7 +4495,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="177" spans="1:15" s="10" customFormat="1">
+    <row r="177" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>150</v>
       </c>
@@ -4489,7 +4503,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="178" spans="1:15" s="10" customFormat="1">
+    <row r="178" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>156</v>
       </c>
@@ -4497,7 +4511,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>15</v>
       </c>
@@ -4505,7 +4519,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -4513,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>18</v>
       </c>
@@ -4521,7 +4535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -4529,7 +4543,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>22</v>
       </c>
@@ -4537,12 +4551,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -4589,7 +4603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f>B174</f>
         <v>qua_tre =&gt; inc__nof</v>
@@ -4642,7 +4656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>36</v>
       </c>
@@ -4691,8 +4705,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15.6" customHeight="1"/>
-    <row r="189" spans="1:15" s="10" customFormat="1">
+    <row r="188" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>8</v>
       </c>
@@ -4700,15 +4714,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="190" spans="1:15" s="10" customFormat="1">
+    <row r="190" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="191" spans="1:15" s="10" customFormat="1">
+    <row r="191" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>130</v>
       </c>
@@ -4716,7 +4730,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="192" spans="1:15" s="10" customFormat="1">
+    <row r="192" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>149</v>
       </c>
@@ -4724,7 +4738,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="193" spans="1:15" s="10" customFormat="1">
+    <row r="193" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
         <v>150</v>
       </c>
@@ -4732,7 +4746,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="194" spans="1:15" s="10" customFormat="1">
+    <row r="194" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>156</v>
       </c>
@@ -4740,7 +4754,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -4748,7 +4762,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -4756,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -4764,7 +4778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -4772,7 +4786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -4780,12 +4794,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -4832,7 +4846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f>B192</f>
         <v>dec_tre =&gt; sec_tre__o3</v>
@@ -4885,7 +4899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>36</v>
       </c>
@@ -4935,7 +4949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:15" s="10" customFormat="1">
+    <row r="205" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
         <v>8</v>
       </c>
@@ -4943,7 +4957,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="206" spans="1:15" s="10" customFormat="1">
+    <row r="206" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
         <v>158</v>
       </c>
@@ -4951,7 +4965,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="207" spans="1:15" s="10" customFormat="1">
+    <row r="207" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
         <v>130</v>
       </c>
@@ -4959,7 +4973,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="208" spans="1:15" s="10" customFormat="1">
+    <row r="208" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
         <v>149</v>
       </c>
@@ -4967,7 +4981,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="209" spans="1:15" s="10" customFormat="1">
+    <row r="209" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>150</v>
       </c>
@@ -4975,7 +4989,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="210" spans="1:15" s="10" customFormat="1">
+    <row r="210" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="10" t="s">
         <v>156</v>
       </c>
@@ -4983,15 +4997,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="211" spans="1:15" s="10" customFormat="1">
+    <row r="211" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="10" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="B211" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -4999,7 +5013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -5007,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>18</v>
       </c>
@@ -5015,7 +5029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -5023,7 +5037,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>22</v>
       </c>
@@ -5031,12 +5045,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -5083,7 +5097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f>B211</f>
         <v>sldg_trans</v>
@@ -5136,7 +5150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>36</v>
       </c>
@@ -5185,7 +5199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:15" s="10" customFormat="1">
+    <row r="222" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="10" t="s">
         <v>8</v>
       </c>
@@ -5193,15 +5207,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="223" spans="1:15" s="10" customFormat="1">
+    <row r="223" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="10" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="B223" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>15</v>
       </c>
@@ -5209,7 +5223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -5217,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>18</v>
       </c>
@@ -5225,7 +5239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>20</v>
       </c>
@@ -5233,7 +5247,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>22</v>
       </c>
@@ -5241,12 +5255,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>9</v>
       </c>
@@ -5293,7 +5307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f>B223</f>
         <v>fer =&gt; soi</v>
@@ -5346,7 +5360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>36</v>
       </c>
@@ -5395,7 +5409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="s">
         <v>8</v>
       </c>
@@ -5403,7 +5417,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="10" t="s">
         <v>130</v>
       </c>
@@ -5411,15 +5425,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="B236" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -5427,7 +5441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -5435,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>18</v>
       </c>
@@ -5443,7 +5457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>20</v>
       </c>
@@ -5451,7 +5465,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>22</v>
       </c>
@@ -5459,12 +5473,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -5511,7 +5525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>132</v>
       </c>
@@ -5560,7 +5574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>134</v>
       </c>
@@ -5580,7 +5594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
         <v>8</v>
       </c>
@@ -5588,15 +5602,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="10" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="B248" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -5604,7 +5618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -5612,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>18</v>
       </c>
@@ -5620,7 +5634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -5628,7 +5642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>22</v>
       </c>
@@ -5636,12 +5650,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -5688,7 +5702,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>132</v>
       </c>
@@ -5737,7 +5751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="2:8">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>134</v>
       </c>
